--- a/result/Augmentation/summary_results.xlsx
+++ b/result/Augmentation/summary_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,60 +501,840 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.8472</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.8840</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.9132</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9248</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.9089</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.9109</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.7641</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.8231</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.7083</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.8015</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.8539</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.8866</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.9162</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9268</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.8990</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.9026</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.7599</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.8190</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.6985</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.7965</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.8590</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.8905</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.9167</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9274</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.8894</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.8950</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.7660</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.8240</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.7233</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.8126</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.8705</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.8970</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.9115</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9241</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.9113</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.9122</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.7334</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.8083</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.7343</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.8207</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.8648</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.8949</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.9096</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9239</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.8972</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.9002</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.7417</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.8136</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.7119</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.8026</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.8551</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.8899</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.9174</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9264</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.9080</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.9079</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0.7610</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.8226</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.7280</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.8122</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Resnet34_MHSABridge_ResDecoder</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.8481</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.8796</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.9115</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9256</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.9016</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.9048</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.7785</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.8280</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.6952</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0.7944</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.8509</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.8836</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.9147</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9267</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.9073</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.9089</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0.7542</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.8179</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.7452</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0.8226</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.8382</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.8740</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.9229</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9326</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.9099</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.9115</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0.7547</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.8170</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.7131</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.8081</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.8542</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.8912</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.9120</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9275</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.9110</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.9142</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0.7369</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.8151</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0.7480</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.8270</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.8778</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.9037</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.9146</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9281</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.9092</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.9131</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.7702</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.8281</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.7297</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.8148</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.8736</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.8992</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.9191</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9313</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.9198</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.9189</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.7638</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0.8246</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.7388</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.8190</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>structure_loss_size_352_bs_8_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>0.8611</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>0.8924</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>0.9210</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>0.9289</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>0.9123</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>0.9126</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>0.7686</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>0.8270</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>0.7487</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0.8278</t>
         </is>

--- a/result/Augmentation/summary_results.xlsx
+++ b/result/Augmentation/summary_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.8840</t>
+          <t>0.7797</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9248</t>
+          <t>0.8612</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.9109</t>
+          <t>0.8556</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.8231</t>
+          <t>0.6838</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.8015</t>
+          <t>0.6233</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.8866</t>
+          <t>0.7846</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9268</t>
+          <t>0.8650</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.9026</t>
+          <t>0.8426</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.8190</t>
+          <t>0.6777</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.7965</t>
+          <t>0.6138</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.8905</t>
+          <t>0.7904</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9274</t>
+          <t>0.8671</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.8950</t>
+          <t>0.8297</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.8240</t>
+          <t>0.6863</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.8126</t>
+          <t>0.6438</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.8970</t>
+          <t>0.8028</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9241</t>
+          <t>0.8611</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.9122</t>
+          <t>0.8589</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.8083</t>
+          <t>0.6573</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.8207</t>
+          <t>0.6589</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.8949</t>
+          <t>0.7982</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9239</t>
+          <t>0.8612</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.9002</t>
+          <t>0.8403</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.8136</t>
+          <t>0.6671</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.8026</t>
+          <t>0.6289</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.8899</t>
+          <t>0.7899</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.9264</t>
+          <t>0.8652</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.9079</t>
+          <t>0.8519</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.8226</t>
+          <t>0.6837</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.8122</t>
+          <t>0.6442</t>
         </is>
       </c>
     </row>
@@ -891,62 +891,62 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_Resnet18_ResDecoder</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.8481</t>
+          <t>0.8464</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.8796</t>
+          <t>0.7741</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9291</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.9256</t>
+          <t>0.8790</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.9016</t>
+          <t>0.8945</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.9048</t>
+          <t>0.8330</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.7785</t>
+          <t>0.7402</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.8280</t>
+          <t>0.6655</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.6952</t>
+          <t>0.6875</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.7944</t>
+          <t>0.6093</t>
         </is>
       </c>
     </row>
@@ -956,62 +956,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_Resnet18_ResDecoder</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.8509</t>
+          <t>0.8781</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.8836</t>
+          <t>0.8092</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.9147</t>
+          <t>0.9114</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.9267</t>
+          <t>0.8638</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.9073</t>
+          <t>0.9010</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.9089</t>
+          <t>0.8436</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.7542</t>
+          <t>0.7286</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.8179</t>
+          <t>0.6567</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.7452</t>
+          <t>0.7142</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.8226</t>
+          <t>0.6345</t>
         </is>
       </c>
     </row>
@@ -1026,57 +1026,57 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.8382</t>
+          <t>0.8481</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.8740</t>
+          <t>0.7705</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.9229</t>
+          <t>0.9115</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.9326</t>
+          <t>0.8608</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.9099</t>
+          <t>0.9016</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.8446</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.7547</t>
+          <t>0.7785</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.8170</t>
+          <t>0.6944</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.7131</t>
+          <t>0.6952</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.8081</t>
+          <t>0.6143</t>
         </is>
       </c>
     </row>
@@ -1091,57 +1091,57 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.8542</t>
+          <t>0.8509</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.8912</t>
+          <t>0.7777</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.9120</t>
+          <t>0.9147</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.9275</t>
+          <t>0.8639</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.9110</t>
+          <t>0.9073</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.9142</t>
+          <t>0.8522</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.7369</t>
+          <t>0.7542</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.8151</t>
+          <t>0.6751</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.7480</t>
+          <t>0.7452</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.8270</t>
+          <t>0.6631</t>
         </is>
       </c>
     </row>
@@ -1156,57 +1156,57 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.8778</t>
+          <t>0.8382</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.9037</t>
+          <t>0.7599</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.9146</t>
+          <t>0.9229</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.9281</t>
+          <t>0.8751</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.9092</t>
+          <t>0.9099</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.9131</t>
+          <t>0.8566</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.7702</t>
+          <t>0.7547</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.8281</t>
+          <t>0.6760</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.7297</t>
+          <t>0.7131</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.8148</t>
+          <t>0.6363</t>
         </is>
       </c>
     </row>
@@ -1221,57 +1221,57 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.8736</t>
+          <t>0.8542</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.8992</t>
+          <t>0.7942</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.9191</t>
+          <t>0.9120</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.9313</t>
+          <t>0.8666</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.9198</t>
+          <t>0.9110</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.9189</t>
+          <t>0.8603</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.7638</t>
+          <t>0.7369</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.8246</t>
+          <t>0.6706</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.7388</t>
+          <t>0.7480</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.8190</t>
+          <t>0.6690</t>
         </is>
       </c>
     </row>
@@ -1286,57 +1286,317 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.8778</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.8167</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.9146</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8674</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.9092</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.8590</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0.7702</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.6946</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.7297</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0.6494</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.8736</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.8079</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.9191</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8713</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.9198</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.8679</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.7638</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.6897</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0.7388</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0.6593</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>structure_loss_size_352_bs_8_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>0.8611</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.8924</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.7970</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>0.9210</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.9289</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8680</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>0.9123</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.9126</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.8599</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>0.7686</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0.8270</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0.6936</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>0.7487</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>0.8278</t>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.6728</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Resnet34_Resnet34_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.8566</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.7854</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.9039</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8543</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.8984</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.8414</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0.7556</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0.6806</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.7099</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0.6259</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Resnet34_Resnet34_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.8660</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.7990</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.9110</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8595</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.9094</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.8602</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0.7662</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0.6926</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0.7224</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.6460</t>
         </is>
       </c>
     </row>

--- a/result/Augmentation/summary_results.xlsx
+++ b/result/Augmentation/summary_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,62 +501,62 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.8472</t>
+          <t>0.8615</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.7797</t>
+          <t>0.7919</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.9132</t>
+          <t>0.8993</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8612</t>
+          <t>0.8494</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.9089</t>
+          <t>0.9061</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.8556</t>
+          <t>0.8475</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.7641</t>
+          <t>0.7439</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.6838</t>
+          <t>0.6639</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.7083</t>
+          <t>0.7116</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.6233</t>
+          <t>0.6254</t>
         </is>
       </c>
     </row>
@@ -566,62 +566,62 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.8539</t>
+          <t>0.8692</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.7846</t>
+          <t>0.8013</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.9162</t>
+          <t>0.8919</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8650</t>
+          <t>0.8369</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.8990</t>
+          <t>0.9107</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.8426</t>
+          <t>0.8537</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.7599</t>
+          <t>0.7631</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.6777</t>
+          <t>0.6826</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.6985</t>
+          <t>0.7278</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.6138</t>
+          <t>0.6408</t>
         </is>
       </c>
     </row>
@@ -631,62 +631,62 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.8590</t>
+          <t>0.8715</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.7904</t>
+          <t>0.8018</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.9167</t>
+          <t>0.9009</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8671</t>
+          <t>0.8480</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.8894</t>
+          <t>0.9143</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.8297</t>
+          <t>0.8599</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.7660</t>
+          <t>0.7580</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.6863</t>
+          <t>0.6771</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.7233</t>
+          <t>0.7286</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.6438</t>
+          <t>0.6463</t>
         </is>
       </c>
     </row>
@@ -701,57 +701,57 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.8705</t>
+          <t>0.8472</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.8028</t>
+          <t>0.7797</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9132</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8611</t>
+          <t>0.8612</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.9113</t>
+          <t>0.9089</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.8589</t>
+          <t>0.8556</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.7334</t>
+          <t>0.7641</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.6573</t>
+          <t>0.6838</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.7343</t>
+          <t>0.7083</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.6589</t>
+          <t>0.6233</t>
         </is>
       </c>
     </row>
@@ -766,57 +766,57 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.8648</t>
+          <t>0.8539</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.7982</t>
+          <t>0.7846</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.9096</t>
+          <t>0.9162</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8612</t>
+          <t>0.8650</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.8972</t>
+          <t>0.8990</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.8403</t>
+          <t>0.8426</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.7417</t>
+          <t>0.7599</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.6671</t>
+          <t>0.6777</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.7119</t>
+          <t>0.6985</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.6289</t>
+          <t>0.6138</t>
         </is>
       </c>
     </row>
@@ -831,57 +831,57 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.8551</t>
+          <t>0.8590</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.7899</t>
+          <t>0.7904</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.9174</t>
+          <t>0.9167</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8652</t>
+          <t>0.8671</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.9080</t>
+          <t>0.8894</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.8519</t>
+          <t>0.8297</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.7610</t>
+          <t>0.7660</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.6837</t>
+          <t>0.6863</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.7280</t>
+          <t>0.7233</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.6442</t>
+          <t>0.6438</t>
         </is>
       </c>
     </row>
@@ -891,62 +891,62 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Resnet18_Resnet18_ResDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.8464</t>
+          <t>0.8705</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.7741</t>
+          <t>0.8028</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.9291</t>
+          <t>0.9115</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8790</t>
+          <t>0.8611</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.8945</t>
+          <t>0.9113</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.8330</t>
+          <t>0.8589</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.7402</t>
+          <t>0.7334</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.6655</t>
+          <t>0.6573</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.6875</t>
+          <t>0.7343</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.6093</t>
+          <t>0.6589</t>
         </is>
       </c>
     </row>
@@ -956,62 +956,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Resnet18_Resnet18_ResDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.8781</t>
+          <t>0.8648</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.8092</t>
+          <t>0.7982</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.9114</t>
+          <t>0.9096</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.8638</t>
+          <t>0.8612</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.9010</t>
+          <t>0.8972</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.8436</t>
+          <t>0.8403</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.7286</t>
+          <t>0.7417</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.6567</t>
+          <t>0.6671</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.7142</t>
+          <t>0.7119</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.6345</t>
+          <t>0.6289</t>
         </is>
       </c>
     </row>
@@ -1021,62 +1021,62 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.8481</t>
+          <t>0.8551</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.7705</t>
+          <t>0.7899</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9174</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.8608</t>
+          <t>0.8652</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.9016</t>
+          <t>0.9080</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.8446</t>
+          <t>0.8519</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.7785</t>
+          <t>0.7610</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.6944</t>
+          <t>0.6837</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.6952</t>
+          <t>0.7280</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.6143</t>
+          <t>0.6442</t>
         </is>
       </c>
     </row>
@@ -1086,62 +1086,62 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.8509</t>
+          <t>0.8658</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.7777</t>
+          <t>0.8022</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.9147</t>
+          <t>0.9052</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.8639</t>
+          <t>0.8551</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.9073</t>
+          <t>0.9058</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.8522</t>
+          <t>0.8498</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.7542</t>
+          <t>0.7350</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.6751</t>
+          <t>0.6523</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.7452</t>
+          <t>0.7145</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.6631</t>
+          <t>0.6342</t>
         </is>
       </c>
     </row>
@@ -1151,62 +1151,62 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.8382</t>
+          <t>0.8758</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.7599</t>
+          <t>0.8051</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.9229</t>
+          <t>0.9032</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.8751</t>
+          <t>0.8538</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.9099</t>
+          <t>0.9038</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.8566</t>
+          <t>0.8482</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.7547</t>
+          <t>0.7685</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.6760</t>
+          <t>0.6851</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.7131</t>
+          <t>0.7379</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.6363</t>
+          <t>0.6538</t>
         </is>
       </c>
     </row>
@@ -1216,22 +1216,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.8542</t>
+          <t>0.8761</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.7942</t>
+          <t>0.8099</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1241,37 +1241,37 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.8666</t>
+          <t>0.8635</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.9110</t>
+          <t>0.9064</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.8603</t>
+          <t>0.8498</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.7369</t>
+          <t>0.7733</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.6706</t>
+          <t>0.6933</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.7480</t>
+          <t>0.7138</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.6690</t>
+          <t>0.6396</t>
         </is>
       </c>
     </row>
@@ -1281,62 +1281,62 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_ResBridge_ResDecoder</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.8778</t>
+          <t>0.8649</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.8167</t>
+          <t>0.7977</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.9146</t>
+          <t>0.9044</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.8674</t>
+          <t>0.8514</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.9092</t>
+          <t>0.8879</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.8590</t>
+          <t>0.8289</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.7702</t>
+          <t>0.6868</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.6946</t>
+          <t>0.6181</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.7297</t>
+          <t>0.6838</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.6494</t>
+          <t>0.6114</t>
         </is>
       </c>
     </row>
@@ -1346,62 +1346,62 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_ResBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.8736</t>
+          <t>0.8664</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.8079</t>
+          <t>0.7986</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.9191</t>
+          <t>0.9045</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.8713</t>
+          <t>0.8543</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.9198</t>
+          <t>0.8908</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.8679</t>
+          <t>0.8303</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.7638</t>
+          <t>0.6942</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.6897</t>
+          <t>0.6283</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.7388</t>
+          <t>0.7019</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.6593</t>
+          <t>0.6226</t>
         </is>
       </c>
     </row>
@@ -1411,62 +1411,62 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_Resnet18_ResDecoder</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_8_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.8611</t>
+          <t>0.8464</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.7970</t>
+          <t>0.7741</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.9210</t>
+          <t>0.9291</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.8680</t>
+          <t>0.8790</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.9123</t>
+          <t>0.8945</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.8599</t>
+          <t>0.8330</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.7686</t>
+          <t>0.7402</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.6936</t>
+          <t>0.6655</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.7487</t>
+          <t>0.6875</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.6728</t>
+          <t>0.6093</t>
         </is>
       </c>
     </row>
@@ -1476,62 +1476,62 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Resnet34_Resnet34_ResDecoder</t>
+          <t>Resnet18_Resnet18_ResDecoder</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.8566</t>
+          <t>0.8781</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.7854</t>
+          <t>0.8092</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.9039</t>
+          <t>0.9114</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.8543</t>
+          <t>0.8638</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.8984</t>
+          <t>0.9010</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.8414</t>
+          <t>0.8436</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.7556</t>
+          <t>0.7286</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.6806</t>
+          <t>0.6567</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.7099</t>
+          <t>0.7142</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.6259</t>
+          <t>0.6345</t>
         </is>
       </c>
     </row>
@@ -1541,62 +1541,1362 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Resnet18_Resnet18_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.8905</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.8177</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.9167</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8673</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.8988</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.8371</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0.7169</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0.6461</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0.7049</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.6341</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.8724</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.8094</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.9200</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8719</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.9071</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.8515</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0.7533</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0.6786</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.7458</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.6556</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.8574</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.7890</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.9177</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8711</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.9143</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.8610</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0.7594</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0.6793</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0.7760</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0.6941</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.8652</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.8014</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.8991</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8517</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.9087</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.8556</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.7521</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.6761</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0.7693</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.6880</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.8481</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.7705</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.9115</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8608</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.9016</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.8446</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0.7785</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.6944</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0.6952</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0.6143</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.8509</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.7777</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.9147</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8639</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.9073</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.8522</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.7542</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0.6751</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0.7452</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0.6631</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.8382</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.7599</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.9229</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8751</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.9099</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.8566</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0.7547</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0.6760</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0.7131</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.6363</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.8542</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.7942</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.9120</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8666</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.9110</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.8603</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0.7369</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0.6706</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0.7480</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0.6690</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.8778</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.8167</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.9146</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8674</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.9092</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.8590</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0.7702</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0.6946</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0.7297</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0.6494</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.8736</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.8079</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.9191</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8713</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.9198</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.8679</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0.7638</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0.6897</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0.7388</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0.6593</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.8708</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.8029</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.9056</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8603</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0.9193</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0.8688</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0.7483</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0.6757</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0.7509</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0.6627</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.8671</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.8029</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.9158</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8661</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0.8996</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.8431</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0.7824</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0.7015</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0.7716</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0.6924</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.8678</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.7973</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.9060</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8573</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.9180</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0.8664</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0.7607</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0.6828</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0.7507</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0.6689</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Resnet34_ResBridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.8623</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.7827</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.9063</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8590</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.9013</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0.8513</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0.7037</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0.6399</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0.7152</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0.6482</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Resnet34_ResBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.8787</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.8097</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.9024</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8564</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.9145</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.8597</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0.7104</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0.6488</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.7257</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.6476</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>Resnet34_Resnet34_ResDecoder</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.8566</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.7854</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.9039</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8543</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.8984</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0.8414</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0.7556</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0.6806</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0.7099</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0.6259</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Resnet34_Resnet34_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>0.8660</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>0.7990</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>0.9110</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>0.8595</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>0.9094</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>0.8602</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>0.7662</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>0.6926</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>0.7224</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>0.6460</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Resnet34_Resnet34_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.8548</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.7795</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.9111</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8604</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0.9056</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0.8501</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0.7423</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0.6736</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0.7487</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.6737</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.8652</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.8027</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.9211</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8708</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.9137</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0.8593</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0.7482</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0.6742</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.7777</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0.7020</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.8704</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.8026</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.9253</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8780</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0.9051</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0.8523</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0.7548</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0.6801</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>0.7552</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0.6731</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.8555</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.7912</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.9132</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8636</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0.9118</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0.8604</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0.7686</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0.6899</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0.7829</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.6968</t>
         </is>
       </c>
     </row>

--- a/result/Augmentation/summary_results.xlsx
+++ b/result/Augmentation/summary_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,42 +446,42 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Kvasir-mDice</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Kvasir-mIoU</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CVC-ClinicDB-mDice</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CVC-ClinicDB-mIoU</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CVC-ColonDB-mDice</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CVC-ColonDB-mIoU</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>CVC-300-mDice</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>CVC-300-mIoU</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CVC-ClinicDB-mDice</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CVC-ClinicDB-mIoU</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Kvasir-mDice</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Kvasir-mIoU</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CVC-ColonDB-mDice</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CVC-ColonDB-mIoU</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet34_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -511,52 +511,52 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.8615</t>
+          <t>0.9129</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.7919</t>
+          <t>0.8597</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.8993</t>
+          <t>0.9290</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8494</t>
+          <t>0.8805</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.9061</t>
+          <t>0.7696</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.8475</t>
+          <t>0.6909</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.7439</t>
+          <t>0.8705</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.6639</t>
+          <t>0.8047</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.7116</t>
+          <t>0.7482</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.6254</t>
+          <t>0.6664</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet34_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -576,52 +576,52 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.8692</t>
+          <t>0.9155</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.8013</t>
+          <t>0.8645</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.8919</t>
+          <t>0.9174</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8369</t>
+          <t>0.8671</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.9107</t>
+          <t>0.7750</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.8537</t>
+          <t>0.6944</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.7631</t>
+          <t>0.8619</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.6826</t>
+          <t>0.7924</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.7278</t>
+          <t>0.7266</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.6408</t>
+          <t>0.6381</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet34_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -641,52 +641,52 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.8715</t>
+          <t>0.9041</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.8018</t>
+          <t>0.8478</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.9009</t>
+          <t>0.9173</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8480</t>
+          <t>0.8677</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.9143</t>
+          <t>0.7838</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.8599</t>
+          <t>0.7091</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.7580</t>
+          <t>0.8667</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.6771</t>
+          <t>0.7986</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.7286</t>
+          <t>0.7661</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.6463</t>
+          <t>0.6835</t>
         </is>
       </c>
     </row>
@@ -696,62 +696,62 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>LambdaResnet34_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_7.log</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.8472</t>
+          <t>0.7826</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.7797</t>
+          <t>0.6963</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.9132</t>
+          <t>0.8284</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8612</t>
+          <t>0.7549</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.9089</t>
+          <t>0.6820</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.8556</t>
+          <t>0.5941</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.7641</t>
+          <t>0.8735</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.6838</t>
+          <t>0.7924</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.7083</t>
+          <t>0.6294</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.6233</t>
+          <t>0.5382</t>
         </is>
       </c>
     </row>
@@ -761,62 +761,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>res2net50_26w_4s_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.8539</t>
+          <t>0.9079</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.7846</t>
+          <t>0.8523</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.9162</t>
+          <t>0.9099</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8650</t>
+          <t>0.8627</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.8990</t>
+          <t>0.7615</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.8426</t>
+          <t>0.6837</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.7599</t>
+          <t>0.8719</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.6777</t>
+          <t>0.7992</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.6985</t>
+          <t>0.7722</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.6138</t>
+          <t>0.6864</t>
         </is>
       </c>
     </row>
@@ -826,62 +826,62 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>res2net50_48w_2s_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.8590</t>
+          <t>0.9131</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.7904</t>
+          <t>0.8585</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.9167</t>
+          <t>0.9257</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8671</t>
+          <t>0.8756</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.8894</t>
+          <t>0.7604</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.8297</t>
+          <t>0.6839</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.7660</t>
+          <t>0.8913</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.6863</t>
+          <t>0.8253</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.7233</t>
+          <t>0.7296</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.6438</t>
+          <t>0.6497</t>
         </is>
       </c>
     </row>
@@ -891,62 +891,62 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.8705</t>
+          <t>0.9098</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.8028</t>
+          <t>0.8571</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9062</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8611</t>
+          <t>0.8559</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.9113</t>
+          <t>0.7479</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.8589</t>
+          <t>0.6691</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.7334</t>
+          <t>0.8656</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.6573</t>
+          <t>0.7936</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.7343</t>
+          <t>0.7117</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.6589</t>
+          <t>0.6270</t>
         </is>
       </c>
     </row>
@@ -956,62 +956,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.8648</t>
+          <t>0.9046</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.7982</t>
+          <t>0.8494</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.9096</t>
+          <t>0.8989</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.8612</t>
+          <t>0.8489</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.8972</t>
+          <t>0.7499</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.8403</t>
+          <t>0.6678</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.7417</t>
+          <t>0.8640</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.6671</t>
+          <t>0.7906</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.7119</t>
+          <t>0.7067</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.6289</t>
+          <t>0.6165</t>
         </is>
       </c>
     </row>
@@ -1021,62 +1021,62 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.8551</t>
+          <t>0.9080</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.7899</t>
+          <t>0.8549</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.9174</t>
+          <t>0.9104</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.8652</t>
+          <t>0.8609</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.9080</t>
+          <t>0.7535</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.8519</t>
+          <t>0.6730</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.7610</t>
+          <t>0.8658</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.6837</t>
+          <t>0.7931</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.7280</t>
+          <t>0.7168</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.6442</t>
+          <t>0.6328</t>
         </is>
       </c>
     </row>
@@ -1086,62 +1086,62 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SimpleDecoder</t>
+          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.8658</t>
+          <t>0.8969</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.8022</t>
+          <t>0.8379</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.9052</t>
+          <t>0.8939</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.8551</t>
+          <t>0.8365</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.9058</t>
+          <t>0.7538</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.8498</t>
+          <t>0.6744</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.7350</t>
+          <t>0.8605</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.6523</t>
+          <t>0.7905</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.7145</t>
+          <t>0.7088</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.6342</t>
+          <t>0.6237</t>
         </is>
       </c>
     </row>
@@ -1151,62 +1151,62 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SimpleDecoder</t>
+          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_9.log</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.8758</t>
+          <t>0.9045</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.8051</t>
+          <t>0.8470</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.9032</t>
+          <t>0.9147</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.8538</t>
+          <t>0.8644</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.9038</t>
+          <t>0.7493</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.8482</t>
+          <t>0.6684</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.7685</t>
+          <t>0.8731</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.6851</t>
+          <t>0.8054</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.7379</t>
+          <t>0.7021</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.6538</t>
+          <t>0.6218</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SimpleDecoder</t>
+          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_9.log</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.8761</t>
+          <t>0.9064</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.8099</t>
+          <t>0.8510</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.9120</t>
+          <t>0.9026</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.8635</t>
+          <t>0.8530</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.9064</t>
+          <t>0.7597</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.8498</t>
+          <t>0.6775</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.7733</t>
+          <t>0.8697</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.6933</t>
+          <t>0.7984</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.7138</t>
+          <t>0.7081</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.6396</t>
+          <t>0.6273</t>
         </is>
       </c>
     </row>
@@ -1281,62 +1281,62 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Resnet18_ResBridge_ResDecoder</t>
+          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.8649</t>
+          <t>0.8972</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.7977</t>
+          <t>0.8415</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.9044</t>
+          <t>0.9093</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.8514</t>
+          <t>0.8591</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.8879</t>
+          <t>0.7521</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.8289</t>
+          <t>0.6702</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.6868</t>
+          <t>0.8619</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.6181</t>
+          <t>0.7844</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.6838</t>
+          <t>0.7040</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.6114</t>
+          <t>0.6147</t>
         </is>
       </c>
     </row>
@@ -1346,62 +1346,62 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Resnet18_ResBridge_SimpleDecoder</t>
+          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_9.log</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.8664</t>
+          <t>0.8972</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.7986</t>
+          <t>0.8415</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.9045</t>
+          <t>0.9093</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.8543</t>
+          <t>0.8591</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.8908</t>
+          <t>0.7521</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.8303</t>
+          <t>0.6702</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.6942</t>
+          <t>0.8619</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.6283</t>
+          <t>0.7844</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.7019</t>
+          <t>0.7040</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.6226</t>
+          <t>0.6147</t>
         </is>
       </c>
     </row>
@@ -1411,62 +1411,62 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Resnet18_Resnet18_ResDecoder</t>
+          <t>Resnet18_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.8464</t>
+          <t>0.9039</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.7741</t>
+          <t>0.8467</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.9291</t>
+          <t>0.9076</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.8790</t>
+          <t>0.8544</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.8945</t>
+          <t>0.7340</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.8330</t>
+          <t>0.6511</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.7402</t>
+          <t>0.8599</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.6655</t>
+          <t>0.7862</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.6875</t>
+          <t>0.7008</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.6093</t>
+          <t>0.6132</t>
         </is>
       </c>
     </row>
@@ -1476,62 +1476,62 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Resnet18_Resnet18_ResDecoder</t>
+          <t>Resnet18_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.8781</t>
+          <t>0.9071</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.8092</t>
+          <t>0.8495</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.9114</t>
+          <t>0.9027</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.8638</t>
+          <t>0.8519</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.9010</t>
+          <t>0.7579</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.8436</t>
+          <t>0.6787</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.7286</t>
+          <t>0.8521</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.6567</t>
+          <t>0.7787</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.7142</t>
+          <t>0.6781</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.6345</t>
+          <t>0.5955</t>
         </is>
       </c>
     </row>
@@ -1541,62 +1541,62 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Resnet18_Resnet18_SimpleDecoder</t>
+          <t>Resnet18_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.8905</t>
+          <t>0.9056</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.8177</t>
+          <t>0.8511</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.9167</t>
+          <t>0.8956</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.8673</t>
+          <t>0.8457</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.8988</t>
+          <t>0.7694</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.8371</t>
+          <t>0.6855</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.7169</t>
+          <t>0.8682</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.6461</t>
+          <t>0.7960</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.7049</t>
+          <t>0.7160</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.6341</t>
+          <t>0.6370</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1616,52 +1616,52 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.8724</t>
+          <t>0.9035</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.8094</t>
+          <t>0.8431</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.9200</t>
+          <t>0.9168</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.8719</t>
+          <t>0.8648</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.9071</t>
+          <t>0.7581</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.8515</t>
+          <t>0.6715</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.7533</t>
+          <t>0.8627</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.6786</t>
+          <t>0.7960</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.7458</t>
+          <t>0.7182</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.6556</t>
+          <t>0.6298</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1681,52 +1681,52 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.8574</t>
+          <t>0.9120</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.7890</t>
+          <t>0.8555</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.9177</t>
+          <t>0.9067</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.8711</t>
+          <t>0.8540</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.9143</t>
+          <t>0.7478</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.8610</t>
+          <t>0.6658</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.7594</t>
+          <t>0.8725</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.6793</t>
+          <t>0.8042</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.7760</t>
+          <t>0.7073</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.6941</t>
+          <t>0.6189</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1746,52 +1746,52 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.8652</t>
+          <t>0.9040</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.8014</t>
+          <t>0.8462</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.8991</t>
+          <t>0.9020</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.8517</t>
+          <t>0.8545</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.9087</t>
+          <t>0.7717</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.8556</t>
+          <t>0.6892</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.7521</t>
+          <t>0.8755</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.6761</t>
+          <t>0.8096</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.7693</t>
+          <t>0.7377</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.6880</t>
+          <t>0.6509</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1811,52 +1811,52 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.8481</t>
+          <t>0.9089</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.7705</t>
+          <t>0.8556</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9132</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.8608</t>
+          <t>0.8612</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.9016</t>
+          <t>0.7641</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.8446</t>
+          <t>0.6838</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.7785</t>
+          <t>0.8472</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.6944</t>
+          <t>0.7797</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.6952</t>
+          <t>0.7083</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.6143</t>
+          <t>0.6233</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1876,52 +1876,52 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.8509</t>
+          <t>0.8990</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.7777</t>
+          <t>0.8426</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.9147</t>
+          <t>0.9162</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.8639</t>
+          <t>0.8650</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.9073</t>
+          <t>0.7599</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.8522</t>
+          <t>0.6777</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.7542</t>
+          <t>0.8539</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.6751</t>
+          <t>0.7846</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.7452</t>
+          <t>0.6985</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.6631</t>
+          <t>0.6138</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1941,52 +1941,52 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.8382</t>
+          <t>0.8894</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.7599</t>
+          <t>0.8297</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.9229</t>
+          <t>0.9167</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.8751</t>
+          <t>0.8671</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.9099</t>
+          <t>0.7660</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.8566</t>
+          <t>0.6863</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.7547</t>
+          <t>0.8590</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.6760</t>
+          <t>0.7904</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.7131</t>
+          <t>0.7233</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.6363</t>
+          <t>0.6438</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2006,52 +2006,52 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.8542</t>
+          <t>0.9113</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.7942</t>
+          <t>0.8589</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.9120</t>
+          <t>0.9115</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.8666</t>
+          <t>0.8611</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.9110</t>
+          <t>0.7334</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.8603</t>
+          <t>0.6573</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.7369</t>
+          <t>0.8705</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.6706</t>
+          <t>0.8028</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.7480</t>
+          <t>0.7343</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.6690</t>
+          <t>0.6589</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2071,52 +2071,52 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.8778</t>
+          <t>0.8972</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.8167</t>
+          <t>0.8403</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.9146</t>
+          <t>0.9096</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.8674</t>
+          <t>0.8612</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.9092</t>
+          <t>0.7417</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.8590</t>
+          <t>0.6671</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.7702</t>
+          <t>0.8648</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.6946</t>
+          <t>0.7982</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.7297</t>
+          <t>0.7119</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.6494</t>
+          <t>0.6289</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2136,52 +2136,52 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.8736</t>
+          <t>0.9080</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.8079</t>
+          <t>0.8519</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.9191</t>
+          <t>0.9174</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.8713</t>
+          <t>0.8652</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.9198</t>
+          <t>0.7610</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.8679</t>
+          <t>0.6837</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.7638</t>
+          <t>0.8551</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.6897</t>
+          <t>0.7899</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.7388</t>
+          <t>0.7280</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.6593</t>
+          <t>0.6442</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SimpleDecoder</t>
+          <t>Resnet18_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2201,52 +2201,52 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.8708</t>
+          <t>0.9058</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.8029</t>
+          <t>0.8498</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.9056</t>
+          <t>0.9052</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.8603</t>
+          <t>0.8551</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.9193</t>
+          <t>0.7350</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.8688</t>
+          <t>0.6523</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.7483</t>
+          <t>0.8658</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.6757</t>
+          <t>0.8022</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.7509</t>
+          <t>0.7145</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.6627</t>
+          <t>0.6342</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SimpleDecoder</t>
+          <t>Resnet18_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2266,52 +2266,52 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.8671</t>
+          <t>0.9038</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.8029</t>
+          <t>0.8482</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.9158</t>
+          <t>0.9032</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.8661</t>
+          <t>0.8538</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.8996</t>
+          <t>0.7685</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.8431</t>
+          <t>0.6851</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.7824</t>
+          <t>0.8758</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.7015</t>
+          <t>0.8051</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.7716</t>
+          <t>0.7379</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.6924</t>
+          <t>0.6538</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SimpleDecoder</t>
+          <t>Resnet18_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2331,52 +2331,52 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.8678</t>
+          <t>0.9064</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.7973</t>
+          <t>0.8498</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.9060</t>
+          <t>0.9120</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.8573</t>
+          <t>0.8635</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.9180</t>
+          <t>0.7733</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.8664</t>
+          <t>0.6933</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.7607</t>
+          <t>0.8761</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.6828</t>
+          <t>0.8099</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.7507</t>
+          <t>0.7138</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.6689</t>
+          <t>0.6396</t>
         </is>
       </c>
     </row>
@@ -2386,62 +2386,62 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Resnet34_ResBridge_ResDecoder</t>
+          <t>Resnet18_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.8623</t>
+          <t>0.9037</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.7827</t>
+          <t>0.8486</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.9063</t>
+          <t>0.9110</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.8590</t>
+          <t>0.8569</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.9013</t>
+          <t>0.7475</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.8513</t>
+          <t>0.6648</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.7037</t>
+          <t>0.8824</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.6399</t>
+          <t>0.8122</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.7152</t>
+          <t>0.7184</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.6482</t>
+          <t>0.6335</t>
         </is>
       </c>
     </row>
@@ -2451,62 +2451,62 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Resnet34_ResBridge_SimpleDecoder</t>
+          <t>Resnet18_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.8787</t>
+          <t>0.8966</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.8097</t>
+          <t>0.8386</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.9024</t>
+          <t>0.9119</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.8564</t>
+          <t>0.8607</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.9145</t>
+          <t>0.7745</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.8597</t>
+          <t>0.6957</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.7104</t>
+          <t>0.8806</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.6488</t>
+          <t>0.8151</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.7257</t>
+          <t>0.7296</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.6476</t>
+          <t>0.6538</t>
         </is>
       </c>
     </row>
@@ -2516,62 +2516,62 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Resnet34_Resnet34_ResDecoder</t>
+          <t>Resnet18_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.8566</t>
+          <t>0.9101</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.7854</t>
+          <t>0.8572</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.9039</t>
+          <t>0.9097</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.8543</t>
+          <t>0.8587</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.8984</t>
+          <t>0.7625</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.8414</t>
+          <t>0.6800</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.7556</t>
+          <t>0.8747</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.6806</t>
+          <t>0.8095</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.7099</t>
+          <t>0.7465</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.6259</t>
+          <t>0.6616</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Resnet34_Resnet34_ResDecoder</t>
+          <t>Resnet18_ResBridge_ResDecoder</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2591,52 +2591,52 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.8660</t>
+          <t>0.8879</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.7990</t>
+          <t>0.8289</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.9110</t>
+          <t>0.9044</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.8595</t>
+          <t>0.8514</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.9094</t>
+          <t>0.6868</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0.8602</t>
+          <t>0.6181</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0.7662</t>
+          <t>0.8649</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.6926</t>
+          <t>0.7977</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.7224</t>
+          <t>0.6838</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.6460</t>
+          <t>0.6114</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Resnet34_Resnet34_SimpleDecoder</t>
+          <t>Resnet18_ResBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2656,52 +2656,52 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.8548</t>
+          <t>0.8908</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.7795</t>
+          <t>0.8303</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.9111</t>
+          <t>0.9045</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.8604</t>
+          <t>0.8543</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.9056</t>
+          <t>0.6942</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.8501</t>
+          <t>0.6283</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.7423</t>
+          <t>0.8664</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.6736</t>
+          <t>0.7986</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.7487</t>
+          <t>0.7019</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.6737</t>
+          <t>0.6226</t>
         </is>
       </c>
     </row>
@@ -2711,62 +2711,62 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet18_Resnet18_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.8652</t>
+          <t>0.8961</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.8027</t>
+          <t>0.8344</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.9211</t>
+          <t>0.9159</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.8708</t>
+          <t>0.8668</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.9137</t>
+          <t>0.7496</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.8593</t>
+          <t>0.6706</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.7482</t>
+          <t>0.8756</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.6742</t>
+          <t>0.8066</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.7777</t>
+          <t>0.7185</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.7020</t>
+          <t>0.6341</t>
         </is>
       </c>
     </row>
@@ -2776,62 +2776,62 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet18_Resnet18_ResDecoder</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.8704</t>
+          <t>0.8945</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.8026</t>
+          <t>0.8330</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.9253</t>
+          <t>0.9291</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.8780</t>
+          <t>0.8790</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.9051</t>
+          <t>0.7402</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.8523</t>
+          <t>0.6655</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.7548</t>
+          <t>0.8464</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.6801</t>
+          <t>0.7741</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.7552</t>
+          <t>0.6875</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.6731</t>
+          <t>0.6093</t>
         </is>
       </c>
     </row>
@@ -2841,62 +2841,3257 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>Resnet18_Resnet18_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.9010</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.8436</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.9114</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8638</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0.7286</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0.6567</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0.8781</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0.8092</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0.7142</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.6345</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Resnet18_Resnet18_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.9026</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.8440</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.9225</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8732</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0.7294</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.6538</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0.8765</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0.8065</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>0.7279</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0.6557</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.8953</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.8403</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.9093</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.8580</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0.7941</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.7153</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0.8624</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0.7946</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0.7338</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0.6510</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.9155</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.8626</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.9026</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.8510</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0.7585</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0.6791</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0.8610</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0.7909</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>0.7220</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0.6387</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.9167</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.8670</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.9080</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.8585</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0.7634</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0.6867</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0.8483</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0.7737</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0.7163</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0.6320</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.9154</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.8622</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.9096</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.8608</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0.7680</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0.6894</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0.8502</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0.7831</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0.7650</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0.6787</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_7.log</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.9156</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0.8640</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.9184</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.8685</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0.7622</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0.6888</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0.8691</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0.8004</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>0.7397</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0.6535</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_9.log</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.9159</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.8628</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.9133</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.8651</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0.7787</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0.7040</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0.8811</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0.8168</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>0.7548</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0.6735</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_9.log</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.9024</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.8463</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.9165</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.8717</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0.7711</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0.6923</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>0.8501</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0.7824</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0.7250</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0.6436</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.9115</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0.8590</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.9125</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.8634</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0.7750</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0.6957</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0.8526</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0.7799</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0.7467</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0.6613</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.9183</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0.8668</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.8972</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.8504</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0.7623</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0.6868</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0.8433</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0.7716</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>0.7537</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0.6716</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_7.log</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.9079</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0.8518</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.8953</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.8506</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0.7723</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0.6975</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0.8724</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0.8067</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0.7491</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0.6701</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_9.log</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.9115</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.8590</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.9125</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.8634</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0.7750</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0.6957</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0.8526</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0.7799</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>0.7467</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>0.6613</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.9143</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.8624</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.9084</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.8563</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0.7651</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0.6861</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0.8256</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>0.7434</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>0.7334</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0.6417</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.9132</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.8600</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.8917</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.8436</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0.7697</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0.6921</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0.8466</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0.7808</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>0.7386</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0.6524</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.9123</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0.8599</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.8989</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.8471</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0.7833</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0.7039</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0.8730</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0.8071</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>0.7615</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0.6755</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.9016</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0.8446</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.9115</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.8608</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0.7785</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>0.6944</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>0.8481</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0.7705</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>0.6952</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0.6143</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.9073</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0.8522</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.9147</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.8639</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0.7542</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0.6751</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>0.8509</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0.7777</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>0.7452</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0.6631</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.9099</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.8566</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.9229</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.8751</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0.7547</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>0.6760</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0.8382</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>0.7599</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>0.7131</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>0.6363</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.9110</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0.8603</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.9120</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.8666</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0.7369</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>0.6706</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>0.8542</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>0.7942</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0.7480</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0.6690</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.9092</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0.8590</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.9146</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.8674</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>0.7702</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>0.6946</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>0.8778</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>0.8167</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>0.7297</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0.6494</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.9198</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0.8679</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.9191</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.8713</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>0.7638</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>0.6897</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>0.8736</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>0.8079</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>0.7388</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>0.6593</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.9193</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0.8688</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.9056</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.8603</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0.7483</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0.6757</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>0.8708</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>0.8029</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0.7509</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0.6627</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.8996</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0.8431</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.9158</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.8661</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0.7824</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>0.7015</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>0.8671</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0.8029</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>0.7716</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>0.6924</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.9180</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0.8664</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.9060</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.8573</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>0.7607</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0.6828</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>0.8678</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0.7973</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>0.7507</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>0.6689</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.9119</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0.8583</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.9272</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.8769</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>0.7630</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>0.8614</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>0.7931</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>0.7268</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>0.6455</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.9142</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0.8641</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.9247</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.8748</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>0.7613</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>0.6828</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>0.8636</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0.7931</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0.7324</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0.6468</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Resnet34_MHSABridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.9117</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0.8604</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.9193</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.8716</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>0.7515</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>0.6760</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>0.8743</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0.8124</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>0.7415</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0.6596</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Resnet34_ResBridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.9013</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0.8513</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.9063</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.8590</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>0.7037</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>0.6399</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>0.8623</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>0.7827</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>0.7152</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>0.6482</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Resnet34_ResBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.9145</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0.8597</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.9024</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.8564</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0.7104</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>0.6488</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0.8787</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0.8097</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>0.7257</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0.6476</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Resnet34_Resnet34_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.9128</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0.8588</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.9169</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.8692</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0.7659</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0.6921</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>0.8514</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0.7817</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>0.7510</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>0.6679</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Resnet34_Resnet34_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.8984</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0.8414</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.9039</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.8543</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>0.7556</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>0.6806</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0.8566</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0.7854</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>0.7099</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0.6259</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Resnet34_Resnet34_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.9094</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0.8602</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.9110</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.8595</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>0.7662</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0.6926</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>0.8660</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0.7990</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>0.7224</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>0.6460</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Resnet34_Resnet34_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.9033</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0.8450</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.9205</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.8715</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>0.7638</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>0.6922</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0.8767</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0.8110</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>0.7660</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>0.6889</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.9000</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0.8480</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.9186</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.8689</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0.7686</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>0.6883</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0.8398</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0.7622</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>0.7944</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0.7122</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.9129</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.8612</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.9150</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.8677</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>0.7797</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>0.6986</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0.8699</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0.8042</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0.7753</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0.6902</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.9150</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0.8652</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.9153</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.8671</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0.7958</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>0.7145</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0.8543</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>0.7833</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>0.7817</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>0.6970</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Resnet50_LambdaBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.9248</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0.8765</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.9088</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.8637</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>0.7627</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>0.6872</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>0.8849</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>0.8190</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0.8083</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0.7245</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Resnet50_LambdaBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.9062</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0.8556</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.9254</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.8754</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>0.7631</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>0.6870</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0.8622</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0.7932</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>0.7706</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>0.6865</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Resnet50_LambdaBridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.9117</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0.8582</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.9093</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.8638</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>0.7606</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>0.6785</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0.8640</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0.7926</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0.7614</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0.6794</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Resnet50_LambdaBridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.9115</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0.8607</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.9289</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.8828</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>0.7800</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>0.6998</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0.8520</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0.7831</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>0.7298</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>0.6491</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Resnet50_LambdaBridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.9014</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0.8502</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.9255</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.8794</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>0.7740</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>0.6943</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>0.8642</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0.7981</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>0.7737</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>0.6900</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
           <t>Resnet50_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.9101</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0.8585</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.9324</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.8816</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>0.7351</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>0.6617</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0.8701</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>0.8046</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>0.7957</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0.7111</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.9063</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0.8497</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.9148</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.8634</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>0.7591</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>0.6826</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>0.8672</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>0.7956</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>0.7913</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>0.7106</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
         <is>
           <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.8555</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0.7912</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.9132</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.8636</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>0.9118</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.9116</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0.8592</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.9278</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.8805</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>0.7603</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>0.6856</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>0.8715</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>0.8075</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>0.7720</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>0.6876</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Resnet50_MHSABridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.9105</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0.8598</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.9207</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.8716</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>0.7364</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>0.6637</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>0.8760</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>0.8103</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0.7621</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0.6870</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Resnet50_MHSABridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.9122</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0.8625</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.9366</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.8907</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>0.7597</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>0.6810</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>0.8519</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>0.7892</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>0.7722</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>0.6931</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Resnet50_MHSABridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.9106</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0.8583</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.9172</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.8681</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>0.7585</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>0.6804</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
         <is>
           <t>0.8604</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>0.7686</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0.6899</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>0.7829</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>0.6968</t>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>0.7988</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>0.7433</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>0.6616</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Resnet50_Resnet50_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Resnet50_Resnet50_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.9114</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0.8595</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.9190</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.8698</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>0.7276</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>0.6609</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>0.8803</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>0.8087</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>0.7405</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>0.6763</t>
         </is>
       </c>
     </row>

--- a/result/Augmentation/summary_results.xlsx
+++ b/result/Augmentation/summary_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,62 +761,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>res2net50_26w_4s_MHSABridge_DepthwsDecoder</t>
+          <t>res2net50_26w_4s_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.9079</t>
+          <t>0.9058</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.8523</t>
+          <t>0.8524</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.9099</t>
+          <t>0.9058</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8627</t>
+          <t>0.8610</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.7615</t>
+          <t>0.7510</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.6837</t>
+          <t>0.6768</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.8719</t>
+          <t>0.8625</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.7992</t>
+          <t>0.7929</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.7722</t>
+          <t>0.8039</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.6864</t>
+          <t>0.7239</t>
         </is>
       </c>
     </row>
@@ -826,62 +826,62 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>res2net50_48w_2s_MHSABridge_DepthwsDecoder</t>
+          <t>res2net50_26w_4s_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.9131</t>
+          <t>0.9095</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.8585</t>
+          <t>0.8566</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.9257</t>
+          <t>0.9181</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8756</t>
+          <t>0.8703</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.7604</t>
+          <t>0.7654</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.6839</t>
+          <t>0.6907</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.8913</t>
+          <t>0.8848</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.8253</t>
+          <t>0.8216</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.7296</t>
+          <t>0.7743</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.6497</t>
+          <t>0.6899</t>
         </is>
       </c>
     </row>
@@ -891,62 +891,62 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
+          <t>res2net50_26w_4s_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.9098</t>
+          <t>0.9110</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.8571</t>
+          <t>0.8608</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.9062</t>
+          <t>0.9173</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8559</t>
+          <t>0.8670</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.7479</t>
+          <t>0.7697</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.6691</t>
+          <t>0.6911</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.8656</t>
+          <t>0.8761</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.7936</t>
+          <t>0.8103</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.7117</t>
+          <t>0.7617</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.6270</t>
+          <t>0.6842</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
+          <t>res2net50_26w_4s_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -966,52 +966,52 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.9046</t>
+          <t>0.9113</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.8494</t>
+          <t>0.8559</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.8989</t>
+          <t>0.9012</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.8489</t>
+          <t>0.8552</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.7499</t>
+          <t>0.7558</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.6678</t>
+          <t>0.6815</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.8640</t>
+          <t>0.8826</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.7906</t>
+          <t>0.8181</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.7067</t>
+          <t>0.7523</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.6165</t>
+          <t>0.6726</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
+          <t>res2net50_26w_4s_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1031,52 +1031,52 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.9080</t>
+          <t>0.9075</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.8549</t>
+          <t>0.8536</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.9104</t>
+          <t>0.9066</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.8609</t>
+          <t>0.8610</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.7535</t>
+          <t>0.7404</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.6730</t>
+          <t>0.6689</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.8658</t>
+          <t>0.8710</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.7931</t>
+          <t>0.8051</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.7168</t>
+          <t>0.7146</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.6328</t>
+          <t>0.6421</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
+          <t>res2net50_26w_4s_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1096,52 +1096,52 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.8969</t>
+          <t>0.9023</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.8379</t>
+          <t>0.8489</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.8939</t>
+          <t>0.9069</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.8365</t>
+          <t>0.8641</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.7538</t>
+          <t>0.7514</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.6744</t>
+          <t>0.6780</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.8605</t>
+          <t>0.8752</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.7905</t>
+          <t>0.8123</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.7088</t>
+          <t>0.7674</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.6237</t>
+          <t>0.6888</t>
         </is>
       </c>
     </row>
@@ -1151,62 +1151,62 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
+          <t>res2net50_26w_4s_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_9.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.9045</t>
+          <t>0.9079</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.8470</t>
+          <t>0.8523</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.9147</t>
+          <t>0.9099</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.8644</t>
+          <t>0.8627</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.7493</t>
+          <t>0.7615</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.6684</t>
+          <t>0.6837</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.8731</t>
+          <t>0.8719</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.8054</t>
+          <t>0.7992</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.7021</t>
+          <t>0.7722</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.6218</t>
+          <t>0.6864</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
+          <t>res2net50_26w_4s_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_9.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.9064</t>
+          <t>0.9115</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.8510</t>
+          <t>0.8589</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.9026</t>
+          <t>0.8987</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.8530</t>
+          <t>0.8494</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.7597</t>
+          <t>0.7448</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.6775</t>
+          <t>0.6766</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.8697</t>
+          <t>0.8839</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.7984</t>
+          <t>0.8167</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.7081</t>
+          <t>0.7611</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.6273</t>
+          <t>0.6864</t>
         </is>
       </c>
     </row>
@@ -1281,62 +1281,62 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
+          <t>res2net50_26w_4s_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.8972</t>
+          <t>0.9084</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.8415</t>
+          <t>0.8554</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.9093</t>
+          <t>0.9107</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.8591</t>
+          <t>0.8622</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.7521</t>
+          <t>0.7526</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.6702</t>
+          <t>0.6782</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.8619</t>
+          <t>0.8833</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.7844</t>
+          <t>0.8171</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.7040</t>
+          <t>0.7573</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.6147</t>
+          <t>0.6782</t>
         </is>
       </c>
     </row>
@@ -1346,62 +1346,62 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
+          <t>res2net50_26w_4s_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_9.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.8972</t>
+          <t>0.9046</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.8415</t>
+          <t>0.8505</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.9093</t>
+          <t>0.9098</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.8591</t>
+          <t>0.8663</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.7521</t>
+          <t>0.7420</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.6702</t>
+          <t>0.6691</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.8619</t>
+          <t>0.8734</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.7844</t>
+          <t>0.8109</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.7040</t>
+          <t>0.7491</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.6147</t>
+          <t>0.6723</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_SmallDecoder</t>
+          <t>res2net50_48w_2s_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1421,52 +1421,52 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.9039</t>
+          <t>0.9156</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.8467</t>
+          <t>0.8662</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.9076</t>
+          <t>0.9161</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.8544</t>
+          <t>0.8678</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.7340</t>
+          <t>0.7724</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.6511</t>
+          <t>0.6952</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.8599</t>
+          <t>0.8867</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.7862</t>
+          <t>0.8180</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.7008</t>
+          <t>0.7534</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.6132</t>
+          <t>0.6739</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_SmallDecoder</t>
+          <t>res2net50_48w_2s_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1486,52 +1486,52 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.9071</t>
+          <t>0.9092</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.8495</t>
+          <t>0.8563</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.9027</t>
+          <t>0.9158</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.8519</t>
+          <t>0.8679</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.7579</t>
+          <t>0.7744</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.6787</t>
+          <t>0.6954</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.8521</t>
+          <t>0.8595</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.7787</t>
+          <t>0.7890</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.6781</t>
+          <t>0.7449</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.5955</t>
+          <t>0.6548</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_SmallDecoder</t>
+          <t>res2net50_48w_2s_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1551,52 +1551,52 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.9056</t>
+          <t>0.9134</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.8511</t>
+          <t>0.8629</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.8956</t>
+          <t>0.9054</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.8457</t>
+          <t>0.8609</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.7694</t>
+          <t>0.7680</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.6855</t>
+          <t>0.6894</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.8682</t>
+          <t>0.8635</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.7960</t>
+          <t>0.7930</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.7160</t>
+          <t>0.7345</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.6370</t>
+          <t>0.6530</t>
         </is>
       </c>
     </row>
@@ -1606,62 +1606,62 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
+          <t>res2net50_48w_2s_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.9035</t>
+          <t>0.9099</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.8431</t>
+          <t>0.8575</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.9168</t>
+          <t>0.9050</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.8648</t>
+          <t>0.8604</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.7581</t>
+          <t>0.7681</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.6715</t>
+          <t>0.6885</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.8627</t>
+          <t>0.8652</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.7960</t>
+          <t>0.7970</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.7182</t>
+          <t>0.7421</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.6298</t>
+          <t>0.6626</t>
         </is>
       </c>
     </row>
@@ -1671,62 +1671,62 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
+          <t>res2net50_48w_2s_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9120</t>
+          <t>0.9238</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.8555</t>
+          <t>0.8744</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.9067</t>
+          <t>0.9160</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.8540</t>
+          <t>0.8672</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.7478</t>
+          <t>0.7677</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.6658</t>
+          <t>0.6875</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.8725</t>
+          <t>0.8462</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.8042</t>
+          <t>0.7790</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.7073</t>
+          <t>0.7308</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.6189</t>
+          <t>0.6507</t>
         </is>
       </c>
     </row>
@@ -1736,62 +1736,62 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
+          <t>res2net50_48w_2s_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.9040</t>
+          <t>0.9092</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.8462</t>
+          <t>0.8579</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.9020</t>
+          <t>0.9213</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.8545</t>
+          <t>0.8757</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.7717</t>
+          <t>0.7544</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.6892</t>
+          <t>0.6788</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.8755</t>
+          <t>0.8689</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.8096</t>
+          <t>0.8005</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.7377</t>
+          <t>0.7485</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.6509</t>
+          <t>0.6678</t>
         </is>
       </c>
     </row>
@@ -1801,62 +1801,62 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>res2net50_48w_2s_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.9089</t>
+          <t>0.9131</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.8556</t>
+          <t>0.8585</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.9132</t>
+          <t>0.9257</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.8612</t>
+          <t>0.8756</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.7641</t>
+          <t>0.7604</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.6838</t>
+          <t>0.6839</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.8472</t>
+          <t>0.8913</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.7797</t>
+          <t>0.8253</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.7083</t>
+          <t>0.7296</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.6233</t>
+          <t>0.6497</t>
         </is>
       </c>
     </row>
@@ -1866,62 +1866,62 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>res2net50_48w_2s_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.8990</t>
+          <t>0.9108</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.8426</t>
+          <t>0.8571</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.9162</t>
+          <t>0.9196</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.8650</t>
+          <t>0.8734</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.7599</t>
+          <t>0.7467</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.6777</t>
+          <t>0.6728</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.8539</t>
+          <t>0.8707</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.7846</t>
+          <t>0.8062</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.6985</t>
+          <t>0.7354</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.6138</t>
+          <t>0.6581</t>
         </is>
       </c>
     </row>
@@ -1931,27 +1931,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>res2net50_48w_2s_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.8894</t>
+          <t>0.9082</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.8297</t>
+          <t>0.8530</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.9167</t>
+          <t>0.9158</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1961,32 +1961,32 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.7660</t>
+          <t>0.7624</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.6863</t>
+          <t>0.6875</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.8590</t>
+          <t>0.8716</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.7904</t>
+          <t>0.8091</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.7233</t>
+          <t>0.7578</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.6438</t>
+          <t>0.6750</t>
         </is>
       </c>
     </row>
@@ -1996,62 +1996,62 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.9113</t>
+          <t>0.9098</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.8589</t>
+          <t>0.8571</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9062</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.8611</t>
+          <t>0.8559</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.7334</t>
+          <t>0.7479</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.6573</t>
+          <t>0.6691</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.8705</t>
+          <t>0.8656</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.8028</t>
+          <t>0.7936</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.7343</t>
+          <t>0.7117</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.6589</t>
+          <t>0.6270</t>
         </is>
       </c>
     </row>
@@ -2061,62 +2061,62 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.8972</t>
+          <t>0.9046</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.8403</t>
+          <t>0.8494</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.9096</t>
+          <t>0.8989</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.8612</t>
+          <t>0.8489</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.7417</t>
+          <t>0.7499</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.6671</t>
+          <t>0.6678</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.8648</t>
+          <t>0.8640</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.7982</t>
+          <t>0.7906</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.7119</t>
+          <t>0.7067</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.6289</t>
+          <t>0.6165</t>
         </is>
       </c>
     </row>
@@ -2126,12 +2126,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2141,47 +2141,47 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.8519</t>
+          <t>0.8549</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.9174</t>
+          <t>0.9104</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.8652</t>
+          <t>0.8609</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.7610</t>
+          <t>0.7535</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.6837</t>
+          <t>0.6730</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.8551</t>
+          <t>0.8658</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.7899</t>
+          <t>0.7931</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.7280</t>
+          <t>0.7168</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.6442</t>
+          <t>0.6328</t>
         </is>
       </c>
     </row>
@@ -2191,62 +2191,62 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SimpleDecoder</t>
+          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.9058</t>
+          <t>0.8969</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.8498</t>
+          <t>0.8379</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.9052</t>
+          <t>0.8939</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.8551</t>
+          <t>0.8365</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.7350</t>
+          <t>0.7538</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.6523</t>
+          <t>0.6744</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.8658</t>
+          <t>0.8605</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.8022</t>
+          <t>0.7905</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.7145</t>
+          <t>0.7088</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.6342</t>
+          <t>0.6237</t>
         </is>
       </c>
     </row>
@@ -2256,62 +2256,62 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SimpleDecoder</t>
+          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_9.log</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.9038</t>
+          <t>0.9045</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.8482</t>
+          <t>0.8470</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.9032</t>
+          <t>0.9147</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.8538</t>
+          <t>0.8644</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.7685</t>
+          <t>0.7493</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.6851</t>
+          <t>0.6684</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.8758</t>
+          <t>0.8731</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.8051</t>
+          <t>0.8054</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.7379</t>
+          <t>0.7021</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.6538</t>
+          <t>0.6218</t>
         </is>
       </c>
     </row>
@@ -2321,12 +2321,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SimpleDecoder</t>
+          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_9.log</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2336,47 +2336,47 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.8498</t>
+          <t>0.8510</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.9120</t>
+          <t>0.9026</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.8635</t>
+          <t>0.8530</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.7733</t>
+          <t>0.7597</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.6933</t>
+          <t>0.6775</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.8761</t>
+          <t>0.8697</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.8099</t>
+          <t>0.7984</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.7138</t>
+          <t>0.7081</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.6396</t>
+          <t>0.6273</t>
         </is>
       </c>
     </row>
@@ -2386,62 +2386,62 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SmallDecoder</t>
+          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.9037</t>
+          <t>0.8972</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.8486</t>
+          <t>0.8415</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.9110</t>
+          <t>0.9093</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.8569</t>
+          <t>0.8591</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.7475</t>
+          <t>0.7521</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.6648</t>
+          <t>0.6702</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.8824</t>
+          <t>0.8619</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.8122</t>
+          <t>0.7844</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.7184</t>
+          <t>0.7040</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.6335</t>
+          <t>0.6147</t>
         </is>
       </c>
     </row>
@@ -2451,62 +2451,62 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SmallDecoder</t>
+          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_9.log</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.8966</t>
+          <t>0.8972</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.8386</t>
+          <t>0.8415</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.9119</t>
+          <t>0.9093</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.8607</t>
+          <t>0.8591</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.7745</t>
+          <t>0.7521</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.6957</t>
+          <t>0.6702</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.8806</t>
+          <t>0.8619</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.8151</t>
+          <t>0.7844</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.7296</t>
+          <t>0.7040</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.6538</t>
+          <t>0.6147</t>
         </is>
       </c>
     </row>
@@ -2516,62 +2516,62 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SmallDecoder</t>
+          <t>Resnet18_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.9101</t>
+          <t>0.9039</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.8572</t>
+          <t>0.8467</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.9097</t>
+          <t>0.9076</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.8587</t>
+          <t>0.8544</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.7625</t>
+          <t>0.7340</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.6800</t>
+          <t>0.6511</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.8747</t>
+          <t>0.8599</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.8095</t>
+          <t>0.7862</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.7465</t>
+          <t>0.7008</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.6616</t>
+          <t>0.6132</t>
         </is>
       </c>
     </row>
@@ -2581,62 +2581,62 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Resnet18_ResBridge_ResDecoder</t>
+          <t>Resnet18_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.8879</t>
+          <t>0.9071</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.8289</t>
+          <t>0.8495</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.9044</t>
+          <t>0.9027</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.8514</t>
+          <t>0.8519</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.6868</t>
+          <t>0.7579</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0.6181</t>
+          <t>0.6787</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0.8649</t>
+          <t>0.8521</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.7977</t>
+          <t>0.7787</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.6838</t>
+          <t>0.6781</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.6114</t>
+          <t>0.5955</t>
         </is>
       </c>
     </row>
@@ -2646,62 +2646,62 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Resnet18_ResBridge_SimpleDecoder</t>
+          <t>Resnet18_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.8908</t>
+          <t>0.9056</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.8303</t>
+          <t>0.8511</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.9045</t>
+          <t>0.8956</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.8543</t>
+          <t>0.8457</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.6942</t>
+          <t>0.7694</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.6283</t>
+          <t>0.6855</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.8664</t>
+          <t>0.8682</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.7986</t>
+          <t>0.7960</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.7019</t>
+          <t>0.7160</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.6226</t>
+          <t>0.6370</t>
         </is>
       </c>
     </row>
@@ -2711,62 +2711,62 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Resnet18_Resnet18_DepthwsDecoder</t>
+          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.8961</t>
+          <t>0.9035</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.8344</t>
+          <t>0.8431</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.9159</t>
+          <t>0.9168</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.8668</t>
+          <t>0.8648</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.7496</t>
+          <t>0.7581</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.6706</t>
+          <t>0.6715</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.8756</t>
+          <t>0.8627</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.8066</t>
+          <t>0.7960</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.7185</t>
+          <t>0.7182</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.6341</t>
+          <t>0.6298</t>
         </is>
       </c>
     </row>
@@ -2776,62 +2776,62 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Resnet18_Resnet18_ResDecoder</t>
+          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.8945</t>
+          <t>0.9120</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.8330</t>
+          <t>0.8555</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.9291</t>
+          <t>0.9067</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.8790</t>
+          <t>0.8540</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.7402</t>
+          <t>0.7478</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.6655</t>
+          <t>0.6658</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.8464</t>
+          <t>0.8725</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.7741</t>
+          <t>0.8042</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.6875</t>
+          <t>0.7073</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.6093</t>
+          <t>0.6189</t>
         </is>
       </c>
     </row>
@@ -2841,62 +2841,62 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Resnet18_Resnet18_ResDecoder</t>
+          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.9010</t>
+          <t>0.9040</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.8436</t>
+          <t>0.8462</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.9114</t>
+          <t>0.9020</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.8638</t>
+          <t>0.8545</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.7286</t>
+          <t>0.7717</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0.6567</t>
+          <t>0.6892</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0.8781</t>
+          <t>0.8755</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.8092</t>
+          <t>0.8096</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0.7142</t>
+          <t>0.7377</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.6345</t>
+          <t>0.6509</t>
         </is>
       </c>
     </row>
@@ -2906,62 +2906,62 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Resnet18_Resnet18_SimpleDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.9026</t>
+          <t>0.9089</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.8440</t>
+          <t>0.8556</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.9225</t>
+          <t>0.9132</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.8732</t>
+          <t>0.8612</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.7294</t>
+          <t>0.7641</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.6538</t>
+          <t>0.6838</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0.8765</t>
+          <t>0.8472</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0.8065</t>
+          <t>0.7797</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0.7279</t>
+          <t>0.7083</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.6557</t>
+          <t>0.6233</t>
         </is>
       </c>
     </row>
@@ -2971,62 +2971,62 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.8953</t>
+          <t>0.8990</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.8403</t>
+          <t>0.8426</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.9093</t>
+          <t>0.9162</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.8580</t>
+          <t>0.8650</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.7941</t>
+          <t>0.7599</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.7153</t>
+          <t>0.6777</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>0.8624</t>
+          <t>0.8539</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.7946</t>
+          <t>0.7846</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>0.7338</t>
+          <t>0.6985</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.6510</t>
+          <t>0.6138</t>
         </is>
       </c>
     </row>
@@ -3036,62 +3036,62 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.9155</t>
+          <t>0.8894</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.8626</t>
+          <t>0.8297</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.9026</t>
+          <t>0.9167</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.8510</t>
+          <t>0.8671</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.7585</t>
+          <t>0.7660</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.6791</t>
+          <t>0.6863</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.8610</t>
+          <t>0.8590</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.7909</t>
+          <t>0.7904</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.7220</t>
+          <t>0.7233</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.6387</t>
+          <t>0.6438</t>
         </is>
       </c>
     </row>
@@ -3101,62 +3101,62 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.9167</t>
+          <t>0.9113</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.8670</t>
+          <t>0.8589</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.9080</t>
+          <t>0.9115</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.8585</t>
+          <t>0.8611</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.7634</t>
+          <t>0.7334</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.6867</t>
+          <t>0.6573</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>0.8483</t>
+          <t>0.8705</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.7737</t>
+          <t>0.8028</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>0.7163</t>
+          <t>0.7343</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0.6320</t>
+          <t>0.6589</t>
         </is>
       </c>
     </row>
@@ -3166,22 +3166,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.9154</t>
+          <t>0.8972</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.8622</t>
+          <t>0.8403</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3191,37 +3191,37 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.8608</t>
+          <t>0.8612</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.7680</t>
+          <t>0.7417</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0.6894</t>
+          <t>0.6671</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0.8502</t>
+          <t>0.8648</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.7831</t>
+          <t>0.7982</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>0.7650</t>
+          <t>0.7119</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0.6787</t>
+          <t>0.6289</t>
         </is>
       </c>
     </row>
@@ -3231,62 +3231,62 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_7.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.9156</t>
+          <t>0.9080</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.8640</t>
+          <t>0.8519</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.9184</t>
+          <t>0.9174</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.8685</t>
+          <t>0.8652</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.7622</t>
+          <t>0.7610</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0.6888</t>
+          <t>0.6837</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0.8691</t>
+          <t>0.8551</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0.8004</t>
+          <t>0.7899</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0.7397</t>
+          <t>0.7280</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>0.6535</t>
+          <t>0.6442</t>
         </is>
       </c>
     </row>
@@ -3296,62 +3296,62 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet18_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_9.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.9159</t>
+          <t>0.9058</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.8628</t>
+          <t>0.8498</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.9133</t>
+          <t>0.9052</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.8651</t>
+          <t>0.8551</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.7787</t>
+          <t>0.7350</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.7040</t>
+          <t>0.6523</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>0.8811</t>
+          <t>0.8658</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.8168</t>
+          <t>0.8022</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>0.7548</t>
+          <t>0.7145</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>0.6735</t>
+          <t>0.6342</t>
         </is>
       </c>
     </row>
@@ -3361,62 +3361,62 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet18_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_9.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.9024</t>
+          <t>0.9038</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.8463</t>
+          <t>0.8482</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.9165</t>
+          <t>0.9032</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.8717</t>
+          <t>0.8538</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.7711</t>
+          <t>0.7685</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0.6923</t>
+          <t>0.6851</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>0.8501</t>
+          <t>0.8758</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0.7824</t>
+          <t>0.8051</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0.7250</t>
+          <t>0.7379</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>0.6436</t>
+          <t>0.6538</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet18_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3436,52 +3436,52 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9064</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.8590</t>
+          <t>0.8498</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.9125</t>
+          <t>0.9120</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.8634</t>
+          <t>0.8635</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.7750</t>
+          <t>0.7733</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.6957</t>
+          <t>0.6933</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0.8526</t>
+          <t>0.8761</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.7799</t>
+          <t>0.8099</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>0.7467</t>
+          <t>0.7138</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>0.6613</t>
+          <t>0.6396</t>
         </is>
       </c>
     </row>
@@ -3491,62 +3491,62 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet18_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.9183</t>
+          <t>0.9037</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.8668</t>
+          <t>0.8486</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.8972</t>
+          <t>0.9110</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.8504</t>
+          <t>0.8569</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.7623</t>
+          <t>0.7475</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0.6868</t>
+          <t>0.6648</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.8433</t>
+          <t>0.8824</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0.7716</t>
+          <t>0.8122</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0.7537</t>
+          <t>0.7184</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>0.6716</t>
+          <t>0.6335</t>
         </is>
       </c>
     </row>
@@ -3556,62 +3556,62 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet18_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_7.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.9079</t>
+          <t>0.8966</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.8518</t>
+          <t>0.8386</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.8953</t>
+          <t>0.9119</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.8506</t>
+          <t>0.8607</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.7723</t>
+          <t>0.7745</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0.6975</t>
+          <t>0.6957</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0.8724</t>
+          <t>0.8806</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0.8067</t>
+          <t>0.8151</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0.7491</t>
+          <t>0.7296</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>0.6701</t>
+          <t>0.6538</t>
         </is>
       </c>
     </row>
@@ -3621,62 +3621,62 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet18_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_9.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9101</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.8590</t>
+          <t>0.8572</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.9125</t>
+          <t>0.9097</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.8634</t>
+          <t>0.8587</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.7750</t>
+          <t>0.7625</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0.6957</t>
+          <t>0.6800</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0.8526</t>
+          <t>0.8747</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0.7799</t>
+          <t>0.8095</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>0.7467</t>
+          <t>0.7465</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>0.6613</t>
+          <t>0.6616</t>
         </is>
       </c>
     </row>
@@ -3686,62 +3686,62 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SmallDecoder</t>
+          <t>Resnet18_ResBridge_ResDecoder</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.9143</t>
+          <t>0.8879</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.8624</t>
+          <t>0.8289</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.9084</t>
+          <t>0.9044</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.8563</t>
+          <t>0.8514</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.7651</t>
+          <t>0.6868</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0.6861</t>
+          <t>0.6181</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0.8256</t>
+          <t>0.8649</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0.7434</t>
+          <t>0.7977</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>0.7334</t>
+          <t>0.6838</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>0.6417</t>
+          <t>0.6114</t>
         </is>
       </c>
     </row>
@@ -3751,62 +3751,62 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SmallDecoder</t>
+          <t>Resnet18_ResBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.9132</t>
+          <t>0.8908</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.8600</t>
+          <t>0.8303</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.8917</t>
+          <t>0.9045</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.8436</t>
+          <t>0.8543</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.7697</t>
+          <t>0.6942</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>0.6921</t>
+          <t>0.6283</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0.8466</t>
+          <t>0.8664</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0.7808</t>
+          <t>0.7986</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>0.7386</t>
+          <t>0.7019</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>0.6524</t>
+          <t>0.6226</t>
         </is>
       </c>
     </row>
@@ -3816,62 +3816,62 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SmallDecoder</t>
+          <t>Resnet18_Resnet18_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.9123</t>
+          <t>0.8961</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.8599</t>
+          <t>0.8344</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.8989</t>
+          <t>0.9159</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.8471</t>
+          <t>0.8668</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.7833</t>
+          <t>0.7496</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>0.7039</t>
+          <t>0.6706</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0.8730</t>
+          <t>0.8756</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0.8071</t>
+          <t>0.8066</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>0.7615</t>
+          <t>0.7185</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>0.6755</t>
+          <t>0.6341</t>
         </is>
       </c>
     </row>
@@ -3881,62 +3881,62 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_Resnet18_ResDecoder</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.9016</t>
+          <t>0.8945</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.8446</t>
+          <t>0.8330</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9291</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.8608</t>
+          <t>0.8790</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.7785</t>
+          <t>0.7402</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0.6944</t>
+          <t>0.6655</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>0.8481</t>
+          <t>0.8464</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.7705</t>
+          <t>0.7741</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>0.6952</t>
+          <t>0.6875</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>0.6143</t>
+          <t>0.6093</t>
         </is>
       </c>
     </row>
@@ -3946,62 +3946,62 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_Resnet18_ResDecoder</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.9073</t>
+          <t>0.9010</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.8522</t>
+          <t>0.8436</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.9147</t>
+          <t>0.9114</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.8639</t>
+          <t>0.8638</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.7542</t>
+          <t>0.7286</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.6751</t>
+          <t>0.6567</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0.8509</t>
+          <t>0.8781</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.7777</t>
+          <t>0.8092</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>0.7452</t>
+          <t>0.7142</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>0.6631</t>
+          <t>0.6345</t>
         </is>
       </c>
     </row>
@@ -4011,62 +4011,62 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_Resnet18_SimpleDecoder</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.9099</t>
+          <t>0.9026</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.8566</t>
+          <t>0.8440</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.9229</t>
+          <t>0.9225</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.8751</t>
+          <t>0.8732</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.7547</t>
+          <t>0.7294</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.6760</t>
+          <t>0.6538</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0.8382</t>
+          <t>0.8765</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.7599</t>
+          <t>0.8065</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>0.7131</t>
+          <t>0.7279</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>0.6363</t>
+          <t>0.6557</t>
         </is>
       </c>
     </row>
@@ -4076,62 +4076,62 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.9110</t>
+          <t>0.8953</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.8603</t>
+          <t>0.8403</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.9120</t>
+          <t>0.9093</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.8666</t>
+          <t>0.8580</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.7369</t>
+          <t>0.7941</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0.6706</t>
+          <t>0.7153</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0.8542</t>
+          <t>0.8624</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.7942</t>
+          <t>0.7946</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>0.7480</t>
+          <t>0.7338</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>0.6690</t>
+          <t>0.6510</t>
         </is>
       </c>
     </row>
@@ -4141,62 +4141,62 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.9092</t>
+          <t>0.9155</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.8590</t>
+          <t>0.8626</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.9146</t>
+          <t>0.9026</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.8674</t>
+          <t>0.8510</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.7702</t>
+          <t>0.7585</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>0.6946</t>
+          <t>0.6791</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0.8778</t>
+          <t>0.8610</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>0.8167</t>
+          <t>0.7909</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>0.7297</t>
+          <t>0.7220</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>0.6494</t>
+          <t>0.6387</t>
         </is>
       </c>
     </row>
@@ -4206,62 +4206,62 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.9198</t>
+          <t>0.9167</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.8679</t>
+          <t>0.8670</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.9191</t>
+          <t>0.9080</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.8713</t>
+          <t>0.8585</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.7638</t>
+          <t>0.7634</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.6897</t>
+          <t>0.6867</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0.8736</t>
+          <t>0.8483</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.8079</t>
+          <t>0.7737</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>0.7388</t>
+          <t>0.7163</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>0.6593</t>
+          <t>0.6320</t>
         </is>
       </c>
     </row>
@@ -4271,62 +4271,62 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SimpleDecoder</t>
+          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.9193</t>
+          <t>0.9154</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.8688</t>
+          <t>0.8622</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.9056</t>
+          <t>0.9096</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.8603</t>
+          <t>0.8608</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.7483</t>
+          <t>0.7680</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0.6757</t>
+          <t>0.6894</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>0.8708</t>
+          <t>0.8502</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0.8029</t>
+          <t>0.7831</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>0.7509</t>
+          <t>0.7650</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>0.6627</t>
+          <t>0.6787</t>
         </is>
       </c>
     </row>
@@ -4336,62 +4336,62 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SimpleDecoder</t>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_7.log</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.8996</t>
+          <t>0.9156</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.8431</t>
+          <t>0.8640</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.9158</t>
+          <t>0.9184</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.8661</t>
+          <t>0.8685</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.7824</t>
+          <t>0.7622</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0.7015</t>
+          <t>0.6888</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0.8671</t>
+          <t>0.8691</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0.8029</t>
+          <t>0.8004</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>0.7716</t>
+          <t>0.7397</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>0.6924</t>
+          <t>0.6535</t>
         </is>
       </c>
     </row>
@@ -4401,62 +4401,62 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SimpleDecoder</t>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_9.log</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.9180</t>
+          <t>0.9159</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.8664</t>
+          <t>0.8628</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.9060</t>
+          <t>0.9133</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.8573</t>
+          <t>0.8651</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.7607</t>
+          <t>0.7787</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0.6828</t>
+          <t>0.7040</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>0.8678</t>
+          <t>0.8811</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0.7973</t>
+          <t>0.8168</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>0.7507</t>
+          <t>0.7548</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>0.6689</t>
+          <t>0.6735</t>
         </is>
       </c>
     </row>
@@ -4466,62 +4466,62 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SmallDecoder</t>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_9.log</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.9119</t>
+          <t>0.9024</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.8583</t>
+          <t>0.8463</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.9272</t>
+          <t>0.9165</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.8769</t>
+          <t>0.8717</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.7630</t>
+          <t>0.7711</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.6875</t>
+          <t>0.6923</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0.8614</t>
+          <t>0.8501</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.7931</t>
+          <t>0.7824</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>0.7268</t>
+          <t>0.7250</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>0.6455</t>
+          <t>0.6436</t>
         </is>
       </c>
     </row>
@@ -4531,62 +4531,62 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SmallDecoder</t>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.9142</t>
+          <t>0.9115</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.8641</t>
+          <t>0.8590</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.9247</t>
+          <t>0.9125</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.8748</t>
+          <t>0.8634</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.7613</t>
+          <t>0.7750</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0.6828</t>
+          <t>0.6957</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0.8636</t>
+          <t>0.8526</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.7931</t>
+          <t>0.7799</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>0.7324</t>
+          <t>0.7467</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>0.6468</t>
+          <t>0.6613</t>
         </is>
       </c>
     </row>
@@ -4596,62 +4596,62 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SmallDecoder</t>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.9117</t>
+          <t>0.9183</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.8604</t>
+          <t>0.8668</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0.9193</t>
+          <t>0.8972</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.8716</t>
+          <t>0.8504</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.7515</t>
+          <t>0.7623</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0.6760</t>
+          <t>0.6868</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>0.8743</t>
+          <t>0.8433</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0.8124</t>
+          <t>0.7716</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>0.7415</t>
+          <t>0.7537</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>0.6596</t>
+          <t>0.6716</t>
         </is>
       </c>
     </row>
@@ -4661,62 +4661,62 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Resnet34_ResBridge_ResDecoder</t>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_7.log</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.9013</t>
+          <t>0.9079</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.8513</t>
+          <t>0.8518</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.9063</t>
+          <t>0.8953</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.8590</t>
+          <t>0.8506</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.7037</t>
+          <t>0.7723</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.6399</t>
+          <t>0.6975</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0.8623</t>
+          <t>0.8724</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.7827</t>
+          <t>0.8067</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>0.7152</t>
+          <t>0.7491</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>0.6482</t>
+          <t>0.6701</t>
         </is>
       </c>
     </row>
@@ -4726,62 +4726,62 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Resnet34_ResBridge_SimpleDecoder</t>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_9.log</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.9145</t>
+          <t>0.9115</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.8597</t>
+          <t>0.8590</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.9024</t>
+          <t>0.9125</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.8564</t>
+          <t>0.8634</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.7104</t>
+          <t>0.7750</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.6488</t>
+          <t>0.6957</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0.8787</t>
+          <t>0.8526</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.8097</t>
+          <t>0.7799</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>0.7257</t>
+          <t>0.7467</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>0.6476</t>
+          <t>0.6613</t>
         </is>
       </c>
     </row>
@@ -4791,62 +4791,62 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Resnet34_Resnet34_DepthwsDecoder</t>
+          <t>Resnet34_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.9128</t>
+          <t>0.9143</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.8588</t>
+          <t>0.8624</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.9169</t>
+          <t>0.9084</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.8692</t>
+          <t>0.8563</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.7659</t>
+          <t>0.7651</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.6921</t>
+          <t>0.6861</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0.8514</t>
+          <t>0.8256</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.7817</t>
+          <t>0.7434</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>0.7510</t>
+          <t>0.7334</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>0.6679</t>
+          <t>0.6417</t>
         </is>
       </c>
     </row>
@@ -4856,62 +4856,62 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Resnet34_Resnet34_ResDecoder</t>
+          <t>Resnet34_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.8984</t>
+          <t>0.9132</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.8414</t>
+          <t>0.8600</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.9039</t>
+          <t>0.8917</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.8543</t>
+          <t>0.8436</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.7556</t>
+          <t>0.7697</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.6806</t>
+          <t>0.6921</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>0.8566</t>
+          <t>0.8466</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0.7854</t>
+          <t>0.7808</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>0.7099</t>
+          <t>0.7386</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>0.6259</t>
+          <t>0.6524</t>
         </is>
       </c>
     </row>
@@ -4921,62 +4921,62 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Resnet34_Resnet34_ResDecoder</t>
+          <t>Resnet34_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.9094</t>
+          <t>0.9123</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.8602</t>
+          <t>0.8599</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.9110</t>
+          <t>0.8989</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.8595</t>
+          <t>0.8471</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.7662</t>
+          <t>0.7833</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.6926</t>
+          <t>0.7039</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0.8660</t>
+          <t>0.8730</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.7990</t>
+          <t>0.8071</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>0.7224</t>
+          <t>0.7615</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0.6460</t>
+          <t>0.6755</t>
         </is>
       </c>
     </row>
@@ -4986,62 +4986,62 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Resnet34_Resnet34_SimpleDecoder</t>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.9033</t>
+          <t>0.9016</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.8450</t>
+          <t>0.8446</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0.9205</t>
+          <t>0.9115</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.8715</t>
+          <t>0.8608</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.7638</t>
+          <t>0.7785</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0.6922</t>
+          <t>0.6944</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>0.8767</t>
+          <t>0.8481</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>0.8110</t>
+          <t>0.7705</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>0.7660</t>
+          <t>0.6952</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>0.6889</t>
+          <t>0.6143</t>
         </is>
       </c>
     </row>
@@ -5051,24 +5051,64 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.9073</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.8522</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.9147</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.8639</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>0.7542</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>0.6751</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0.8509</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0.7777</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>0.7452</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0.6631</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -5076,62 +5116,62 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.9000</t>
+          <t>0.9099</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.8480</t>
+          <t>0.8566</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.9186</t>
+          <t>0.9229</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.8689</t>
+          <t>0.8751</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.7686</t>
+          <t>0.7547</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0.6883</t>
+          <t>0.6760</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>0.8398</t>
+          <t>0.8382</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0.7622</t>
+          <t>0.7599</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>0.7944</t>
+          <t>0.7131</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0.7122</t>
+          <t>0.6363</t>
         </is>
       </c>
     </row>
@@ -5141,62 +5181,62 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.9129</t>
+          <t>0.9110</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.8612</t>
+          <t>0.8603</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.9150</t>
+          <t>0.9120</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.8677</t>
+          <t>0.8666</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.7797</t>
+          <t>0.7369</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0.6986</t>
+          <t>0.6706</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>0.8699</t>
+          <t>0.8542</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>0.8042</t>
+          <t>0.7942</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>0.7753</t>
+          <t>0.7480</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>0.6902</t>
+          <t>0.6690</t>
         </is>
       </c>
     </row>
@@ -5206,24 +5246,64 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.9092</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0.8590</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.9146</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.8674</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>0.7702</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>0.6946</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0.8778</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>0.8167</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0.7297</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0.6494</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -5231,62 +5311,62 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.9150</t>
+          <t>0.9198</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.8652</t>
+          <t>0.8679</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.9153</t>
+          <t>0.9191</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.8671</t>
+          <t>0.8713</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.7958</t>
+          <t>0.7638</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0.7145</t>
+          <t>0.6897</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0.8543</t>
+          <t>0.8736</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0.7833</t>
+          <t>0.8079</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>0.7817</t>
+          <t>0.7388</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>0.6970</t>
+          <t>0.6593</t>
         </is>
       </c>
     </row>
@@ -5296,62 +5376,62 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet34_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.9248</t>
+          <t>0.9193</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.8765</t>
+          <t>0.8688</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0.9088</t>
+          <t>0.9056</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.8637</t>
+          <t>0.8603</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.7627</t>
+          <t>0.7483</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.6872</t>
+          <t>0.6757</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0.8849</t>
+          <t>0.8708</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.8190</t>
+          <t>0.8029</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>0.8083</t>
+          <t>0.7509</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>0.7245</t>
+          <t>0.6627</t>
         </is>
       </c>
     </row>
@@ -5361,62 +5441,62 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet34_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.9062</t>
+          <t>0.8996</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.8556</t>
+          <t>0.8431</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.9254</t>
+          <t>0.9158</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.8754</t>
+          <t>0.8661</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.7631</t>
+          <t>0.7824</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0.6870</t>
+          <t>0.7015</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>0.8622</t>
+          <t>0.8671</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0.7932</t>
+          <t>0.8029</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>0.7706</t>
+          <t>0.7716</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>0.6865</t>
+          <t>0.6924</t>
         </is>
       </c>
     </row>
@@ -5426,62 +5506,62 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_SmallDecoder</t>
+          <t>Resnet34_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.9117</t>
+          <t>0.9180</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.8582</t>
+          <t>0.8664</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0.9093</t>
+          <t>0.9060</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.8638</t>
+          <t>0.8573</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.7606</t>
+          <t>0.7607</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0.6785</t>
+          <t>0.6828</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>0.8640</t>
+          <t>0.8678</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>0.7926</t>
+          <t>0.7973</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>0.7614</t>
+          <t>0.7507</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>0.6794</t>
+          <t>0.6689</t>
         </is>
       </c>
     </row>
@@ -5491,62 +5571,62 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_SmallDecoder</t>
+          <t>Resnet34_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9119</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.8607</t>
+          <t>0.8583</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0.9289</t>
+          <t>0.9272</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.8828</t>
+          <t>0.8769</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.7800</t>
+          <t>0.7630</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0.6998</t>
+          <t>0.6875</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>0.8520</t>
+          <t>0.8614</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0.7831</t>
+          <t>0.7931</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>0.7298</t>
+          <t>0.7268</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>0.6491</t>
+          <t>0.6455</t>
         </is>
       </c>
     </row>
@@ -5556,62 +5636,62 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_SmallDecoder</t>
+          <t>Resnet34_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.9014</t>
+          <t>0.9142</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.8502</t>
+          <t>0.8641</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.9255</t>
+          <t>0.9247</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.8794</t>
+          <t>0.8748</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.7740</t>
+          <t>0.7613</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0.6943</t>
+          <t>0.6828</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0.8642</t>
+          <t>0.8636</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0.7981</t>
+          <t>0.7931</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>0.7737</t>
+          <t>0.7324</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>0.6900</t>
+          <t>0.6468</t>
         </is>
       </c>
     </row>
@@ -5621,62 +5701,62 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet34_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.9101</t>
+          <t>0.9117</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0.8585</t>
+          <t>0.8604</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.9324</t>
+          <t>0.9193</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.8816</t>
+          <t>0.8716</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.7351</t>
+          <t>0.7515</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0.6617</t>
+          <t>0.6760</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>0.8701</t>
+          <t>0.8743</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0.8046</t>
+          <t>0.8124</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>0.7957</t>
+          <t>0.7415</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>0.7111</t>
+          <t>0.6596</t>
         </is>
       </c>
     </row>
@@ -5686,62 +5766,62 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet34_ResBridge_ResDecoder</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>0.9013</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0.8513</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
           <t>0.9063</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>0.8497</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>0.9148</t>
-        </is>
-      </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.8634</t>
+          <t>0.8590</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.7591</t>
+          <t>0.7037</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0.6826</t>
+          <t>0.6399</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>0.8672</t>
+          <t>0.8623</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0.7956</t>
+          <t>0.7827</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>0.7913</t>
+          <t>0.7152</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>0.7106</t>
+          <t>0.6482</t>
         </is>
       </c>
     </row>
@@ -5751,62 +5831,62 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet34_ResBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.9116</t>
+          <t>0.9145</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0.8592</t>
+          <t>0.8597</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0.9278</t>
+          <t>0.9024</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.8805</t>
+          <t>0.8564</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0.7603</t>
+          <t>0.7104</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>0.6856</t>
+          <t>0.6488</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>0.8715</t>
+          <t>0.8787</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0.8075</t>
+          <t>0.8097</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>0.7720</t>
+          <t>0.7257</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>0.6876</t>
+          <t>0.6476</t>
         </is>
       </c>
     </row>
@@ -5816,62 +5896,62 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_SmallDecoder</t>
+          <t>Resnet34_Resnet34_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.9105</t>
+          <t>0.9128</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0.8598</t>
+          <t>0.8588</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0.9207</t>
+          <t>0.9169</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.8716</t>
+          <t>0.8692</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.7364</t>
+          <t>0.7659</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>0.6637</t>
+          <t>0.6921</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>0.8760</t>
+          <t>0.8514</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>0.8103</t>
+          <t>0.7817</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>0.7621</t>
+          <t>0.7510</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>0.6870</t>
+          <t>0.6679</t>
         </is>
       </c>
     </row>
@@ -5881,62 +5961,62 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_SmallDecoder</t>
+          <t>Resnet34_Resnet34_ResDecoder</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0.9122</t>
+          <t>0.8984</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0.8625</t>
+          <t>0.8414</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0.9366</t>
+          <t>0.9039</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.8907</t>
+          <t>0.8543</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.7597</t>
+          <t>0.7556</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>0.6810</t>
+          <t>0.6806</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>0.8519</t>
+          <t>0.8566</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>0.7892</t>
+          <t>0.7854</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>0.7722</t>
+          <t>0.7099</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>0.6931</t>
+          <t>0.6259</t>
         </is>
       </c>
     </row>
@@ -5946,62 +6026,62 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_SmallDecoder</t>
+          <t>Resnet34_Resnet34_ResDecoder</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.9106</t>
+          <t>0.9094</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0.8583</t>
+          <t>0.8602</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.9172</t>
+          <t>0.9110</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.8681</t>
+          <t>0.8595</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.7585</t>
+          <t>0.7662</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0.6804</t>
+          <t>0.6926</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>0.8604</t>
+          <t>0.8660</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>0.7988</t>
+          <t>0.7990</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>0.7433</t>
+          <t>0.7224</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>0.6616</t>
+          <t>0.6460</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6091,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Resnet50_Resnet50_DepthwsDecoder</t>
+          <t>Resnet34_Resnet34_SimpleDecoder</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -6019,16 +6099,56 @@
           <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.9033</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0.8450</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.9205</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.8715</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>0.7638</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>0.6922</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>0.8767</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>0.8110</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>0.7660</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>0.6889</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -6036,60 +6156,1045 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.9000</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0.8480</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.9186</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.8689</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>0.7686</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>0.6883</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>0.8398</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>0.7622</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>0.7944</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>0.7122</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.9129</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0.8612</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.9150</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.8677</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>0.7797</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>0.6986</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0.8699</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>0.8042</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>0.7753</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>0.6902</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.9150</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0.8652</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.9153</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.8671</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>0.7958</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>0.7145</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>0.8543</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>0.7833</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>0.7817</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>0.6970</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Resnet50_LambdaBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.9248</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0.8765</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.9088</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.8637</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>0.7627</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>0.6872</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0.8849</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>0.8190</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>0.8083</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.7245</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Resnet50_LambdaBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.9062</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0.8556</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.9254</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.8754</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>0.7631</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>0.6870</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>0.8622</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>0.7932</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>0.7706</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>0.6865</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Resnet50_LambdaBridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.9117</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0.8582</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.9093</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.8638</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>0.7606</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>0.6785</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>0.8640</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>0.7926</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>0.7614</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>0.6794</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Resnet50_LambdaBridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.9115</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0.8607</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.9289</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.8828</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>0.7800</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>0.6998</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>0.8520</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>0.7831</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>0.7298</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>0.6491</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Resnet50_LambdaBridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.9014</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0.8502</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.9255</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.8794</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>0.7740</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>0.6943</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>0.8642</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>0.7981</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>0.7737</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>0.6900</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.9101</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0.8585</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.9324</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.8816</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>0.7351</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>0.6617</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>0.8701</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>0.8046</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>0.7957</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>0.7111</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.9063</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0.8497</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.9148</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.8634</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>0.7591</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>0.6826</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>0.8672</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>0.7956</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>0.7913</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>0.7106</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.9116</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0.8592</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.9278</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.8805</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>0.7603</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0.6856</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>0.8715</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>0.8075</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>0.7720</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>0.6876</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Resnet50_MHSABridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.9105</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0.8598</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.9207</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.8716</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>0.7364</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>0.6637</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>0.8760</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>0.8103</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>0.7621</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>0.6870</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Resnet50_MHSABridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.9122</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0.8625</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.9366</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.8907</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>0.7597</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>0.6810</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>0.8519</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>0.7892</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>0.7722</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>0.6931</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Resnet50_MHSABridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.9106</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0.8583</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.9172</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.8681</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>0.7585</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>0.6804</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>0.8604</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>0.7988</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>0.7433</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>0.6616</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Resnet50_Resnet50_DepthwsDecoder</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
           <t>Resnet50_Resnet50_SimpleDecoder</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>0.9114</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>0.8595</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>0.9190</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>0.8698</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>0.7276</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>0.6609</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>0.8803</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>0.8087</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L106" t="inlineStr">
         <is>
           <t>0.7405</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
+      <c r="M106" t="inlineStr">
         <is>
           <t>0.6763</t>
         </is>

--- a/result/Augmentation/summary_results.xlsx
+++ b/result/Augmentation/summary_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,62 +501,62 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet18_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.9129</t>
+          <t>0.9039</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.8597</t>
+          <t>0.8467</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.9290</t>
+          <t>0.9076</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8805</t>
+          <t>0.8544</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.7696</t>
+          <t>0.7340</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.6909</t>
+          <t>0.6511</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.8705</t>
+          <t>0.8599</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.8047</t>
+          <t>0.7862</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.7482</t>
+          <t>0.7008</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.6664</t>
+          <t>0.6132</t>
         </is>
       </c>
     </row>
@@ -566,62 +566,62 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet18_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.9155</t>
+          <t>0.9071</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.8645</t>
+          <t>0.8495</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.9174</t>
+          <t>0.9027</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8671</t>
+          <t>0.8519</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.7750</t>
+          <t>0.7579</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.6944</t>
+          <t>0.6787</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.8619</t>
+          <t>0.8521</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.7924</t>
+          <t>0.7787</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.7266</t>
+          <t>0.6781</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.6381</t>
+          <t>0.5955</t>
         </is>
       </c>
     </row>
@@ -631,62 +631,62 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet18_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.9041</t>
+          <t>0.9056</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.8478</t>
+          <t>0.8511</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.9173</t>
+          <t>0.8956</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8677</t>
+          <t>0.8457</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.7838</t>
+          <t>0.7694</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.7091</t>
+          <t>0.6855</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.8667</t>
+          <t>0.8682</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.7986</t>
+          <t>0.7960</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.7661</t>
+          <t>0.7160</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.6835</t>
+          <t>0.6370</t>
         </is>
       </c>
     </row>
@@ -696,62 +696,62 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LambdaResnet34_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet34_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_7.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.7826</t>
+          <t>0.9129</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.6963</t>
+          <t>0.8597</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.8284</t>
+          <t>0.9290</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7549</t>
+          <t>0.8805</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.6820</t>
+          <t>0.7696</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.5941</t>
+          <t>0.6909</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.8735</t>
+          <t>0.8705</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.7924</t>
+          <t>0.8047</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.6294</t>
+          <t>0.7482</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.5382</t>
+          <t>0.6664</t>
         </is>
       </c>
     </row>
@@ -761,62 +761,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>res2net50_26w_4s_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet34_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.9058</t>
+          <t>0.9155</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.8524</t>
+          <t>0.8645</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.9058</t>
+          <t>0.9174</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8610</t>
+          <t>0.8671</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.7510</t>
+          <t>0.7750</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.6768</t>
+          <t>0.6944</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.8625</t>
+          <t>0.8619</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.7929</t>
+          <t>0.7924</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.8039</t>
+          <t>0.7266</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.7239</t>
+          <t>0.6381</t>
         </is>
       </c>
     </row>
@@ -826,62 +826,62 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>res2net50_26w_4s_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet34_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.9095</t>
+          <t>0.9041</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.8566</t>
+          <t>0.8478</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.9181</t>
+          <t>0.9173</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8703</t>
+          <t>0.8677</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.7654</t>
+          <t>0.7838</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.6907</t>
+          <t>0.7091</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.8848</t>
+          <t>0.8667</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.8216</t>
+          <t>0.7986</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.7743</t>
+          <t>0.7661</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.6899</t>
+          <t>0.6835</t>
         </is>
       </c>
     </row>
@@ -891,62 +891,62 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>res2net50_26w_4s_LambdaBridge_DepthwsDecoder</t>
+          <t>LambdaResnet34_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_7.log</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.9110</t>
+          <t>0.7826</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.8608</t>
+          <t>0.6963</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.9173</t>
+          <t>0.8284</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8670</t>
+          <t>0.7549</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.7697</t>
+          <t>0.6820</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.6911</t>
+          <t>0.5941</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.8761</t>
+          <t>0.8735</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.8103</t>
+          <t>0.7924</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.7617</t>
+          <t>0.6294</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.6842</t>
+          <t>0.5382</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>res2net50_26w_4s_LambdaBridge_SmallDecoder</t>
+          <t>res2net50_26w_4s_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -966,52 +966,52 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.9113</t>
+          <t>0.9058</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.8559</t>
+          <t>0.8524</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.9012</t>
+          <t>0.9058</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.8552</t>
+          <t>0.8610</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.7558</t>
+          <t>0.7510</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.6815</t>
+          <t>0.6768</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.8826</t>
+          <t>0.8625</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.8181</t>
+          <t>0.7929</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.7523</t>
+          <t>0.8039</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.6726</t>
+          <t>0.7239</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>res2net50_26w_4s_LambdaBridge_SmallDecoder</t>
+          <t>res2net50_26w_4s_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1031,52 +1031,52 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.9075</t>
+          <t>0.9095</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.8536</t>
+          <t>0.8566</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.9066</t>
+          <t>0.9181</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.8610</t>
+          <t>0.8703</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.7404</t>
+          <t>0.7654</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.6689</t>
+          <t>0.6907</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.8710</t>
+          <t>0.8848</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.8051</t>
+          <t>0.8216</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.7146</t>
+          <t>0.7743</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.6421</t>
+          <t>0.6899</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>res2net50_26w_4s_LambdaBridge_SmallDecoder</t>
+          <t>res2net50_26w_4s_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1096,52 +1096,52 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.9023</t>
+          <t>0.9110</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.8489</t>
+          <t>0.8608</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.9069</t>
+          <t>0.9173</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.8641</t>
+          <t>0.8670</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.7514</t>
+          <t>0.7697</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.6780</t>
+          <t>0.6911</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.8752</t>
+          <t>0.8761</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.8123</t>
+          <t>0.8103</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.7674</t>
+          <t>0.7617</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.6888</t>
+          <t>0.6842</t>
         </is>
       </c>
     </row>
@@ -1151,62 +1151,62 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>res2net50_26w_4s_MHSABridge_DepthwsDecoder</t>
+          <t>res2net50_26w_4s_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.9079</t>
+          <t>0.9113</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.8523</t>
+          <t>0.8559</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.9099</t>
+          <t>0.9012</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.8627</t>
+          <t>0.8552</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.7615</t>
+          <t>0.7558</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.6837</t>
+          <t>0.6815</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.8719</t>
+          <t>0.8826</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.7992</t>
+          <t>0.8181</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.7722</t>
+          <t>0.7523</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.6864</t>
+          <t>0.6726</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>res2net50_26w_4s_MHSABridge_SmallDecoder</t>
+          <t>res2net50_26w_4s_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9075</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.8589</t>
+          <t>0.8536</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.8987</t>
+          <t>0.9066</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.8494</t>
+          <t>0.8610</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.7448</t>
+          <t>0.7404</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.6766</t>
+          <t>0.6689</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.8839</t>
+          <t>0.8710</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.8167</t>
+          <t>0.8051</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.7611</t>
+          <t>0.7146</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.6864</t>
+          <t>0.6421</t>
         </is>
       </c>
     </row>
@@ -1281,62 +1281,62 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>res2net50_26w_4s_MHSABridge_SmallDecoder</t>
+          <t>res2net50_26w_4s_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.9084</t>
+          <t>0.9023</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.8554</t>
+          <t>0.8489</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.9107</t>
+          <t>0.9069</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.8622</t>
+          <t>0.8641</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.7526</t>
+          <t>0.7514</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.6782</t>
+          <t>0.6780</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.8833</t>
+          <t>0.8752</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.8171</t>
+          <t>0.8123</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.7573</t>
+          <t>0.7674</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.6782</t>
+          <t>0.6888</t>
         </is>
       </c>
     </row>
@@ -1346,62 +1346,62 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>res2net50_26w_4s_MHSABridge_SmallDecoder</t>
+          <t>res2net50_26w_4s_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.9046</t>
+          <t>0.9079</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.8505</t>
+          <t>0.8523</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.9098</t>
+          <t>0.9099</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.8663</t>
+          <t>0.8627</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.7420</t>
+          <t>0.7615</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.6691</t>
+          <t>0.6837</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.8734</t>
+          <t>0.8719</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.8109</t>
+          <t>0.7992</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.7491</t>
+          <t>0.7722</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.6723</t>
+          <t>0.6864</t>
         </is>
       </c>
     </row>
@@ -1411,62 +1411,62 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>res2net50_48w_2s_LambdaBridge_DepthwsDecoder</t>
+          <t>res2net50_26w_4s_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.9156</t>
+          <t>0.9067</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.8662</t>
+          <t>0.8530</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.9161</t>
+          <t>0.9082</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.8678</t>
+          <t>0.8583</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.7724</t>
+          <t>0.7410</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.6952</t>
+          <t>0.6696</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.8867</t>
+          <t>0.8865</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.8180</t>
+          <t>0.8207</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.7534</t>
+          <t>0.7643</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.6739</t>
+          <t>0.6865</t>
         </is>
       </c>
     </row>
@@ -1476,62 +1476,62 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>res2net50_48w_2s_LambdaBridge_DepthwsDecoder</t>
+          <t>res2net50_26w_4s_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.9092</t>
+          <t>0.9108</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.8563</t>
+          <t>0.8585</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.9158</t>
+          <t>0.9174</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.8679</t>
+          <t>0.8683</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.7744</t>
+          <t>0.7385</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.6954</t>
+          <t>0.6699</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.8595</t>
+          <t>0.8872</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.7890</t>
+          <t>0.8192</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.7449</t>
+          <t>0.7658</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.6548</t>
+          <t>0.6833</t>
         </is>
       </c>
     </row>
@@ -1541,62 +1541,62 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>res2net50_48w_2s_LambdaBridge_DepthwsDecoder</t>
+          <t>res2net50_26w_4s_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.9134</t>
+          <t>0.9115</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.8629</t>
+          <t>0.8589</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.9054</t>
+          <t>0.8987</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.8609</t>
+          <t>0.8494</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.7680</t>
+          <t>0.7448</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.6894</t>
+          <t>0.6766</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.8635</t>
+          <t>0.8839</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.7930</t>
+          <t>0.8167</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.7345</t>
+          <t>0.7611</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.6530</t>
+          <t>0.6864</t>
         </is>
       </c>
     </row>
@@ -1606,62 +1606,62 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>res2net50_48w_2s_LambdaBridge_SmallDecoder</t>
+          <t>res2net50_26w_4s_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.9099</t>
+          <t>0.9084</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.8575</t>
+          <t>0.8554</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.9050</t>
+          <t>0.9107</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.8604</t>
+          <t>0.8622</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.7681</t>
+          <t>0.7526</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.6885</t>
+          <t>0.6782</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.8652</t>
+          <t>0.8833</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.7970</t>
+          <t>0.8171</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.7421</t>
+          <t>0.7573</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.6626</t>
+          <t>0.6782</t>
         </is>
       </c>
     </row>
@@ -1671,62 +1671,62 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>res2net50_48w_2s_LambdaBridge_SmallDecoder</t>
+          <t>res2net50_26w_4s_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9238</t>
+          <t>0.9046</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.8744</t>
+          <t>0.8505</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.9160</t>
+          <t>0.9098</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.8672</t>
+          <t>0.8663</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.7677</t>
+          <t>0.7420</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.6875</t>
+          <t>0.6691</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.8462</t>
+          <t>0.8734</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.7790</t>
+          <t>0.8109</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.7308</t>
+          <t>0.7491</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.6507</t>
+          <t>0.6723</t>
         </is>
       </c>
     </row>
@@ -1736,62 +1736,62 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>res2net50_48w_2s_LambdaBridge_SmallDecoder</t>
+          <t>res2net50_26w_4s_ResBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.9092</t>
+          <t>0.9070</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.8579</t>
+          <t>0.8550</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.9213</t>
+          <t>0.9056</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.8757</t>
+          <t>0.8601</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.7544</t>
+          <t>0.7296</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.6788</t>
+          <t>0.6639</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.8689</t>
+          <t>0.8955</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.8005</t>
+          <t>0.8262</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.7485</t>
+          <t>0.7088</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.6678</t>
+          <t>0.6403</t>
         </is>
       </c>
     </row>
@@ -1801,62 +1801,62 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>res2net50_48w_2s_MHSABridge_DepthwsDecoder</t>
+          <t>res2net50_48w_2s_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.9131</t>
+          <t>0.9156</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.8585</t>
+          <t>0.8662</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.9257</t>
+          <t>0.9161</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.8756</t>
+          <t>0.8678</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.7604</t>
+          <t>0.7724</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.6839</t>
+          <t>0.6952</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.8913</t>
+          <t>0.8867</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.8253</t>
+          <t>0.8180</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.7296</t>
+          <t>0.7534</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.6497</t>
+          <t>0.6739</t>
         </is>
       </c>
     </row>
@@ -1866,62 +1866,62 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>res2net50_48w_2s_MHSABridge_SmallDecoder</t>
+          <t>res2net50_48w_2s_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.9108</t>
+          <t>0.9092</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.8571</t>
+          <t>0.8563</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.9196</t>
+          <t>0.9158</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.8734</t>
+          <t>0.8679</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.7467</t>
+          <t>0.7744</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.6728</t>
+          <t>0.6954</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.8707</t>
+          <t>0.8595</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.8062</t>
+          <t>0.7890</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.7354</t>
+          <t>0.7449</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.6581</t>
+          <t>0.6548</t>
         </is>
       </c>
     </row>
@@ -1931,62 +1931,62 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>res2net50_48w_2s_MHSABridge_SmallDecoder</t>
+          <t>res2net50_48w_2s_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.9082</t>
+          <t>0.9134</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.8530</t>
+          <t>0.8629</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.9158</t>
+          <t>0.9054</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.8671</t>
+          <t>0.8609</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.7624</t>
+          <t>0.7680</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.6875</t>
+          <t>0.6894</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.8716</t>
+          <t>0.8635</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.8091</t>
+          <t>0.7930</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.7578</t>
+          <t>0.7345</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.6750</t>
+          <t>0.6530</t>
         </is>
       </c>
     </row>
@@ -1996,62 +1996,62 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
+          <t>res2net50_48w_2s_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.9098</t>
+          <t>0.9099</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.8571</t>
+          <t>0.8575</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.9062</t>
+          <t>0.9050</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.8559</t>
+          <t>0.8604</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.7479</t>
+          <t>0.7681</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.6691</t>
+          <t>0.6885</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.8656</t>
+          <t>0.8652</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.7936</t>
+          <t>0.7970</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.7117</t>
+          <t>0.7421</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.6270</t>
+          <t>0.6626</t>
         </is>
       </c>
     </row>
@@ -2061,62 +2061,62 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
+          <t>res2net50_48w_2s_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.9046</t>
+          <t>0.9238</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.8494</t>
+          <t>0.8744</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.8989</t>
+          <t>0.9160</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.8489</t>
+          <t>0.8672</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.7499</t>
+          <t>0.7677</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.6678</t>
+          <t>0.6875</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.8640</t>
+          <t>0.8462</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.7906</t>
+          <t>0.7790</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.7067</t>
+          <t>0.7308</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.6165</t>
+          <t>0.6507</t>
         </is>
       </c>
     </row>
@@ -2126,62 +2126,62 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
+          <t>res2net50_48w_2s_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.9080</t>
+          <t>0.9092</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.8549</t>
+          <t>0.8579</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.9104</t>
+          <t>0.9213</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.8609</t>
+          <t>0.8757</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.7535</t>
+          <t>0.7544</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.6730</t>
+          <t>0.6788</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.8658</t>
+          <t>0.8689</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.7931</t>
+          <t>0.8005</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.7168</t>
+          <t>0.7485</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.6328</t>
+          <t>0.6678</t>
         </is>
       </c>
     </row>
@@ -2191,62 +2191,62 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
+          <t>res2net50_48w_2s_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.8969</t>
+          <t>0.9131</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.8379</t>
+          <t>0.8585</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.8939</t>
+          <t>0.9257</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.8365</t>
+          <t>0.8756</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.7538</t>
+          <t>0.7604</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.6744</t>
+          <t>0.6839</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.8605</t>
+          <t>0.8913</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.7905</t>
+          <t>0.8253</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.7088</t>
+          <t>0.7296</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.6237</t>
+          <t>0.6497</t>
         </is>
       </c>
     </row>
@@ -2256,62 +2256,62 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
+          <t>res2net50_48w_2s_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_9.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.9045</t>
+          <t>0.9169</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.8470</t>
+          <t>0.8644</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.9147</t>
+          <t>0.9068</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.8644</t>
+          <t>0.8599</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.7493</t>
+          <t>0.7597</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.6684</t>
+          <t>0.6839</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.8731</t>
+          <t>0.8868</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.8054</t>
+          <t>0.8166</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.7021</t>
+          <t>0.7557</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.6218</t>
+          <t>0.6725</t>
         </is>
       </c>
     </row>
@@ -2321,62 +2321,62 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
+          <t>res2net50_48w_2s_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_9.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.9064</t>
+          <t>0.9135</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.8510</t>
+          <t>0.8578</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.9026</t>
+          <t>0.9172</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.8530</t>
+          <t>0.8684</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.7597</t>
+          <t>0.7518</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.6775</t>
+          <t>0.6800</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.8697</t>
+          <t>0.8819</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.7984</t>
+          <t>0.8165</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.7081</t>
+          <t>0.7690</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.6273</t>
+          <t>0.6863</t>
         </is>
       </c>
     </row>
@@ -2386,62 +2386,62 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
+          <t>res2net50_48w_2s_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.8972</t>
+          <t>0.9120</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.8415</t>
+          <t>0.8580</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.9093</t>
+          <t>0.9189</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.8591</t>
+          <t>0.8717</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.7521</t>
+          <t>0.7413</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.6702</t>
+          <t>0.6699</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.8619</t>
+          <t>0.8781</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.7844</t>
+          <t>0.8086</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.7040</t>
+          <t>0.7070</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.6147</t>
+          <t>0.6382</t>
         </is>
       </c>
     </row>
@@ -2451,62 +2451,62 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
+          <t>res2net50_48w_2s_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_9.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.8972</t>
+          <t>0.9108</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.8415</t>
+          <t>0.8571</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.9093</t>
+          <t>0.9196</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.8591</t>
+          <t>0.8734</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.7521</t>
+          <t>0.7467</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.6702</t>
+          <t>0.6728</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.8619</t>
+          <t>0.8707</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.7844</t>
+          <t>0.8062</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.7040</t>
+          <t>0.7354</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.6147</t>
+          <t>0.6581</t>
         </is>
       </c>
     </row>
@@ -2516,62 +2516,62 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_SmallDecoder</t>
+          <t>res2net50_48w_2s_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.9039</t>
+          <t>0.9082</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.8467</t>
+          <t>0.8530</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.9076</t>
+          <t>0.9158</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.8544</t>
+          <t>0.8671</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.7340</t>
+          <t>0.7624</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.6511</t>
+          <t>0.6875</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.8599</t>
+          <t>0.8716</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.7862</t>
+          <t>0.8091</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.7008</t>
+          <t>0.7578</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.6132</t>
+          <t>0.6750</t>
         </is>
       </c>
     </row>
@@ -2581,62 +2581,62 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_SmallDecoder</t>
+          <t>res2net50_48w_2s_ResBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.9071</t>
+          <t>0.9012</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.8495</t>
+          <t>0.8460</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.9027</t>
+          <t>0.9132</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.8519</t>
+          <t>0.8684</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.7579</t>
+          <t>0.7122</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0.6787</t>
+          <t>0.6460</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0.8521</t>
+          <t>0.8789</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.7787</t>
+          <t>0.8144</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.6781</t>
+          <t>0.7221</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.5955</t>
+          <t>0.6533</t>
         </is>
       </c>
     </row>
@@ -2646,64 +2646,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_SmallDecoder</t>
+          <t>ResEncoder_ResBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.9056</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0.8511</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.8956</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.8457</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>0.7694</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>0.6855</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>0.8682</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0.7960</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>0.7160</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>0.6370</t>
-        </is>
-      </c>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2711,62 +2671,62 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.9035</t>
+          <t>0.9098</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.8431</t>
+          <t>0.8571</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.9168</t>
+          <t>0.9062</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.8648</t>
+          <t>0.8559</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.7581</t>
+          <t>0.7479</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.6715</t>
+          <t>0.6691</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.8627</t>
+          <t>0.8656</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.7960</t>
+          <t>0.7936</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.7182</t>
+          <t>0.7117</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.6298</t>
+          <t>0.6270</t>
         </is>
       </c>
     </row>
@@ -2776,62 +2736,62 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.9120</t>
+          <t>0.9046</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.8555</t>
+          <t>0.8494</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.9067</t>
+          <t>0.8989</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.8540</t>
+          <t>0.8489</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.7478</t>
+          <t>0.7499</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.6658</t>
+          <t>0.6678</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.8725</t>
+          <t>0.8640</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.8042</t>
+          <t>0.7906</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.7073</t>
+          <t>0.7067</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.6189</t>
+          <t>0.6165</t>
         </is>
       </c>
     </row>
@@ -2841,62 +2801,62 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.9040</t>
+          <t>0.9080</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.8462</t>
+          <t>0.8549</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.9020</t>
+          <t>0.9104</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.8545</t>
+          <t>0.8609</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.7717</t>
+          <t>0.7535</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0.6892</t>
+          <t>0.6730</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0.8755</t>
+          <t>0.8658</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.8096</t>
+          <t>0.7931</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0.7377</t>
+          <t>0.7168</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.6509</t>
+          <t>0.6328</t>
         </is>
       </c>
     </row>
@@ -2906,62 +2866,62 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.9089</t>
+          <t>0.8969</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.8556</t>
+          <t>0.8379</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.9132</t>
+          <t>0.8939</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.8612</t>
+          <t>0.8365</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.7641</t>
+          <t>0.7538</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.6838</t>
+          <t>0.6744</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0.8472</t>
+          <t>0.8605</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0.7797</t>
+          <t>0.7905</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0.7083</t>
+          <t>0.7088</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.6233</t>
+          <t>0.6237</t>
         </is>
       </c>
     </row>
@@ -2971,62 +2931,62 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_9.log</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.8990</t>
+          <t>0.9045</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.8426</t>
+          <t>0.8470</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.9162</t>
+          <t>0.9147</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.8650</t>
+          <t>0.8644</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.7599</t>
+          <t>0.7493</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.6777</t>
+          <t>0.6684</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>0.8539</t>
+          <t>0.8731</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.7846</t>
+          <t>0.8054</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>0.6985</t>
+          <t>0.7021</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.6138</t>
+          <t>0.6218</t>
         </is>
       </c>
     </row>
@@ -3036,62 +2996,62 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_9.log</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.8894</t>
+          <t>0.9064</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.8297</t>
+          <t>0.8510</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.9167</t>
+          <t>0.9026</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.8671</t>
+          <t>0.8530</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.7660</t>
+          <t>0.7597</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.6863</t>
+          <t>0.6775</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.8590</t>
+          <t>0.8697</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.7904</t>
+          <t>0.7984</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.7233</t>
+          <t>0.7081</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.6438</t>
+          <t>0.6273</t>
         </is>
       </c>
     </row>
@@ -3101,62 +3061,62 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.9113</t>
+          <t>0.8972</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.8589</t>
+          <t>0.8415</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9093</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.8611</t>
+          <t>0.8591</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.7334</t>
+          <t>0.7521</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.6573</t>
+          <t>0.6702</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>0.8705</t>
+          <t>0.8619</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.8028</t>
+          <t>0.7844</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>0.7343</t>
+          <t>0.7040</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0.6589</t>
+          <t>0.6147</t>
         </is>
       </c>
     </row>
@@ -3166,12 +3126,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_9.log</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3181,47 +3141,47 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.8403</t>
+          <t>0.8415</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.9096</t>
+          <t>0.9093</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.8612</t>
+          <t>0.8591</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.7417</t>
+          <t>0.7521</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0.6671</t>
+          <t>0.6702</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0.8648</t>
+          <t>0.8619</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.7982</t>
+          <t>0.7844</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>0.7119</t>
+          <t>0.7040</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0.6289</t>
+          <t>0.6147</t>
         </is>
       </c>
     </row>
@@ -3231,62 +3191,62 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.9080</t>
+          <t>0.9016</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.8519</t>
+          <t>0.8446</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.9174</t>
+          <t>0.9115</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.8652</t>
+          <t>0.8608</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.7610</t>
+          <t>0.7785</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0.6837</t>
+          <t>0.6944</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0.8551</t>
+          <t>0.8481</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0.7899</t>
+          <t>0.7705</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0.7280</t>
+          <t>0.6952</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>0.6442</t>
+          <t>0.6143</t>
         </is>
       </c>
     </row>
@@ -3296,62 +3256,62 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SimpleDecoder</t>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.9058</t>
+          <t>0.9073</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.8498</t>
+          <t>0.8522</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.9052</t>
+          <t>0.9147</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.8551</t>
+          <t>0.8639</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.7350</t>
+          <t>0.7542</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.6523</t>
+          <t>0.6751</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>0.8658</t>
+          <t>0.8509</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.8022</t>
+          <t>0.7777</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>0.7145</t>
+          <t>0.7452</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>0.6342</t>
+          <t>0.6631</t>
         </is>
       </c>
     </row>
@@ -3361,62 +3321,62 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SimpleDecoder</t>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.9038</t>
+          <t>0.9099</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.8482</t>
+          <t>0.8566</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.9032</t>
+          <t>0.9229</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.8538</t>
+          <t>0.8751</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.7685</t>
+          <t>0.7547</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0.6851</t>
+          <t>0.6760</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>0.8758</t>
+          <t>0.8382</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0.8051</t>
+          <t>0.7599</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0.7379</t>
+          <t>0.7131</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>0.6538</t>
+          <t>0.6363</t>
         </is>
       </c>
     </row>
@@ -3426,22 +3386,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SimpleDecoder</t>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.9064</t>
+          <t>0.9110</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.8498</t>
+          <t>0.8603</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3451,37 +3411,37 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.8635</t>
+          <t>0.8666</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.7733</t>
+          <t>0.7369</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.6933</t>
+          <t>0.6706</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0.8761</t>
+          <t>0.8542</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.8099</t>
+          <t>0.7942</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>0.7138</t>
+          <t>0.7480</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>0.6396</t>
+          <t>0.6690</t>
         </is>
       </c>
     </row>
@@ -3491,62 +3451,62 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SmallDecoder</t>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.9037</t>
+          <t>0.9092</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.8486</t>
+          <t>0.8590</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.9110</t>
+          <t>0.9146</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.8569</t>
+          <t>0.8674</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.7475</t>
+          <t>0.7702</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0.6648</t>
+          <t>0.6946</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.8824</t>
+          <t>0.8778</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0.8122</t>
+          <t>0.8167</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0.7184</t>
+          <t>0.7297</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>0.6335</t>
+          <t>0.6494</t>
         </is>
       </c>
     </row>
@@ -3556,62 +3516,62 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SmallDecoder</t>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.8966</t>
+          <t>0.9198</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.8386</t>
+          <t>0.8679</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.9119</t>
+          <t>0.9191</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.8607</t>
+          <t>0.8713</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.7745</t>
+          <t>0.7638</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0.6957</t>
+          <t>0.6897</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0.8806</t>
+          <t>0.8736</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0.8151</t>
+          <t>0.8079</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0.7296</t>
+          <t>0.7388</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>0.6538</t>
+          <t>0.6593</t>
         </is>
       </c>
     </row>
@@ -3621,62 +3581,62 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SmallDecoder</t>
+          <t>Resnet34_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.9101</t>
+          <t>0.9193</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.8572</t>
+          <t>0.8688</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.9097</t>
+          <t>0.9056</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.8587</t>
+          <t>0.8603</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.7625</t>
+          <t>0.7483</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0.6800</t>
+          <t>0.6757</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0.8747</t>
+          <t>0.8708</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0.8095</t>
+          <t>0.8029</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>0.7465</t>
+          <t>0.7509</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>0.6616</t>
+          <t>0.6627</t>
         </is>
       </c>
     </row>
@@ -3686,62 +3646,62 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Resnet18_ResBridge_ResDecoder</t>
+          <t>Resnet34_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.8879</t>
+          <t>0.8996</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.8289</t>
+          <t>0.8431</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.9044</t>
+          <t>0.9158</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.8514</t>
+          <t>0.8661</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.6868</t>
+          <t>0.7824</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0.6181</t>
+          <t>0.7015</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0.8649</t>
+          <t>0.8671</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0.7977</t>
+          <t>0.8029</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>0.6838</t>
+          <t>0.7716</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>0.6114</t>
+          <t>0.6924</t>
         </is>
       </c>
     </row>
@@ -3751,62 +3711,62 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Resnet18_ResBridge_SimpleDecoder</t>
+          <t>Resnet34_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.8908</t>
+          <t>0.9180</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.8303</t>
+          <t>0.8664</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.9045</t>
+          <t>0.9060</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.8543</t>
+          <t>0.8573</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.6942</t>
+          <t>0.7607</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>0.6283</t>
+          <t>0.6828</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0.8664</t>
+          <t>0.8678</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0.7986</t>
+          <t>0.7973</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>0.7019</t>
+          <t>0.7507</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>0.6226</t>
+          <t>0.6689</t>
         </is>
       </c>
     </row>
@@ -3816,62 +3776,62 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Resnet18_Resnet18_DepthwsDecoder</t>
+          <t>Resnet34_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.8961</t>
+          <t>0.9119</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.8344</t>
+          <t>0.8583</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.9159</t>
+          <t>0.9272</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.8668</t>
+          <t>0.8769</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.7496</t>
+          <t>0.7630</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>0.6706</t>
+          <t>0.6875</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0.8756</t>
+          <t>0.8614</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0.8066</t>
+          <t>0.7931</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>0.7185</t>
+          <t>0.7268</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>0.6341</t>
+          <t>0.6455</t>
         </is>
       </c>
     </row>
@@ -3881,62 +3841,62 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Resnet18_Resnet18_ResDecoder</t>
+          <t>Resnet34_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.8945</t>
+          <t>0.9142</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.8330</t>
+          <t>0.8641</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.9291</t>
+          <t>0.9247</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.8790</t>
+          <t>0.8748</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.7402</t>
+          <t>0.7613</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0.6655</t>
+          <t>0.6828</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>0.8464</t>
+          <t>0.8636</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.7741</t>
+          <t>0.7931</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>0.6875</t>
+          <t>0.7324</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>0.6093</t>
+          <t>0.6468</t>
         </is>
       </c>
     </row>
@@ -3946,62 +3906,62 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Resnet18_Resnet18_ResDecoder</t>
+          <t>Resnet34_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.9010</t>
+          <t>0.9117</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.8436</t>
+          <t>0.8604</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.9114</t>
+          <t>0.9193</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.8638</t>
+          <t>0.8716</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.7286</t>
+          <t>0.7515</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.6567</t>
+          <t>0.6760</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0.8781</t>
+          <t>0.8743</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.8092</t>
+          <t>0.8124</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>0.7142</t>
+          <t>0.7415</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>0.6345</t>
+          <t>0.6596</t>
         </is>
       </c>
     </row>
@@ -4011,7 +3971,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Resnet18_Resnet18_SimpleDecoder</t>
+          <t>Resnet34_ResBridge_ResDecoder</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4021,52 +3981,52 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.9026</t>
+          <t>0.9013</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.8440</t>
+          <t>0.8513</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.9225</t>
+          <t>0.9063</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.8732</t>
+          <t>0.8590</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.7294</t>
+          <t>0.7037</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.6538</t>
+          <t>0.6399</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0.8765</t>
+          <t>0.8623</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.8065</t>
+          <t>0.7827</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>0.7279</t>
+          <t>0.7152</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>0.6557</t>
+          <t>0.6482</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4036,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet34_ResBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4086,52 +4046,52 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.8953</t>
+          <t>0.9145</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.8403</t>
+          <t>0.8597</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.9093</t>
+          <t>0.9024</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.8580</t>
+          <t>0.8564</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.7941</t>
+          <t>0.7104</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0.7153</t>
+          <t>0.6488</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0.8624</t>
+          <t>0.8787</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.7946</t>
+          <t>0.8097</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>0.7338</t>
+          <t>0.7257</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>0.6510</t>
+          <t>0.6476</t>
         </is>
       </c>
     </row>
@@ -4141,62 +4101,62 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet34_Resnet34_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.9155</t>
+          <t>0.9128</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.8626</t>
+          <t>0.8588</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.9026</t>
+          <t>0.9169</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.8510</t>
+          <t>0.8692</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.7585</t>
+          <t>0.7659</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>0.6791</t>
+          <t>0.6921</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0.8610</t>
+          <t>0.8514</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>0.7909</t>
+          <t>0.7817</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>0.7220</t>
+          <t>0.7510</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>0.6387</t>
+          <t>0.6679</t>
         </is>
       </c>
     </row>
@@ -4206,62 +4166,62 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet34_Resnet34_ResDecoder</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.9167</t>
+          <t>0.8984</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.8670</t>
+          <t>0.8414</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.9080</t>
+          <t>0.9039</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.8585</t>
+          <t>0.8543</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.7634</t>
+          <t>0.7556</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.6867</t>
+          <t>0.6806</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0.8483</t>
+          <t>0.8566</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.7737</t>
+          <t>0.7854</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>0.7163</t>
+          <t>0.7099</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>0.6320</t>
+          <t>0.6259</t>
         </is>
       </c>
     </row>
@@ -4271,62 +4231,62 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet34_Resnet34_ResDecoder</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.9154</t>
+          <t>0.9094</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.8622</t>
+          <t>0.8602</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.9096</t>
+          <t>0.9110</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.8608</t>
+          <t>0.8595</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.7680</t>
+          <t>0.7662</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0.6894</t>
+          <t>0.6926</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>0.8502</t>
+          <t>0.8660</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0.7831</t>
+          <t>0.7990</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>0.7650</t>
+          <t>0.7224</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>0.6787</t>
+          <t>0.6460</t>
         </is>
       </c>
     </row>
@@ -4336,62 +4296,62 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet34_Resnet34_SimpleDecoder</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_7.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.9156</t>
+          <t>0.9033</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.8640</t>
+          <t>0.8450</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.9184</t>
+          <t>0.9205</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.8685</t>
+          <t>0.8715</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.7622</t>
+          <t>0.7638</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0.6888</t>
+          <t>0.6922</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0.8691</t>
+          <t>0.8767</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0.8004</t>
+          <t>0.8110</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>0.7397</t>
+          <t>0.7660</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>0.6535</t>
+          <t>0.6889</t>
         </is>
       </c>
     </row>
@@ -4401,64 +4361,24 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_9.log</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.9159</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>0.8628</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0.9133</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.8651</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>0.7787</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>0.7040</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>0.8811</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>0.8168</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>0.7548</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>0.6735</t>
-        </is>
-      </c>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -4466,62 +4386,62 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_9.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.9024</t>
+          <t>0.9000</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.8463</t>
+          <t>0.8480</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.9165</t>
+          <t>0.9186</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.8717</t>
+          <t>0.8689</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.7711</t>
+          <t>0.7686</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.6923</t>
+          <t>0.6883</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0.8501</t>
+          <t>0.8398</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.7824</t>
+          <t>0.7622</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>0.7250</t>
+          <t>0.7944</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>0.6436</t>
+          <t>0.7122</t>
         </is>
       </c>
     </row>
@@ -4531,62 +4451,62 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9129</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.8590</t>
+          <t>0.8612</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.9125</t>
+          <t>0.9150</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.8634</t>
+          <t>0.8677</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.7750</t>
+          <t>0.7797</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0.6957</t>
+          <t>0.6986</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0.8526</t>
+          <t>0.8699</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.7799</t>
+          <t>0.8042</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>0.7467</t>
+          <t>0.7753</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>0.6613</t>
+          <t>0.6902</t>
         </is>
       </c>
     </row>
@@ -4596,64 +4516,24 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.9183</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>0.8668</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0.8972</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.8504</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>0.7623</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>0.6868</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>0.8433</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>0.7716</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>0.7537</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>0.6716</t>
-        </is>
-      </c>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -4661,62 +4541,62 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_7.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.9079</t>
+          <t>0.9150</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.8518</t>
+          <t>0.8652</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.8953</t>
+          <t>0.9153</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.8506</t>
+          <t>0.8671</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.7723</t>
+          <t>0.7958</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.6975</t>
+          <t>0.7145</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0.8724</t>
+          <t>0.8543</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.8067</t>
+          <t>0.7833</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>0.7491</t>
+          <t>0.7817</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>0.6701</t>
+          <t>0.6970</t>
         </is>
       </c>
     </row>
@@ -4726,62 +4606,62 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet50_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_9.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9248</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.8590</t>
+          <t>0.8765</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.9125</t>
+          <t>0.9088</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.8634</t>
+          <t>0.8637</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.7750</t>
+          <t>0.7627</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.6957</t>
+          <t>0.6872</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0.8526</t>
+          <t>0.8849</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.7799</t>
+          <t>0.8190</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>0.7467</t>
+          <t>0.8083</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>0.6613</t>
+          <t>0.7245</t>
         </is>
       </c>
     </row>
@@ -4791,62 +4671,62 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SmallDecoder</t>
+          <t>Resnet50_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.9143</t>
+          <t>0.9062</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.8624</t>
+          <t>0.8556</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.9084</t>
+          <t>0.9254</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.8563</t>
+          <t>0.8754</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.7651</t>
+          <t>0.7631</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.6861</t>
+          <t>0.6870</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0.8256</t>
+          <t>0.8622</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.7434</t>
+          <t>0.7932</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>0.7334</t>
+          <t>0.7706</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>0.6417</t>
+          <t>0.6865</t>
         </is>
       </c>
     </row>
@@ -4856,62 +4736,62 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SmallDecoder</t>
+          <t>Resnet50_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.9132</t>
+          <t>0.9117</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.8600</t>
+          <t>0.8582</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.8917</t>
+          <t>0.9093</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.8436</t>
+          <t>0.8638</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.7697</t>
+          <t>0.7606</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.6921</t>
+          <t>0.6785</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>0.8466</t>
+          <t>0.8640</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0.7808</t>
+          <t>0.7926</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>0.7386</t>
+          <t>0.7614</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>0.6524</t>
+          <t>0.6794</t>
         </is>
       </c>
     </row>
@@ -4921,62 +4801,62 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SmallDecoder</t>
+          <t>Resnet50_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.9123</t>
+          <t>0.9115</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.8599</t>
+          <t>0.8607</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.8989</t>
+          <t>0.9289</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.8471</t>
+          <t>0.8828</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.7833</t>
+          <t>0.7800</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.7039</t>
+          <t>0.6998</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0.8730</t>
+          <t>0.8520</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.8071</t>
+          <t>0.7831</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>0.7615</t>
+          <t>0.7298</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0.6755</t>
+          <t>0.6491</t>
         </is>
       </c>
     </row>
@@ -4986,62 +4866,62 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet50_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.9016</t>
+          <t>0.9014</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.8446</t>
+          <t>0.8502</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9255</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.8608</t>
+          <t>0.8794</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.7785</t>
+          <t>0.7740</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0.6944</t>
+          <t>0.6943</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>0.8481</t>
+          <t>0.8642</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>0.7705</t>
+          <t>0.7981</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>0.6952</t>
+          <t>0.7737</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>0.6143</t>
+          <t>0.6900</t>
         </is>
       </c>
     </row>
@@ -5051,62 +4931,62 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.9073</t>
+          <t>0.9101</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.8522</t>
+          <t>0.8585</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.9147</t>
+          <t>0.9324</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.8639</t>
+          <t>0.8816</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.7542</t>
+          <t>0.7351</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0.6751</t>
+          <t>0.6617</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>0.8509</t>
+          <t>0.8701</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>0.7777</t>
+          <t>0.8046</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>0.7452</t>
+          <t>0.7957</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>0.6631</t>
+          <t>0.7111</t>
         </is>
       </c>
     </row>
@@ -5116,62 +4996,62 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.9099</t>
+          <t>0.9063</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.8566</t>
+          <t>0.8497</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.9229</t>
+          <t>0.9148</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.8751</t>
+          <t>0.8634</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.7547</t>
+          <t>0.7591</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0.6760</t>
+          <t>0.6826</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>0.8382</t>
+          <t>0.8672</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0.7599</t>
+          <t>0.7956</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>0.7131</t>
+          <t>0.7913</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0.6363</t>
+          <t>0.7106</t>
         </is>
       </c>
     </row>
@@ -5181,62 +5061,62 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.9110</t>
+          <t>0.9116</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.8603</t>
+          <t>0.8592</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.9120</t>
+          <t>0.9278</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.8666</t>
+          <t>0.8805</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.7369</t>
+          <t>0.7603</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0.6706</t>
+          <t>0.6856</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>0.8542</t>
+          <t>0.8715</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>0.7942</t>
+          <t>0.8075</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>0.7480</t>
+          <t>0.7720</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>0.6690</t>
+          <t>0.6876</t>
         </is>
       </c>
     </row>
@@ -5246,62 +5126,62 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet50_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.9092</t>
+          <t>0.9105</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.8590</t>
+          <t>0.8598</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.9146</t>
+          <t>0.9207</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.8674</t>
+          <t>0.8716</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.7702</t>
+          <t>0.7364</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.6946</t>
+          <t>0.6637</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>0.8778</t>
+          <t>0.8760</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.8167</t>
+          <t>0.8103</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>0.7297</t>
+          <t>0.7621</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>0.6494</t>
+          <t>0.6870</t>
         </is>
       </c>
     </row>
@@ -5311,62 +5191,62 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet50_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.9198</t>
+          <t>0.9122</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.8679</t>
+          <t>0.8625</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.9191</t>
+          <t>0.9366</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.8713</t>
+          <t>0.8907</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.7638</t>
+          <t>0.7597</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0.6897</t>
+          <t>0.6810</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0.8736</t>
+          <t>0.8519</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0.8079</t>
+          <t>0.7892</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>0.7388</t>
+          <t>0.7722</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>0.6593</t>
+          <t>0.6931</t>
         </is>
       </c>
     </row>
@@ -5376,62 +5256,62 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SimpleDecoder</t>
+          <t>Resnet50_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.9193</t>
+          <t>0.9106</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.8688</t>
+          <t>0.8583</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0.9056</t>
+          <t>0.9172</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.8603</t>
+          <t>0.8681</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.7483</t>
+          <t>0.7585</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.6757</t>
+          <t>0.6804</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0.8708</t>
+          <t>0.8604</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.8029</t>
+          <t>0.7988</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>0.7509</t>
+          <t>0.7433</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>0.6627</t>
+          <t>0.6616</t>
         </is>
       </c>
     </row>
@@ -5441,62 +5321,62 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SimpleDecoder</t>
+          <t>Resnet50_ResBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.8996</t>
+          <t>0.9068</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.8431</t>
+          <t>0.8538</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.9158</t>
+          <t>0.9172</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.8661</t>
+          <t>0.8684</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.7824</t>
+          <t>0.7087</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0.7015</t>
+          <t>0.6435</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>0.8671</t>
+          <t>0.8685</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0.8029</t>
+          <t>0.8026</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>0.7716</t>
+          <t>0.7217</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>0.6924</t>
+          <t>0.6516</t>
         </is>
       </c>
     </row>
@@ -5506,64 +5386,24 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SimpleDecoder</t>
+          <t>Resnet50_Resnet50_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0.9180</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>0.8664</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>0.9060</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0.8573</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>0.7607</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>0.6828</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>0.8678</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>0.7973</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>0.7507</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>0.6689</t>
-        </is>
-      </c>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -5571,62 +5411,62 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SmallDecoder</t>
+          <t>Resnet50_Resnet50_SimpleDecoder</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.9119</t>
+          <t>0.9114</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.8583</t>
+          <t>0.8595</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0.9272</t>
+          <t>0.9190</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.8769</t>
+          <t>0.8698</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.7630</t>
+          <t>0.7276</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0.6875</t>
+          <t>0.6609</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>0.8614</t>
+          <t>0.8803</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0.7931</t>
+          <t>0.8087</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>0.7268</t>
+          <t>0.7405</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>0.6455</t>
+          <t>0.6763</t>
         </is>
       </c>
     </row>
@@ -5636,62 +5476,62 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SmallDecoder</t>
+          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.9142</t>
+          <t>0.9035</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.8641</t>
+          <t>0.8431</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.9247</t>
+          <t>0.9168</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.8748</t>
+          <t>0.8648</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.7613</t>
+          <t>0.7581</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0.6828</t>
+          <t>0.6715</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0.8636</t>
+          <t>0.8627</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0.7931</t>
+          <t>0.7960</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>0.7324</t>
+          <t>0.7182</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>0.6468</t>
+          <t>0.6298</t>
         </is>
       </c>
     </row>
@@ -5701,62 +5541,62 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SmallDecoder</t>
+          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.9117</t>
+          <t>0.9120</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0.8604</t>
+          <t>0.8555</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.9193</t>
+          <t>0.9067</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.8716</t>
+          <t>0.8540</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.7515</t>
+          <t>0.7478</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0.6760</t>
+          <t>0.6658</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>0.8743</t>
+          <t>0.8725</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0.8124</t>
+          <t>0.8042</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>0.7415</t>
+          <t>0.7073</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>0.6596</t>
+          <t>0.6189</t>
         </is>
       </c>
     </row>
@@ -5766,62 +5606,62 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Resnet34_ResBridge_ResDecoder</t>
+          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.9013</t>
+          <t>0.9040</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.8513</t>
+          <t>0.8462</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.9063</t>
+          <t>0.9020</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.8590</t>
+          <t>0.8545</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.7037</t>
+          <t>0.7717</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0.6399</t>
+          <t>0.6892</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>0.8623</t>
+          <t>0.8755</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0.7827</t>
+          <t>0.8096</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>0.7152</t>
+          <t>0.7377</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>0.6482</t>
+          <t>0.6509</t>
         </is>
       </c>
     </row>
@@ -5831,62 +5671,62 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Resnet34_ResBridge_SimpleDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.9145</t>
+          <t>0.9089</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0.8597</t>
+          <t>0.8556</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0.9024</t>
+          <t>0.9132</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.8564</t>
+          <t>0.8612</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0.7104</t>
+          <t>0.7641</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>0.6488</t>
+          <t>0.6838</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>0.8787</t>
+          <t>0.8472</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0.8097</t>
+          <t>0.7797</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>0.7257</t>
+          <t>0.7083</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>0.6476</t>
+          <t>0.6233</t>
         </is>
       </c>
     </row>
@@ -5896,62 +5736,62 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Resnet34_Resnet34_DepthwsDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.9128</t>
+          <t>0.8990</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0.8588</t>
+          <t>0.8426</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0.9169</t>
+          <t>0.9162</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.8692</t>
+          <t>0.8650</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.7659</t>
+          <t>0.7599</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>0.6921</t>
+          <t>0.6777</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>0.8514</t>
+          <t>0.8539</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>0.7817</t>
+          <t>0.7846</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>0.7510</t>
+          <t>0.6985</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>0.6679</t>
+          <t>0.6138</t>
         </is>
       </c>
     </row>
@@ -5961,62 +5801,62 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Resnet34_Resnet34_ResDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0.8984</t>
+          <t>0.8894</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0.8414</t>
+          <t>0.8297</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0.9039</t>
+          <t>0.9167</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.8543</t>
+          <t>0.8671</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.7556</t>
+          <t>0.7660</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>0.6806</t>
+          <t>0.6863</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>0.8566</t>
+          <t>0.8590</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>0.7854</t>
+          <t>0.7904</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>0.7099</t>
+          <t>0.7233</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>0.6259</t>
+          <t>0.6438</t>
         </is>
       </c>
     </row>
@@ -6026,62 +5866,62 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Resnet34_Resnet34_ResDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.9094</t>
+          <t>0.9113</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0.8602</t>
+          <t>0.8589</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.9110</t>
+          <t>0.9115</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.8595</t>
+          <t>0.8611</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.7662</t>
+          <t>0.7334</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0.6926</t>
+          <t>0.6573</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>0.8660</t>
+          <t>0.8705</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>0.7990</t>
+          <t>0.8028</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>0.7224</t>
+          <t>0.7343</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>0.6460</t>
+          <t>0.6589</t>
         </is>
       </c>
     </row>
@@ -6091,62 +5931,62 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Resnet34_Resnet34_SimpleDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.9033</t>
+          <t>0.8972</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.8450</t>
+          <t>0.8403</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0.9205</t>
+          <t>0.9096</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.8715</t>
+          <t>0.8612</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.7638</t>
+          <t>0.7417</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0.6922</t>
+          <t>0.6671</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0.8767</t>
+          <t>0.8648</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.8110</t>
+          <t>0.7982</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>0.7660</t>
+          <t>0.7119</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>0.6889</t>
+          <t>0.6289</t>
         </is>
       </c>
     </row>
@@ -6156,24 +5996,64 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.9080</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0.8519</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.9174</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.8652</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>0.7610</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>0.6837</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>0.8551</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>0.7899</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>0.7280</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>0.6442</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -6181,62 +6061,62 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet18_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.9000</t>
+          <t>0.9058</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.8480</t>
+          <t>0.8498</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0.9186</t>
+          <t>0.9052</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.8689</t>
+          <t>0.8551</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.7686</t>
+          <t>0.7350</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0.6883</t>
+          <t>0.6523</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>0.8398</t>
+          <t>0.8658</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.7622</t>
+          <t>0.8022</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>0.7944</t>
+          <t>0.7145</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>0.7122</t>
+          <t>0.6342</t>
         </is>
       </c>
     </row>
@@ -6246,62 +6126,62 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet18_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.9129</t>
+          <t>0.9038</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.8612</t>
+          <t>0.8482</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0.9150</t>
+          <t>0.9032</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.8677</t>
+          <t>0.8538</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.7797</t>
+          <t>0.7685</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>0.6986</t>
+          <t>0.6851</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>0.8699</t>
+          <t>0.8758</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0.8042</t>
+          <t>0.8051</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>0.7753</t>
+          <t>0.7379</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>0.6902</t>
+          <t>0.6538</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6191,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet18_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6319,16 +6199,56 @@
           <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.9064</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0.8498</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.9120</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.8635</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>0.7733</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>0.6933</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0.8761</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>0.8099</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>0.7138</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0.6396</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -6336,62 +6256,62 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet18_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.9150</t>
+          <t>0.9037</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0.8652</t>
+          <t>0.8486</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0.9153</t>
+          <t>0.9110</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.8671</t>
+          <t>0.8569</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.7958</t>
+          <t>0.7475</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>0.7145</t>
+          <t>0.6648</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>0.8543</t>
+          <t>0.8824</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0.7833</t>
+          <t>0.8122</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>0.7817</t>
+          <t>0.7184</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>0.6970</t>
+          <t>0.6335</t>
         </is>
       </c>
     </row>
@@ -6401,62 +6321,62 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet18_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.9248</t>
+          <t>0.8966</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0.8765</t>
+          <t>0.8386</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0.9088</t>
+          <t>0.9119</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.8637</t>
+          <t>0.8607</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.7627</t>
+          <t>0.7745</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>0.6872</t>
+          <t>0.6957</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>0.8849</t>
+          <t>0.8806</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0.8190</t>
+          <t>0.8151</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>0.8083</t>
+          <t>0.7296</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>0.7245</t>
+          <t>0.6538</t>
         </is>
       </c>
     </row>
@@ -6466,62 +6386,62 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet18_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.9062</t>
+          <t>0.9101</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.8556</t>
+          <t>0.8572</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.9254</t>
+          <t>0.9097</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.8754</t>
+          <t>0.8587</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.7631</t>
+          <t>0.7625</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>0.6870</t>
+          <t>0.6800</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0.8622</t>
+          <t>0.8747</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0.7932</t>
+          <t>0.8095</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>0.7706</t>
+          <t>0.7465</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>0.6865</t>
+          <t>0.6616</t>
         </is>
       </c>
     </row>
@@ -6531,62 +6451,62 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_SmallDecoder</t>
+          <t>Resnet18_ResBridge_ResDecoder</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.9117</t>
+          <t>0.8879</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.8582</t>
+          <t>0.8289</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.9093</t>
+          <t>0.9044</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.8638</t>
+          <t>0.8514</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.7606</t>
+          <t>0.6868</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0.6785</t>
+          <t>0.6181</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>0.8640</t>
+          <t>0.8649</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>0.7926</t>
+          <t>0.7977</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>0.7614</t>
+          <t>0.6838</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>0.6794</t>
+          <t>0.6114</t>
         </is>
       </c>
     </row>
@@ -6596,62 +6516,62 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_SmallDecoder</t>
+          <t>Resnet18_ResBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.8908</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.8607</t>
+          <t>0.8303</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0.9289</t>
+          <t>0.9045</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.8828</t>
+          <t>0.8543</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.7800</t>
+          <t>0.6942</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>0.6998</t>
+          <t>0.6283</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0.8520</t>
+          <t>0.8664</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>0.7831</t>
+          <t>0.7986</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>0.7298</t>
+          <t>0.7019</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>0.6491</t>
+          <t>0.6226</t>
         </is>
       </c>
     </row>
@@ -6661,62 +6581,62 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_SmallDecoder</t>
+          <t>Resnet18_Resnet18_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.9014</t>
+          <t>0.8961</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.8502</t>
+          <t>0.8344</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0.9255</t>
+          <t>0.9159</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.8794</t>
+          <t>0.8668</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.7740</t>
+          <t>0.7496</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0.6943</t>
+          <t>0.6706</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0.8642</t>
+          <t>0.8756</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0.7981</t>
+          <t>0.8066</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>0.7737</t>
+          <t>0.7185</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>0.6900</t>
+          <t>0.6341</t>
         </is>
       </c>
     </row>
@@ -6726,62 +6646,62 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet18_Resnet18_ResDecoder</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.9101</t>
+          <t>0.8945</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.8585</t>
+          <t>0.8330</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0.9324</t>
+          <t>0.9291</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.8816</t>
+          <t>0.8790</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.7351</t>
+          <t>0.7402</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>0.6617</t>
+          <t>0.6655</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>0.8701</t>
+          <t>0.8464</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>0.8046</t>
+          <t>0.7741</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>0.7957</t>
+          <t>0.6875</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>0.7111</t>
+          <t>0.6093</t>
         </is>
       </c>
     </row>
@@ -6791,62 +6711,62 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet18_Resnet18_ResDecoder</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.9063</t>
+          <t>0.9010</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.8497</t>
+          <t>0.8436</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0.9148</t>
+          <t>0.9114</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.8634</t>
+          <t>0.8638</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.7591</t>
+          <t>0.7286</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>0.6826</t>
+          <t>0.6567</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0.8672</t>
+          <t>0.8781</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>0.7956</t>
+          <t>0.8092</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>0.7913</t>
+          <t>0.7142</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>0.7106</t>
+          <t>0.6345</t>
         </is>
       </c>
     </row>
@@ -6856,62 +6776,62 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet18_Resnet18_SimpleDecoder</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.9116</t>
+          <t>0.9026</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.8592</t>
+          <t>0.8440</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0.9278</t>
+          <t>0.9225</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.8805</t>
+          <t>0.8732</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.7603</t>
+          <t>0.7294</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>0.6856</t>
+          <t>0.6538</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>0.8715</t>
+          <t>0.8765</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0.8075</t>
+          <t>0.8065</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>0.7720</t>
+          <t>0.7279</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>0.6876</t>
+          <t>0.6557</t>
         </is>
       </c>
     </row>
@@ -6921,62 +6841,62 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_SmallDecoder</t>
+          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0.9105</t>
+          <t>0.8953</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0.8598</t>
+          <t>0.8403</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0.9207</t>
+          <t>0.9093</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0.8716</t>
+          <t>0.8580</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0.7364</t>
+          <t>0.7941</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>0.6637</t>
+          <t>0.7153</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>0.8760</t>
+          <t>0.8624</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>0.8103</t>
+          <t>0.7946</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>0.7621</t>
+          <t>0.7338</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>0.6870</t>
+          <t>0.6510</t>
         </is>
       </c>
     </row>
@@ -6986,62 +6906,62 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_SmallDecoder</t>
+          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0.9122</t>
+          <t>0.9155</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0.8625</t>
+          <t>0.8626</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0.9366</t>
+          <t>0.9026</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0.8907</t>
+          <t>0.8510</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0.7597</t>
+          <t>0.7585</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>0.6810</t>
+          <t>0.6791</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>0.8519</t>
+          <t>0.8610</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>0.7892</t>
+          <t>0.7909</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>0.7722</t>
+          <t>0.7220</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>0.6931</t>
+          <t>0.6387</t>
         </is>
       </c>
     </row>
@@ -7051,62 +6971,62 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_SmallDecoder</t>
+          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0.9106</t>
+          <t>0.9167</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0.8583</t>
+          <t>0.8670</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0.9172</t>
+          <t>0.9080</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0.8681</t>
+          <t>0.8585</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.7585</t>
+          <t>0.7634</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>0.6804</t>
+          <t>0.6867</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>0.8604</t>
+          <t>0.8483</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>0.7988</t>
+          <t>0.7737</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>0.7433</t>
+          <t>0.7163</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>0.6616</t>
+          <t>0.6320</t>
         </is>
       </c>
     </row>
@@ -7116,24 +7036,64 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Resnet50_Resnet50_DepthwsDecoder</t>
+          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.9154</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0.8622</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.9096</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.8608</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>0.7680</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>0.6894</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>0.8502</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>0.7831</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>0.7650</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>0.6787</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -7141,62 +7101,647 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Resnet50_Resnet50_SimpleDecoder</t>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_7.log</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.9114</t>
+          <t>0.9156</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0.8595</t>
+          <t>0.8640</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0.9190</t>
+          <t>0.9184</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0.8698</t>
+          <t>0.8685</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>0.7276</t>
+          <t>0.7622</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>0.6609</t>
+          <t>0.6888</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>0.8803</t>
+          <t>0.8691</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>0.8087</t>
+          <t>0.8004</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>0.7405</t>
+          <t>0.7397</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>0.6763</t>
+          <t>0.6535</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_9.log</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.9159</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0.8628</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.9133</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.8651</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>0.7787</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>0.7040</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>0.8811</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>0.8168</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>0.7548</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>0.6735</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_9.log</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.9024</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0.8463</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.9165</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.8717</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>0.7711</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>0.6923</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>0.8501</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>0.7824</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>0.7250</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>0.6436</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.9115</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0.8590</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.9125</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.8634</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>0.7750</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>0.6957</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>0.8526</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>0.7799</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>0.7467</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>0.6613</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.9183</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0.8668</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.8972</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.8504</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>0.7623</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>0.6868</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>0.8433</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>0.7716</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>0.7537</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>0.6716</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_7.log</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.9079</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0.8518</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.8953</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.8506</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>0.7723</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>0.6975</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>0.8724</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>0.8067</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>0.7491</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>0.6701</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_9.log</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.9115</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0.8590</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.9125</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.8634</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>0.7750</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>0.6957</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>0.8526</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>0.7799</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>0.7467</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>0.6613</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.9143</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0.8624</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.9084</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.8563</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>0.7651</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>0.6861</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>0.8256</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>0.7434</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>0.7334</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>0.6417</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.9132</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0.8600</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.8917</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.8436</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>0.7697</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>0.6921</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>0.8466</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>0.7808</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>0.7386</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>0.6524</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.9123</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0.8599</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.8989</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.8471</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>0.7833</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>0.7039</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>0.8730</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>0.8071</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>0.7615</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>0.6755</t>
         </is>
       </c>
     </row>

--- a/result/Augmentation/summary_results.xlsx
+++ b/result/Augmentation/summary_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1801,62 +1801,62 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>res2net50_48w_2s_LambdaBridge_DepthwsDecoder</t>
+          <t>res2net50_26w_4s_ResBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.9156</t>
+          <t>0.9032</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.8662</t>
+          <t>0.8494</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.9161</t>
+          <t>0.9171</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.8678</t>
+          <t>0.8701</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.7724</t>
+          <t>0.7106</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.6952</t>
+          <t>0.6473</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.8867</t>
+          <t>0.8714</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.8180</t>
+          <t>0.7995</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.7534</t>
+          <t>0.7482</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.6739</t>
+          <t>0.6761</t>
         </is>
       </c>
     </row>
@@ -1871,57 +1871,57 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.9092</t>
+          <t>0.9156</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.8563</t>
+          <t>0.8662</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.9158</t>
+          <t>0.9161</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.8679</t>
+          <t>0.8678</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.7744</t>
+          <t>0.7724</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.6954</t>
+          <t>0.6952</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.8595</t>
+          <t>0.8867</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.7890</t>
+          <t>0.8180</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.7449</t>
+          <t>0.7534</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.6548</t>
+          <t>0.6739</t>
         </is>
       </c>
     </row>
@@ -1936,57 +1936,57 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.9134</t>
+          <t>0.9092</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.8629</t>
+          <t>0.8563</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.9054</t>
+          <t>0.9158</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.8609</t>
+          <t>0.8679</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.7680</t>
+          <t>0.7744</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.6894</t>
+          <t>0.6954</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.8635</t>
+          <t>0.8595</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.7930</t>
+          <t>0.7890</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.7345</t>
+          <t>0.7449</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.6530</t>
+          <t>0.6548</t>
         </is>
       </c>
     </row>
@@ -1996,62 +1996,62 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>res2net50_48w_2s_LambdaBridge_SmallDecoder</t>
+          <t>res2net50_48w_2s_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.9099</t>
+          <t>0.9134</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.8575</t>
+          <t>0.8629</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.9050</t>
+          <t>0.9054</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.8604</t>
+          <t>0.8609</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.7681</t>
+          <t>0.7680</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.6885</t>
+          <t>0.6894</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.8652</t>
+          <t>0.8635</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.7970</t>
+          <t>0.7930</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.7421</t>
+          <t>0.7345</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.6626</t>
+          <t>0.6530</t>
         </is>
       </c>
     </row>
@@ -2066,57 +2066,57 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.9238</t>
+          <t>0.9099</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.8744</t>
+          <t>0.8575</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.9160</t>
+          <t>0.9050</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.8672</t>
+          <t>0.8604</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.7677</t>
+          <t>0.7681</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.6875</t>
+          <t>0.6885</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.8462</t>
+          <t>0.8652</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.7790</t>
+          <t>0.7970</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.7308</t>
+          <t>0.7421</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.6507</t>
+          <t>0.6626</t>
         </is>
       </c>
     </row>
@@ -2131,57 +2131,57 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.9092</t>
+          <t>0.9238</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.8579</t>
+          <t>0.8744</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.9213</t>
+          <t>0.9160</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.8757</t>
+          <t>0.8672</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.7544</t>
+          <t>0.7677</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.6788</t>
+          <t>0.6875</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.8689</t>
+          <t>0.8462</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.8005</t>
+          <t>0.7790</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.7485</t>
+          <t>0.7308</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.6678</t>
+          <t>0.6507</t>
         </is>
       </c>
     </row>
@@ -2191,62 +2191,62 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>res2net50_48w_2s_MHSABridge_DepthwsDecoder</t>
+          <t>res2net50_48w_2s_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.9131</t>
+          <t>0.9092</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.8585</t>
+          <t>0.8579</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.9257</t>
+          <t>0.9213</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.8756</t>
+          <t>0.8757</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.7604</t>
+          <t>0.7544</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.6839</t>
+          <t>0.6788</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.8913</t>
+          <t>0.8689</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.8253</t>
+          <t>0.8005</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.7296</t>
+          <t>0.7485</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.6497</t>
+          <t>0.6678</t>
         </is>
       </c>
     </row>
@@ -2261,32 +2261,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.9169</t>
+          <t>0.9131</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.8644</t>
+          <t>0.8585</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.9068</t>
+          <t>0.9257</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.8599</t>
+          <t>0.8756</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.7597</t>
+          <t>0.7604</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2296,22 +2296,22 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.8868</t>
+          <t>0.8913</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.8166</t>
+          <t>0.8253</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.7557</t>
+          <t>0.7296</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.6725</t>
+          <t>0.6497</t>
         </is>
       </c>
     </row>
@@ -2326,57 +2326,57 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.9135</t>
+          <t>0.9169</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.8578</t>
+          <t>0.8644</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.9172</t>
+          <t>0.9068</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.8684</t>
+          <t>0.8599</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.7518</t>
+          <t>0.7597</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.6800</t>
+          <t>0.6839</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.8819</t>
+          <t>0.8868</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.8165</t>
+          <t>0.8166</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.7690</t>
+          <t>0.7557</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.6863</t>
+          <t>0.6725</t>
         </is>
       </c>
     </row>
@@ -2386,62 +2386,62 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>res2net50_48w_2s_MHSABridge_SmallDecoder</t>
+          <t>res2net50_48w_2s_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.9120</t>
+          <t>0.9135</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.8580</t>
+          <t>0.8578</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.9189</t>
+          <t>0.9172</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.8717</t>
+          <t>0.8684</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.7413</t>
+          <t>0.7518</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.6699</t>
+          <t>0.6800</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.8781</t>
+          <t>0.8819</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.8086</t>
+          <t>0.8165</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.7070</t>
+          <t>0.7690</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.6382</t>
+          <t>0.6863</t>
         </is>
       </c>
     </row>
@@ -2456,57 +2456,57 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.9108</t>
+          <t>0.9120</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.8571</t>
+          <t>0.8580</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.9196</t>
+          <t>0.9189</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.8734</t>
+          <t>0.8717</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.7467</t>
+          <t>0.7413</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.6728</t>
+          <t>0.6699</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.8707</t>
+          <t>0.8781</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.8062</t>
+          <t>0.8086</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.7354</t>
+          <t>0.7070</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.6581</t>
+          <t>0.6382</t>
         </is>
       </c>
     </row>
@@ -2521,57 +2521,57 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.9082</t>
+          <t>0.9108</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.8530</t>
+          <t>0.8571</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.9158</t>
+          <t>0.9196</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.8671</t>
+          <t>0.8734</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.7624</t>
+          <t>0.7467</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.6875</t>
+          <t>0.6728</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.8716</t>
+          <t>0.8707</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.8091</t>
+          <t>0.8062</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.7578</t>
+          <t>0.7354</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.6750</t>
+          <t>0.6581</t>
         </is>
       </c>
     </row>
@@ -2581,62 +2581,62 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>res2net50_48w_2s_ResBridge_SimpleDecoder</t>
+          <t>res2net50_48w_2s_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.9012</t>
+          <t>0.9082</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.8460</t>
+          <t>0.8530</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.9132</t>
+          <t>0.9158</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.8684</t>
+          <t>0.8671</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.7122</t>
+          <t>0.7624</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0.6460</t>
+          <t>0.6875</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0.8789</t>
+          <t>0.8716</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.8144</t>
+          <t>0.8091</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.7221</t>
+          <t>0.7578</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.6533</t>
+          <t>0.6750</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ResEncoder_ResBridge_SimpleDecoder</t>
+          <t>res2net50_48w_2s_ResBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2654,16 +2654,56 @@
           <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.9012</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.8460</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.9132</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8684</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0.7122</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0.6460</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0.8789</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0.8144</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0.7221</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.6533</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2671,7 +2711,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
+          <t>res2net50_48w_2s_ResBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2681,52 +2721,52 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.9098</t>
+          <t>0.8934</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.8571</t>
+          <t>0.8340</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.9062</t>
+          <t>0.9162</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.8559</t>
+          <t>0.8689</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.7479</t>
+          <t>0.7101</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.6691</t>
+          <t>0.6431</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.8656</t>
+          <t>0.8812</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.7936</t>
+          <t>0.8101</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.7117</t>
+          <t>0.6647</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.6270</t>
+          <t>0.5985</t>
         </is>
       </c>
     </row>
@@ -2736,62 +2776,62 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
+          <t>ResEncoder_ResBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_4.log</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.9046</t>
+          <t>0.7757</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.8494</t>
+          <t>0.6711</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.8989</t>
+          <t>0.8068</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.8489</t>
+          <t>0.7198</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.7499</t>
+          <t>0.5802</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.6678</t>
+          <t>0.4697</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.8640</t>
+          <t>0.6892</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.7906</t>
+          <t>0.5703</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.7067</t>
+          <t>0.5306</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.6165</t>
+          <t>0.4260</t>
         </is>
       </c>
     </row>
@@ -2801,64 +2841,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
+          <t>ResEncoder_ResBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.9080</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0.8549</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.9104</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.8609</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>0.7535</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>0.6730</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>0.8658</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0.7931</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>0.7168</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>0.6328</t>
-        </is>
-      </c>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2871,57 +2871,57 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.8969</t>
+          <t>0.9098</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.8379</t>
+          <t>0.8571</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.8939</t>
+          <t>0.9062</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.8365</t>
+          <t>0.8559</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.7538</t>
+          <t>0.7479</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.6744</t>
+          <t>0.6691</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0.8605</t>
+          <t>0.8656</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0.7905</t>
+          <t>0.7936</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0.7088</t>
+          <t>0.7117</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.6237</t>
+          <t>0.6270</t>
         </is>
       </c>
     </row>
@@ -2931,62 +2931,62 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_9.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.9045</t>
+          <t>0.9046</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.8470</t>
+          <t>0.8494</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.9147</t>
+          <t>0.8989</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.8644</t>
+          <t>0.8489</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.7493</t>
+          <t>0.7499</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.6684</t>
+          <t>0.6678</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>0.8731</t>
+          <t>0.8640</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.8054</t>
+          <t>0.7906</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>0.7021</t>
+          <t>0.7067</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.6218</t>
+          <t>0.6165</t>
         </is>
       </c>
     </row>
@@ -2996,62 +2996,62 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_9.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.9064</t>
+          <t>0.9080</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.8510</t>
+          <t>0.8549</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.9026</t>
+          <t>0.9104</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.8530</t>
+          <t>0.8609</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.7597</t>
+          <t>0.7535</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.6775</t>
+          <t>0.6730</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.8697</t>
+          <t>0.8658</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.7984</t>
+          <t>0.7931</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.7081</t>
+          <t>0.7168</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.6273</t>
+          <t>0.6328</t>
         </is>
       </c>
     </row>
@@ -3061,62 +3061,62 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet18_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.8972</t>
+          <t>0.8969</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.8415</t>
+          <t>0.8379</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.9093</t>
+          <t>0.8939</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.8591</t>
+          <t>0.8365</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.7521</t>
+          <t>0.7538</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.6702</t>
+          <t>0.6744</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>0.8619</t>
+          <t>0.8605</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.7844</t>
+          <t>0.7905</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>0.7040</t>
+          <t>0.7088</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0.6147</t>
+          <t>0.6237</t>
         </is>
       </c>
     </row>
@@ -3131,57 +3131,57 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_9.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_9.log</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.8972</t>
+          <t>0.9045</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.8415</t>
+          <t>0.8470</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.9093</t>
+          <t>0.9147</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.8591</t>
+          <t>0.8644</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.7521</t>
+          <t>0.7493</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0.6702</t>
+          <t>0.6684</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0.8619</t>
+          <t>0.8731</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.7844</t>
+          <t>0.8054</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>0.7040</t>
+          <t>0.7021</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0.6147</t>
+          <t>0.6218</t>
         </is>
       </c>
     </row>
@@ -3191,62 +3191,62 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_9.log</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.9016</t>
+          <t>0.9064</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.8446</t>
+          <t>0.8510</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9026</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.8608</t>
+          <t>0.8530</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.7785</t>
+          <t>0.7597</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0.6944</t>
+          <t>0.6775</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0.8481</t>
+          <t>0.8697</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0.7705</t>
+          <t>0.7984</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0.6952</t>
+          <t>0.7081</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>0.6143</t>
+          <t>0.6273</t>
         </is>
       </c>
     </row>
@@ -3256,62 +3256,62 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.9073</t>
+          <t>0.8972</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.8522</t>
+          <t>0.8415</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.9147</t>
+          <t>0.9093</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.8639</t>
+          <t>0.8591</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.7542</t>
+          <t>0.7521</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.6751</t>
+          <t>0.6702</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>0.8509</t>
+          <t>0.8619</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.7777</t>
+          <t>0.7844</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>0.7452</t>
+          <t>0.7040</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>0.6631</t>
+          <t>0.6147</t>
         </is>
       </c>
     </row>
@@ -3321,62 +3321,62 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_9.log</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.9099</t>
+          <t>0.8972</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.8566</t>
+          <t>0.8415</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.9229</t>
+          <t>0.9093</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.8751</t>
+          <t>0.8591</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.7547</t>
+          <t>0.7521</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0.6760</t>
+          <t>0.6702</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>0.8382</t>
+          <t>0.8619</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0.7599</t>
+          <t>0.7844</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0.7131</t>
+          <t>0.7040</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>0.6363</t>
+          <t>0.6147</t>
         </is>
       </c>
     </row>
@@ -3391,57 +3391,57 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.9110</t>
+          <t>0.9016</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.8603</t>
+          <t>0.8446</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.9120</t>
+          <t>0.9115</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.8666</t>
+          <t>0.8608</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.7369</t>
+          <t>0.7785</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.6706</t>
+          <t>0.6944</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0.8542</t>
+          <t>0.8481</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.7942</t>
+          <t>0.7705</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>0.7480</t>
+          <t>0.6952</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>0.6690</t>
+          <t>0.6143</t>
         </is>
       </c>
     </row>
@@ -3456,57 +3456,57 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.9092</t>
+          <t>0.9073</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.8590</t>
+          <t>0.8522</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.9146</t>
+          <t>0.9147</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.8674</t>
+          <t>0.8639</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.7702</t>
+          <t>0.7542</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0.6946</t>
+          <t>0.6751</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.8778</t>
+          <t>0.8509</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0.8167</t>
+          <t>0.7777</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0.7297</t>
+          <t>0.7452</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>0.6494</t>
+          <t>0.6631</t>
         </is>
       </c>
     </row>
@@ -3521,57 +3521,57 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.9198</t>
+          <t>0.9099</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.8679</t>
+          <t>0.8566</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.9191</t>
+          <t>0.9229</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.8713</t>
+          <t>0.8751</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.7638</t>
+          <t>0.7547</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0.6897</t>
+          <t>0.6760</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0.8736</t>
+          <t>0.8382</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0.8079</t>
+          <t>0.7599</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0.7388</t>
+          <t>0.7131</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>0.6593</t>
+          <t>0.6363</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SimpleDecoder</t>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3591,52 +3591,52 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.9193</t>
+          <t>0.9110</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.8688</t>
+          <t>0.8603</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.9056</t>
+          <t>0.9120</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.8603</t>
+          <t>0.8666</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.7483</t>
+          <t>0.7369</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0.6757</t>
+          <t>0.6706</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0.8708</t>
+          <t>0.8542</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0.8029</t>
+          <t>0.7942</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>0.7509</t>
+          <t>0.7480</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>0.6627</t>
+          <t>0.6690</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SimpleDecoder</t>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3656,52 +3656,52 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.8996</t>
+          <t>0.9092</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.8431</t>
+          <t>0.8590</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.9158</t>
+          <t>0.9146</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.8661</t>
+          <t>0.8674</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.7824</t>
+          <t>0.7702</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0.7015</t>
+          <t>0.6946</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0.8671</t>
+          <t>0.8778</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0.8029</t>
+          <t>0.8167</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>0.7716</t>
+          <t>0.7297</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>0.6924</t>
+          <t>0.6494</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SimpleDecoder</t>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3721,52 +3721,52 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.9180</t>
+          <t>0.9198</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.8664</t>
+          <t>0.8679</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.9060</t>
+          <t>0.9191</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.8573</t>
+          <t>0.8713</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.7607</t>
+          <t>0.7638</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>0.6828</t>
+          <t>0.6897</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0.8678</t>
+          <t>0.8736</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0.7973</t>
+          <t>0.8079</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>0.7507</t>
+          <t>0.7388</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>0.6689</t>
+          <t>0.6593</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SmallDecoder</t>
+          <t>Resnet34_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3786,52 +3786,52 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.9119</t>
+          <t>0.9193</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.8583</t>
+          <t>0.8688</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.9272</t>
+          <t>0.9056</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.8769</t>
+          <t>0.8603</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.7630</t>
+          <t>0.7483</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>0.6875</t>
+          <t>0.6757</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0.8614</t>
+          <t>0.8708</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0.7931</t>
+          <t>0.8029</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>0.7268</t>
+          <t>0.7509</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>0.6455</t>
+          <t>0.6627</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SmallDecoder</t>
+          <t>Resnet34_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3851,52 +3851,52 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.9142</t>
+          <t>0.8996</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.8641</t>
+          <t>0.8431</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.9247</t>
+          <t>0.9158</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.8748</t>
+          <t>0.8661</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.7613</t>
+          <t>0.7824</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0.6828</t>
+          <t>0.7015</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>0.8636</t>
+          <t>0.8671</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.7931</t>
+          <t>0.8029</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>0.7324</t>
+          <t>0.7716</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>0.6468</t>
+          <t>0.6924</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_SmallDecoder</t>
+          <t>Resnet34_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3916,52 +3916,52 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.9117</t>
+          <t>0.9180</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.8604</t>
+          <t>0.8664</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.9193</t>
+          <t>0.9060</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.8716</t>
+          <t>0.8573</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.7515</t>
+          <t>0.7607</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.6760</t>
+          <t>0.6828</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0.8743</t>
+          <t>0.8678</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.8124</t>
+          <t>0.7973</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>0.7415</t>
+          <t>0.7507</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>0.6596</t>
+          <t>0.6689</t>
         </is>
       </c>
     </row>
@@ -3971,62 +3971,62 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Resnet34_ResBridge_ResDecoder</t>
+          <t>Resnet34_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.9013</t>
+          <t>0.9119</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.8513</t>
+          <t>0.8583</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.9063</t>
+          <t>0.9272</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.8590</t>
+          <t>0.8769</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.7037</t>
+          <t>0.7630</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.6399</t>
+          <t>0.6875</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0.8623</t>
+          <t>0.8614</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.7827</t>
+          <t>0.7931</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>0.7152</t>
+          <t>0.7268</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>0.6482</t>
+          <t>0.6455</t>
         </is>
       </c>
     </row>
@@ -4036,62 +4036,62 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Resnet34_ResBridge_SimpleDecoder</t>
+          <t>Resnet34_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.9145</t>
+          <t>0.9142</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.8597</t>
+          <t>0.8641</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.9024</t>
+          <t>0.9247</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.8564</t>
+          <t>0.8748</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.7104</t>
+          <t>0.7613</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0.6488</t>
+          <t>0.6828</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0.8787</t>
+          <t>0.8636</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.8097</t>
+          <t>0.7931</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>0.7257</t>
+          <t>0.7324</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>0.6476</t>
+          <t>0.6468</t>
         </is>
       </c>
     </row>
@@ -4101,62 +4101,62 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Resnet34_Resnet34_DepthwsDecoder</t>
+          <t>Resnet34_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.9128</t>
+          <t>0.9117</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.8588</t>
+          <t>0.8604</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.9169</t>
+          <t>0.9193</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.8692</t>
+          <t>0.8716</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.7659</t>
+          <t>0.7515</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>0.6921</t>
+          <t>0.6760</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0.8514</t>
+          <t>0.8743</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>0.7817</t>
+          <t>0.8124</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>0.7510</t>
+          <t>0.7415</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>0.6679</t>
+          <t>0.6596</t>
         </is>
       </c>
     </row>
@@ -4166,62 +4166,62 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Resnet34_Resnet34_ResDecoder</t>
+          <t>Resnet34_ResBridge_ResDecoder</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.8984</t>
+          <t>0.9013</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.8414</t>
+          <t>0.8513</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.9039</t>
+          <t>0.9063</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.8543</t>
+          <t>0.8590</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.7556</t>
+          <t>0.7037</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.6806</t>
+          <t>0.6399</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0.8566</t>
+          <t>0.8623</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.7854</t>
+          <t>0.7827</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>0.7099</t>
+          <t>0.7152</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>0.6259</t>
+          <t>0.6482</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Resnet34_Resnet34_ResDecoder</t>
+          <t>Resnet34_ResBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4241,52 +4241,52 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.9094</t>
+          <t>0.9145</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.8602</t>
+          <t>0.8597</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.9110</t>
+          <t>0.9024</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.8595</t>
+          <t>0.8564</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.7662</t>
+          <t>0.7104</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0.6926</t>
+          <t>0.6488</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>0.8660</t>
+          <t>0.8787</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0.7990</t>
+          <t>0.8097</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>0.7224</t>
+          <t>0.7257</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>0.6460</t>
+          <t>0.6476</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Resnet34_Resnet34_SimpleDecoder</t>
+          <t>Resnet34_ResBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4306,52 +4306,52 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.9033</t>
+          <t>0.9011</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.8450</t>
+          <t>0.8475</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.9205</t>
+          <t>0.9112</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.8715</t>
+          <t>0.8642</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.7638</t>
+          <t>0.7087</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0.6922</t>
+          <t>0.6476</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0.8767</t>
+          <t>0.8752</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0.8110</t>
+          <t>0.8072</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>0.7660</t>
+          <t>0.7122</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>0.6889</t>
+          <t>0.6406</t>
         </is>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet34_Resnet34_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4369,16 +4369,56 @@
           <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.9128</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0.8588</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.9169</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.8692</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>0.7659</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0.6921</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>0.8514</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0.7817</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>0.7510</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>0.6679</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -4386,62 +4426,62 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet34_Resnet34_ResDecoder</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.9000</t>
+          <t>0.8984</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.8480</t>
+          <t>0.8414</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.9186</t>
+          <t>0.9039</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.8689</t>
+          <t>0.8543</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.7686</t>
+          <t>0.7556</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.6883</t>
+          <t>0.6806</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0.8398</t>
+          <t>0.8566</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.7622</t>
+          <t>0.7854</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>0.7944</t>
+          <t>0.7099</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>0.7122</t>
+          <t>0.6259</t>
         </is>
       </c>
     </row>
@@ -4451,62 +4491,62 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet34_Resnet34_ResDecoder</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.9129</t>
+          <t>0.9094</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.8612</t>
+          <t>0.8602</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.9150</t>
+          <t>0.9110</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.8677</t>
+          <t>0.8595</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.7797</t>
+          <t>0.7662</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0.6986</t>
+          <t>0.6926</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0.8699</t>
+          <t>0.8660</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.8042</t>
+          <t>0.7990</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>0.7753</t>
+          <t>0.7224</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>0.6902</t>
+          <t>0.6460</t>
         </is>
       </c>
     </row>
@@ -4516,24 +4556,64 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet34_Resnet34_SimpleDecoder</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.9033</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0.8450</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.9205</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.8715</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>0.7638</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>0.6922</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>0.8767</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0.8110</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>0.7660</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0.6889</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -4546,59 +4626,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.9150</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>0.8652</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>0.9153</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.8671</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>0.7958</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>0.7145</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>0.8543</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>0.7833</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>0.7817</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>0.6970</t>
-        </is>
-      </c>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4606,7 +4646,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4616,52 +4656,52 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.9248</t>
+          <t>0.9000</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.8765</t>
+          <t>0.8480</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.9088</t>
+          <t>0.9186</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.8637</t>
+          <t>0.8689</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.7627</t>
+          <t>0.7686</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.6872</t>
+          <t>0.6883</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0.8849</t>
+          <t>0.8398</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.8190</t>
+          <t>0.7622</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>0.8083</t>
+          <t>0.7944</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>0.7245</t>
+          <t>0.7122</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4711,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4681,52 +4721,52 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.9062</t>
+          <t>0.9129</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.8556</t>
+          <t>0.8612</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.9254</t>
+          <t>0.9150</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.8754</t>
+          <t>0.8677</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.7631</t>
+          <t>0.7797</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.6870</t>
+          <t>0.6986</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0.8622</t>
+          <t>0.8699</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.7932</t>
+          <t>0.8042</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>0.7706</t>
+          <t>0.7753</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>0.6865</t>
+          <t>0.6902</t>
         </is>
       </c>
     </row>
@@ -4736,64 +4776,24 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_SmallDecoder</t>
+          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.9117</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>0.8582</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>0.9093</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.8638</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>0.7606</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>0.6785</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>0.8640</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>0.7926</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>0.7614</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>0.6794</t>
-        </is>
-      </c>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4801,62 +4801,62 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_SmallDecoder</t>
+          <t>Resnet50_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9150</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.8607</t>
+          <t>0.8652</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.9289</t>
+          <t>0.9153</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.8828</t>
+          <t>0.8671</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.7800</t>
+          <t>0.7958</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.6998</t>
+          <t>0.7145</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0.8520</t>
+          <t>0.8543</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.7831</t>
+          <t>0.7833</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>0.7298</t>
+          <t>0.7817</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0.6491</t>
+          <t>0.6970</t>
         </is>
       </c>
     </row>
@@ -4866,62 +4866,62 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Resnet50_LambdaBridge_SmallDecoder</t>
+          <t>Resnet50_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.9014</t>
+          <t>0.9248</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.8502</t>
+          <t>0.8765</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0.9255</t>
+          <t>0.9088</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.8794</t>
+          <t>0.8637</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.7740</t>
+          <t>0.7627</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0.6943</t>
+          <t>0.6872</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>0.8642</t>
+          <t>0.8849</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>0.7981</t>
+          <t>0.8190</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>0.7737</t>
+          <t>0.8083</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>0.6900</t>
+          <t>0.7245</t>
         </is>
       </c>
     </row>
@@ -4931,62 +4931,62 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet50_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.9101</t>
+          <t>0.9062</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.8585</t>
+          <t>0.8556</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.9324</t>
+          <t>0.9254</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.8816</t>
+          <t>0.8754</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.7351</t>
+          <t>0.7631</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0.6617</t>
+          <t>0.6870</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>0.8701</t>
+          <t>0.8622</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>0.8046</t>
+          <t>0.7932</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>0.7957</t>
+          <t>0.7706</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>0.7111</t>
+          <t>0.6865</t>
         </is>
       </c>
     </row>
@@ -4996,62 +4996,62 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet50_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.9063</t>
+          <t>0.9117</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.8497</t>
+          <t>0.8582</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.9148</t>
+          <t>0.9093</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.8634</t>
+          <t>0.8638</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.7591</t>
+          <t>0.7606</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0.6826</t>
+          <t>0.6785</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>0.8672</t>
+          <t>0.8640</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0.7956</t>
+          <t>0.7926</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>0.7913</t>
+          <t>0.7614</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0.7106</t>
+          <t>0.6794</t>
         </is>
       </c>
     </row>
@@ -5061,62 +5061,62 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet50_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.9116</t>
+          <t>0.9115</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.8592</t>
+          <t>0.8607</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.9278</t>
+          <t>0.9289</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.8805</t>
+          <t>0.8828</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.7603</t>
+          <t>0.7800</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0.6856</t>
+          <t>0.6998</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>0.8715</t>
+          <t>0.8520</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>0.8075</t>
+          <t>0.7831</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>0.7720</t>
+          <t>0.7298</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>0.6876</t>
+          <t>0.6491</t>
         </is>
       </c>
     </row>
@@ -5126,62 +5126,62 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_SmallDecoder</t>
+          <t>Resnet50_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.9105</t>
+          <t>0.9014</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.8598</t>
+          <t>0.8502</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.9207</t>
+          <t>0.9255</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.8716</t>
+          <t>0.8794</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.7364</t>
+          <t>0.7740</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.6637</t>
+          <t>0.6943</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>0.8760</t>
+          <t>0.8642</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.8103</t>
+          <t>0.7981</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>0.7621</t>
+          <t>0.7737</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>0.6870</t>
+          <t>0.6900</t>
         </is>
       </c>
     </row>
@@ -5191,62 +5191,62 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_SmallDecoder</t>
+          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.9122</t>
+          <t>0.9101</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.8625</t>
+          <t>0.8585</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.9366</t>
+          <t>0.9324</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.8907</t>
+          <t>0.8816</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.7597</t>
+          <t>0.7351</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0.6810</t>
+          <t>0.6617</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0.8519</t>
+          <t>0.8701</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0.7892</t>
+          <t>0.8046</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>0.7722</t>
+          <t>0.7957</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>0.6931</t>
+          <t>0.7111</t>
         </is>
       </c>
     </row>
@@ -5256,62 +5256,62 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_SmallDecoder</t>
+          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.9106</t>
+          <t>0.9063</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.8583</t>
+          <t>0.8497</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0.9172</t>
+          <t>0.9148</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.8681</t>
+          <t>0.8634</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.7585</t>
+          <t>0.7591</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.6804</t>
+          <t>0.6826</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0.8604</t>
+          <t>0.8672</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.7988</t>
+          <t>0.7956</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>0.7433</t>
+          <t>0.7913</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>0.6616</t>
+          <t>0.7106</t>
         </is>
       </c>
     </row>
@@ -5321,62 +5321,62 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Resnet50_ResBridge_SimpleDecoder</t>
+          <t>Resnet50_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.9068</t>
+          <t>0.9116</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.8538</t>
+          <t>0.8592</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.9172</t>
+          <t>0.9278</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.8684</t>
+          <t>0.8805</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.7087</t>
+          <t>0.7603</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0.6435</t>
+          <t>0.6856</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>0.8685</t>
+          <t>0.8715</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0.8026</t>
+          <t>0.8075</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>0.7217</t>
+          <t>0.7720</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>0.6516</t>
+          <t>0.6876</t>
         </is>
       </c>
     </row>
@@ -5386,24 +5386,64 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Resnet50_Resnet50_DepthwsDecoder</t>
+          <t>Resnet50_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.9105</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0.8598</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.9207</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.8716</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>0.7364</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>0.6637</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0.8760</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0.8103</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0.7621</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0.6870</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -5411,62 +5451,62 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Resnet50_Resnet50_SimpleDecoder</t>
+          <t>Resnet50_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.9114</t>
+          <t>0.9122</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.8595</t>
+          <t>0.8625</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0.9190</t>
+          <t>0.9366</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.8698</t>
+          <t>0.8907</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.7276</t>
+          <t>0.7597</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0.6609</t>
+          <t>0.6810</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>0.8803</t>
+          <t>0.8519</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0.8087</t>
+          <t>0.7892</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>0.7405</t>
+          <t>0.7722</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>0.6763</t>
+          <t>0.6931</t>
         </is>
       </c>
     </row>
@@ -5476,62 +5516,62 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet50_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.9035</t>
+          <t>0.9106</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.8431</t>
+          <t>0.8583</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.9168</t>
+          <t>0.9172</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.8648</t>
+          <t>0.8681</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.7581</t>
+          <t>0.7585</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0.6715</t>
+          <t>0.6804</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0.8627</t>
+          <t>0.8604</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0.7960</t>
+          <t>0.7988</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>0.7182</t>
+          <t>0.7433</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>0.6298</t>
+          <t>0.6616</t>
         </is>
       </c>
     </row>
@@ -5541,62 +5581,62 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet50_ResBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.9120</t>
+          <t>0.9068</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0.8555</t>
+          <t>0.8538</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.9067</t>
+          <t>0.9172</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.8540</t>
+          <t>0.8684</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.7478</t>
+          <t>0.7087</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0.6658</t>
+          <t>0.6435</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>0.8725</t>
+          <t>0.8685</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0.8042</t>
+          <t>0.8026</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>0.7073</t>
+          <t>0.7217</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>0.6189</t>
+          <t>0.6516</t>
         </is>
       </c>
     </row>
@@ -5606,62 +5646,62 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
+          <t>Resnet50_ResBridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.9040</t>
+          <t>0.9014</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.8462</t>
+          <t>0.8450</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.9020</t>
+          <t>0.9183</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.8545</t>
+          <t>0.8694</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.7717</t>
+          <t>0.7084</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0.6892</t>
+          <t>0.6405</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>0.8755</t>
+          <t>0.8703</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0.8096</t>
+          <t>0.8013</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>0.7377</t>
+          <t>0.7063</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>0.6509</t>
+          <t>0.6372</t>
         </is>
       </c>
     </row>
@@ -5671,64 +5711,24 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>Resnet50_Resnet50_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0.9089</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>0.8556</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>0.9132</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>0.8612</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>0.7641</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>0.6838</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>0.8472</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>0.7797</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>0.7083</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>0.6233</t>
-        </is>
-      </c>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -5736,62 +5736,62 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>Resnet50_Resnet50_SimpleDecoder</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.8990</t>
+          <t>0.9114</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0.8426</t>
+          <t>0.8595</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0.9162</t>
+          <t>0.9190</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.8650</t>
+          <t>0.8698</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.7599</t>
+          <t>0.7276</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>0.6777</t>
+          <t>0.6609</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>0.8539</t>
+          <t>0.8803</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>0.7846</t>
+          <t>0.8087</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>0.6985</t>
+          <t>0.7405</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>0.6138</t>
+          <t>0.6763</t>
         </is>
       </c>
     </row>
@@ -5801,62 +5801,62 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0.8894</t>
+          <t>0.9035</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0.8297</t>
+          <t>0.8431</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0.9167</t>
+          <t>0.9168</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.8671</t>
+          <t>0.8648</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.7660</t>
+          <t>0.7581</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>0.6863</t>
+          <t>0.6715</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>0.8590</t>
+          <t>0.8627</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>0.7904</t>
+          <t>0.7960</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>0.7233</t>
+          <t>0.7182</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>0.6438</t>
+          <t>0.6298</t>
         </is>
       </c>
     </row>
@@ -5866,62 +5866,62 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.9113</t>
+          <t>0.9120</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0.8589</t>
+          <t>0.8555</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9067</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.8611</t>
+          <t>0.8540</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.7334</t>
+          <t>0.7478</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0.6573</t>
+          <t>0.6658</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>0.8705</t>
+          <t>0.8725</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>0.8028</t>
+          <t>0.8042</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>0.7343</t>
+          <t>0.7073</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>0.6589</t>
+          <t>0.6189</t>
         </is>
       </c>
     </row>
@@ -5931,62 +5931,62 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_ResDecoder</t>
+          <t>Resnet18_MHSABridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.8972</t>
+          <t>0.9040</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.8403</t>
+          <t>0.8462</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0.9096</t>
+          <t>0.9020</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.8612</t>
+          <t>0.8545</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.7417</t>
+          <t>0.7717</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0.6671</t>
+          <t>0.6892</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0.8648</t>
+          <t>0.8755</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.7982</t>
+          <t>0.8096</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>0.7119</t>
+          <t>0.7377</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>0.6289</t>
+          <t>0.6509</t>
         </is>
       </c>
     </row>
@@ -6001,57 +6001,57 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.9080</t>
+          <t>0.9089</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.8519</t>
+          <t>0.8556</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0.9174</t>
+          <t>0.9132</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.8652</t>
+          <t>0.8612</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.7610</t>
+          <t>0.7641</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0.6837</t>
+          <t>0.6838</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>0.8551</t>
+          <t>0.8472</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.7899</t>
+          <t>0.7797</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>0.7280</t>
+          <t>0.7083</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>0.6442</t>
+          <t>0.6233</t>
         </is>
       </c>
     </row>
@@ -6061,62 +6061,62 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SimpleDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.9058</t>
+          <t>0.8990</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.8498</t>
+          <t>0.8426</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0.9052</t>
+          <t>0.9162</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.8551</t>
+          <t>0.8650</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.7350</t>
+          <t>0.7599</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0.6523</t>
+          <t>0.6777</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>0.8658</t>
+          <t>0.8539</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.8022</t>
+          <t>0.7846</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>0.7145</t>
+          <t>0.6985</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>0.6342</t>
+          <t>0.6138</t>
         </is>
       </c>
     </row>
@@ -6126,62 +6126,62 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SimpleDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.9038</t>
+          <t>0.8894</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.8482</t>
+          <t>0.8297</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0.9032</t>
+          <t>0.9167</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.8538</t>
+          <t>0.8671</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.7685</t>
+          <t>0.7660</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>0.6851</t>
+          <t>0.6863</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>0.8758</t>
+          <t>0.8590</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0.8051</t>
+          <t>0.7904</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>0.7379</t>
+          <t>0.7233</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>0.6538</t>
+          <t>0.6438</t>
         </is>
       </c>
     </row>
@@ -6191,62 +6191,62 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SimpleDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.9064</t>
+          <t>0.9113</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.8498</t>
+          <t>0.8589</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0.9120</t>
+          <t>0.9115</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.8635</t>
+          <t>0.8611</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.7733</t>
+          <t>0.7334</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>0.6933</t>
+          <t>0.6573</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>0.8761</t>
+          <t>0.8705</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>0.8099</t>
+          <t>0.8028</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>0.7138</t>
+          <t>0.7343</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>0.6396</t>
+          <t>0.6589</t>
         </is>
       </c>
     </row>
@@ -6256,62 +6256,62 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SmallDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.9037</t>
+          <t>0.8972</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0.8486</t>
+          <t>0.8403</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0.9110</t>
+          <t>0.9096</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.8569</t>
+          <t>0.8612</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.7475</t>
+          <t>0.7417</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>0.6648</t>
+          <t>0.6671</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>0.8824</t>
+          <t>0.8648</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0.8122</t>
+          <t>0.7982</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>0.7184</t>
+          <t>0.7119</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>0.6335</t>
+          <t>0.6289</t>
         </is>
       </c>
     </row>
@@ -6321,62 +6321,62 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SmallDecoder</t>
+          <t>Resnet18_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.8966</t>
+          <t>0.9080</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0.8386</t>
+          <t>0.8519</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0.9119</t>
+          <t>0.9174</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.8607</t>
+          <t>0.8652</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.7745</t>
+          <t>0.7610</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>0.6957</t>
+          <t>0.6837</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>0.8806</t>
+          <t>0.8551</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0.8151</t>
+          <t>0.7899</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>0.7296</t>
+          <t>0.7280</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>0.6538</t>
+          <t>0.6442</t>
         </is>
       </c>
     </row>
@@ -6386,62 +6386,62 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Resnet18_MHSABridge_SmallDecoder</t>
+          <t>Resnet18_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.9101</t>
+          <t>0.9058</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.8572</t>
+          <t>0.8498</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.9097</t>
+          <t>0.9052</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.8587</t>
+          <t>0.8551</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.7625</t>
+          <t>0.7350</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>0.6800</t>
+          <t>0.6523</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0.8747</t>
+          <t>0.8658</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0.8095</t>
+          <t>0.8022</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>0.7465</t>
+          <t>0.7145</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>0.6616</t>
+          <t>0.6342</t>
         </is>
       </c>
     </row>
@@ -6451,62 +6451,62 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Resnet18_ResBridge_ResDecoder</t>
+          <t>Resnet18_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.8879</t>
+          <t>0.9038</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.8289</t>
+          <t>0.8482</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.9044</t>
+          <t>0.9032</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.8514</t>
+          <t>0.8538</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.6868</t>
+          <t>0.7685</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0.6181</t>
+          <t>0.6851</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>0.8649</t>
+          <t>0.8758</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>0.7977</t>
+          <t>0.8051</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>0.6838</t>
+          <t>0.7379</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>0.6114</t>
+          <t>0.6538</t>
         </is>
       </c>
     </row>
@@ -6516,62 +6516,62 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Resnet18_ResBridge_SimpleDecoder</t>
+          <t>Resnet18_MHSABridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.8908</t>
+          <t>0.9064</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.8303</t>
+          <t>0.8498</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0.9045</t>
+          <t>0.9120</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.8543</t>
+          <t>0.8635</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.6942</t>
+          <t>0.7733</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>0.6283</t>
+          <t>0.6933</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0.8664</t>
+          <t>0.8761</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>0.7986</t>
+          <t>0.8099</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>0.7019</t>
+          <t>0.7138</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>0.6226</t>
+          <t>0.6396</t>
         </is>
       </c>
     </row>
@@ -6581,62 +6581,62 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Resnet18_Resnet18_DepthwsDecoder</t>
+          <t>Resnet18_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.8961</t>
+          <t>0.9037</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.8344</t>
+          <t>0.8486</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0.9159</t>
+          <t>0.9110</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.8668</t>
+          <t>0.8569</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.7496</t>
+          <t>0.7475</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0.6706</t>
+          <t>0.6648</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0.8756</t>
+          <t>0.8824</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0.8066</t>
+          <t>0.8122</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>0.7185</t>
+          <t>0.7184</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>0.6341</t>
+          <t>0.6335</t>
         </is>
       </c>
     </row>
@@ -6646,62 +6646,62 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Resnet18_Resnet18_ResDecoder</t>
+          <t>Resnet18_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.8945</t>
+          <t>0.8966</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.8330</t>
+          <t>0.8386</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0.9291</t>
+          <t>0.9119</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.8790</t>
+          <t>0.8607</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.7402</t>
+          <t>0.7745</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>0.6655</t>
+          <t>0.6957</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>0.8464</t>
+          <t>0.8806</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>0.7741</t>
+          <t>0.8151</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>0.6875</t>
+          <t>0.7296</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>0.6093</t>
+          <t>0.6538</t>
         </is>
       </c>
     </row>
@@ -6711,62 +6711,62 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Resnet18_Resnet18_ResDecoder</t>
+          <t>Resnet18_MHSABridge_SmallDecoder</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.9010</t>
+          <t>0.9101</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.8436</t>
+          <t>0.8572</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0.9114</t>
+          <t>0.9097</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.8638</t>
+          <t>0.8587</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.7286</t>
+          <t>0.7625</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>0.6567</t>
+          <t>0.6800</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0.8781</t>
+          <t>0.8747</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>0.8092</t>
+          <t>0.8095</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>0.7142</t>
+          <t>0.7465</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>0.6345</t>
+          <t>0.6616</t>
         </is>
       </c>
     </row>
@@ -6776,7 +6776,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Resnet18_Resnet18_SimpleDecoder</t>
+          <t>Resnet18_ResBridge_ResDecoder</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6786,52 +6786,52 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.9026</t>
+          <t>0.8879</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.8440</t>
+          <t>0.8289</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0.9225</t>
+          <t>0.9044</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.8732</t>
+          <t>0.8514</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.7294</t>
+          <t>0.6868</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>0.6538</t>
+          <t>0.6181</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>0.8765</t>
+          <t>0.8649</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0.8065</t>
+          <t>0.7977</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>0.7279</t>
+          <t>0.6838</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>0.6557</t>
+          <t>0.6114</t>
         </is>
       </c>
     </row>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet18_ResBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6851,52 +6851,52 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0.8953</t>
+          <t>0.8908</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0.8403</t>
+          <t>0.8303</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0.9093</t>
+          <t>0.9045</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0.8580</t>
+          <t>0.8543</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0.7941</t>
+          <t>0.6942</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>0.7153</t>
+          <t>0.6283</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>0.8624</t>
+          <t>0.8664</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>0.7946</t>
+          <t>0.7986</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>0.7338</t>
+          <t>0.7019</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>0.6510</t>
+          <t>0.6226</t>
         </is>
       </c>
     </row>
@@ -6906,62 +6906,62 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet18_Resnet18_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0.9155</t>
+          <t>0.8961</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0.8626</t>
+          <t>0.8344</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0.9026</t>
+          <t>0.9159</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0.8510</t>
+          <t>0.8668</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0.7585</t>
+          <t>0.7496</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>0.6791</t>
+          <t>0.6706</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>0.8610</t>
+          <t>0.8756</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>0.7909</t>
+          <t>0.8066</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>0.7220</t>
+          <t>0.7185</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>0.6387</t>
+          <t>0.6341</t>
         </is>
       </c>
     </row>
@@ -6971,62 +6971,62 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet18_Resnet18_ResDecoder</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0.9167</t>
+          <t>0.8945</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0.8670</t>
+          <t>0.8330</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0.9080</t>
+          <t>0.9291</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0.8585</t>
+          <t>0.8790</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.7634</t>
+          <t>0.7402</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>0.6867</t>
+          <t>0.6655</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>0.8483</t>
+          <t>0.8464</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>0.7737</t>
+          <t>0.7741</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>0.7163</t>
+          <t>0.6875</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>0.6320</t>
+          <t>0.6093</t>
         </is>
       </c>
     </row>
@@ -7036,62 +7036,62 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
+          <t>Resnet18_Resnet18_ResDecoder</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0.9154</t>
+          <t>0.9010</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0.8622</t>
+          <t>0.8436</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0.9096</t>
+          <t>0.9114</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>0.8608</t>
+          <t>0.8638</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0.7680</t>
+          <t>0.7286</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>0.6894</t>
+          <t>0.6567</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>0.8502</t>
+          <t>0.8781</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>0.7831</t>
+          <t>0.8092</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>0.7650</t>
+          <t>0.7142</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>0.6787</t>
+          <t>0.6345</t>
         </is>
       </c>
     </row>
@@ -7101,62 +7101,62 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet18_Resnet18_SimpleDecoder</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_7.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.9156</t>
+          <t>0.9026</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0.8640</t>
+          <t>0.8440</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0.9184</t>
+          <t>0.9225</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0.8685</t>
+          <t>0.8732</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>0.7622</t>
+          <t>0.7294</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>0.6888</t>
+          <t>0.6538</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>0.8691</t>
+          <t>0.8765</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>0.8004</t>
+          <t>0.8065</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>0.7397</t>
+          <t>0.7279</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>0.6535</t>
+          <t>0.6557</t>
         </is>
       </c>
     </row>
@@ -7166,62 +7166,62 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_9.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.9159</t>
+          <t>0.8953</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0.8628</t>
+          <t>0.8403</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0.9133</t>
+          <t>0.9093</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>0.8651</t>
+          <t>0.8580</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0.7787</t>
+          <t>0.7941</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>0.7040</t>
+          <t>0.7153</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>0.8811</t>
+          <t>0.8624</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>0.8168</t>
+          <t>0.7946</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>0.7548</t>
+          <t>0.7338</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>0.6735</t>
+          <t>0.6510</t>
         </is>
       </c>
     </row>
@@ -7231,62 +7231,62 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_9.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.9024</t>
+          <t>0.9155</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0.8463</t>
+          <t>0.8626</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0.9165</t>
+          <t>0.9026</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>0.8717</t>
+          <t>0.8510</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0.7711</t>
+          <t>0.7585</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>0.6923</t>
+          <t>0.6791</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>0.8501</t>
+          <t>0.8610</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>0.7824</t>
+          <t>0.7909</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>0.7250</t>
+          <t>0.7220</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>0.6436</t>
+          <t>0.6387</t>
         </is>
       </c>
     </row>
@@ -7296,62 +7296,62 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9167</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0.8590</t>
+          <t>0.8670</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0.9125</t>
+          <t>0.9080</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>0.8634</t>
+          <t>0.8585</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0.7750</t>
+          <t>0.7634</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>0.6957</t>
+          <t>0.6867</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>0.8526</t>
+          <t>0.8483</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>0.7799</t>
+          <t>0.7737</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>0.7467</t>
+          <t>0.7163</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>0.6613</t>
+          <t>0.6320</t>
         </is>
       </c>
     </row>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+          <t>Resnet34_LambdaBridge_DepthwsDecoder</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -7371,52 +7371,52 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0.9183</t>
+          <t>0.9154</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0.8668</t>
+          <t>0.8622</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0.8972</t>
+          <t>0.9096</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>0.8504</t>
+          <t>0.8608</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>0.7623</t>
+          <t>0.7680</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>0.6868</t>
+          <t>0.6894</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>0.8433</t>
+          <t>0.8502</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>0.7716</t>
+          <t>0.7831</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>0.7537</t>
+          <t>0.7650</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>0.6716</t>
+          <t>0.6787</t>
         </is>
       </c>
     </row>
@@ -7431,57 +7431,57 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_7.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_7.log</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0.9079</t>
+          <t>0.9156</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0.8518</t>
+          <t>0.8640</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0.8953</t>
+          <t>0.9184</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>0.8506</t>
+          <t>0.8685</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>0.7723</t>
+          <t>0.7622</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>0.6975</t>
+          <t>0.6888</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>0.8724</t>
+          <t>0.8691</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>0.8067</t>
+          <t>0.8004</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>0.7491</t>
+          <t>0.7397</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>0.6701</t>
+          <t>0.6535</t>
         </is>
       </c>
     </row>
@@ -7496,57 +7496,57 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_9.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_9.log</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9159</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0.8590</t>
+          <t>0.8628</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0.9125</t>
+          <t>0.9133</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>0.8634</t>
+          <t>0.8651</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0.7750</t>
+          <t>0.7787</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>0.6957</t>
+          <t>0.7040</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>0.8526</t>
+          <t>0.8811</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>0.7799</t>
+          <t>0.8168</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>0.7467</t>
+          <t>0.7548</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>0.6613</t>
+          <t>0.6735</t>
         </is>
       </c>
     </row>
@@ -7556,62 +7556,62 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SmallDecoder</t>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_9.log</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0.9143</t>
+          <t>0.9024</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0.8624</t>
+          <t>0.8463</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0.9084</t>
+          <t>0.9165</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>0.8563</t>
+          <t>0.8717</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0.7651</t>
+          <t>0.7711</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>0.6861</t>
+          <t>0.6923</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>0.8256</t>
+          <t>0.8501</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>0.7434</t>
+          <t>0.7824</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>0.7334</t>
+          <t>0.7250</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>0.6417</t>
+          <t>0.6436</t>
         </is>
       </c>
     </row>
@@ -7621,62 +7621,62 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Resnet34_LambdaBridge_SmallDecoder</t>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0.9132</t>
+          <t>0.9115</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0.8600</t>
+          <t>0.8590</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0.8917</t>
+          <t>0.9125</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>0.8436</t>
+          <t>0.8634</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0.7697</t>
+          <t>0.7750</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>0.6921</t>
+          <t>0.6957</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>0.8466</t>
+          <t>0.8526</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>0.7808</t>
+          <t>0.7799</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>0.7386</t>
+          <t>0.7467</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>0.6524</t>
+          <t>0.6613</t>
         </is>
       </c>
     </row>
@@ -7686,60 +7686,385 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.9183</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0.8668</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.8972</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.8504</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>0.7623</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>0.6868</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>0.8433</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>0.7716</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>0.7537</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>0.6716</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_7.log</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.9079</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0.8518</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.8953</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.8506</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>0.7723</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>0.6975</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>0.8724</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>0.8067</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>0.7491</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>0.6701</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SimpleDecoder</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_9.log</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.9115</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0.8590</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.9125</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.8634</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>0.7750</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>0.6957</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>0.8526</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>0.7799</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>0.7467</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>0.6613</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
           <t>Resnet34_LambdaBridge_SmallDecoder</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1_r_5.log</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.9143</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0.8624</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.9084</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.8563</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>0.7651</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>0.6861</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>0.8256</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>0.7434</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>0.7334</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>0.6417</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2_r_5.log</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.9132</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0.8600</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.8917</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.8436</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>0.7697</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>0.6921</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>0.8466</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>0.7808</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>0.7386</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>0.6524</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Resnet34_LambdaBridge_SmallDecoder</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
         <is>
           <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3_r_5.log</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>0.9123</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>0.8599</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>0.8989</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>0.8471</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>0.7833</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>0.7039</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>0.8730</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>0.8071</t>
         </is>
       </c>
-      <c r="L115" t="inlineStr">
+      <c r="L120" t="inlineStr">
         <is>
           <t>0.7615</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr">
+      <c r="M120" t="inlineStr">
         <is>
           <t>0.6755</t>
         </is>
